--- a/data.xlsx
+++ b/data.xlsx
@@ -435,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="596">
   <si>
     <t>الاسم</t>
   </si>
@@ -2211,6 +2211,18 @@
   </si>
   <si>
     <t>فيصل نايف عزو جديد</t>
+  </si>
+  <si>
+    <t>اسم تجريبي</t>
+  </si>
+  <si>
+    <t>عنوان تجريبي</t>
+  </si>
+  <si>
+    <t>لايوجد</t>
+  </si>
+  <si>
+    <t>تجريبي</t>
   </si>
 </sst>
 </file>
@@ -2725,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N549"/>
+  <dimension ref="A1:N550"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="H215" sqref="H215:J215"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="J552" sqref="J552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18081,8 +18093,39 @@
       </c>
       <c r="N549" s="1"/>
     </row>
+    <row r="550" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C550" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D550" s="10"/>
+      <c r="E550" s="10"/>
+      <c r="F550" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="G550" s="10"/>
+      <c r="H550" s="21"/>
+      <c r="I550" s="21"/>
+      <c r="J550" s="21"/>
+      <c r="K550" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="L550" s="12"/>
+      <c r="M550" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2197">
+  <mergeCells count="2201">
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="F550:G550"/>
+    <mergeCell ref="H550:J550"/>
+    <mergeCell ref="K550:L550"/>
     <mergeCell ref="C548:E548"/>
     <mergeCell ref="F548:G548"/>
     <mergeCell ref="H548:J548"/>
@@ -20817,7 +20860,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K534:L549">
+  <conditionalFormatting sqref="K534:L550">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -21253,7 +21296,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K534:L549</xm:sqref>
+          <xm:sqref>K534:L550</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2222,7 +2222,7 @@
     <t>تجريبي</t>
   </si>
   <si>
-    <t>اسم تجريبي 2</t>
+    <t>اسم تجريبي 3</t>
   </si>
 </sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:N550"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="C550" sqref="C550:E550"/>
+      <selection activeCell="H548" sqref="H548:J548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -435,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="596">
   <si>
     <t>الاسم</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:N550"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="H548" sqref="H548:J548"/>
+      <selection activeCell="M550" sqref="M550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18116,8 +18116,8 @@
         <v>593</v>
       </c>
       <c r="L550" s="6"/>
-      <c r="M550" s="1" t="s">
-        <v>593</v>
+      <c r="M550" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2222,7 +2222,7 @@
     <t>تجريبي</t>
   </si>
   <si>
-    <t>اسم تجريبي 18</t>
+    <t>اسم تجريبي 19</t>
   </si>
 </sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -435,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="598">
   <si>
     <t>الاسم</t>
   </si>
@@ -2189,18 +2189,12 @@
     <t>مدرسة لايوجد زمار</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1لايوجد</t>
-  </si>
-  <si>
     <t>فيصل لايوجد شركة عين زالة</t>
   </si>
   <si>
     <t>تحسين خضر لايوجد جديد</t>
   </si>
   <si>
-    <t xml:space="preserve"> 15لايوجد</t>
-  </si>
-  <si>
     <t>فراس موشة لايوجد حمود تل الهوى</t>
   </si>
   <si>
@@ -2223,6 +2217,18 @@
   </si>
   <si>
     <t>اسم تجريبي 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,100,000-</t>
   </si>
 </sst>
 </file>
@@ -2784,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N551"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="M552" sqref="M552"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="K478" sqref="K478:L478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7294,7 +7300,7 @@
       </c>
       <c r="L161" s="12"/>
       <c r="M161" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N161" s="1"/>
     </row>
@@ -7322,7 +7328,7 @@
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
       <c r="M162" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N162" s="1"/>
     </row>
@@ -7350,7 +7356,7 @@
       <c r="K163" s="12"/>
       <c r="L163" s="12"/>
       <c r="M163" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N163" s="1"/>
     </row>
@@ -7406,7 +7412,7 @@
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
       <c r="M165" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N165" s="1"/>
     </row>
@@ -7434,7 +7440,7 @@
       </c>
       <c r="L166" s="12"/>
       <c r="M166" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N166" s="1"/>
     </row>
@@ -7462,7 +7468,7 @@
       </c>
       <c r="L167" s="12"/>
       <c r="M167" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N167" s="1"/>
     </row>
@@ -7490,7 +7496,7 @@
       </c>
       <c r="L168" s="12"/>
       <c r="M168" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N168" s="1"/>
     </row>
@@ -7518,7 +7524,7 @@
       </c>
       <c r="L169" s="12"/>
       <c r="M169" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N169" s="1"/>
     </row>
@@ -7546,7 +7552,7 @@
       </c>
       <c r="L170" s="12"/>
       <c r="M170" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N170" s="1"/>
     </row>
@@ -7574,7 +7580,7 @@
       <c r="K171" s="12"/>
       <c r="L171" s="12"/>
       <c r="M171" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N171" s="1"/>
     </row>
@@ -7602,7 +7608,7 @@
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
       <c r="M172" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N172" s="1"/>
     </row>
@@ -7630,7 +7636,7 @@
       </c>
       <c r="L173" s="12"/>
       <c r="M173" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N173" s="1"/>
     </row>
@@ -7683,8 +7689,8 @@
         <v>100</v>
       </c>
       <c r="L175" s="12"/>
-      <c r="M175" s="1" t="s">
-        <v>576</v>
+      <c r="M175" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N175" s="1"/>
     </row>
@@ -7712,7 +7718,7 @@
       </c>
       <c r="L176" s="12"/>
       <c r="M176" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N176" s="1"/>
     </row>
@@ -7740,7 +7746,7 @@
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
       <c r="M177" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N177" s="1"/>
     </row>
@@ -7768,7 +7774,7 @@
       </c>
       <c r="L178" s="12"/>
       <c r="M178" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N178" s="1"/>
     </row>
@@ -7823,7 +7829,7 @@
         <v>297</v>
       </c>
       <c r="L180" s="12"/>
-      <c r="M180" s="1">
+      <c r="M180" s="3">
         <v>47</v>
       </c>
       <c r="N180" s="1"/>
@@ -7852,7 +7858,7 @@
       </c>
       <c r="L181" s="12"/>
       <c r="M181" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N181" s="1"/>
     </row>
@@ -7908,7 +7914,7 @@
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
       <c r="M183" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N183" s="1"/>
     </row>
@@ -7936,7 +7942,7 @@
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
       <c r="M184" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N184" s="1"/>
     </row>
@@ -7964,7 +7970,7 @@
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
       <c r="M185" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N185" s="1"/>
     </row>
@@ -7992,7 +7998,7 @@
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
       <c r="M186" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N186" s="1"/>
     </row>
@@ -8020,7 +8026,7 @@
       <c r="K187" s="12"/>
       <c r="L187" s="12"/>
       <c r="M187" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N187" s="1"/>
     </row>
@@ -8048,7 +8054,7 @@
       </c>
       <c r="L188" s="13"/>
       <c r="M188" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N188" s="1"/>
     </row>
@@ -8076,7 +8082,7 @@
       <c r="K189" s="13"/>
       <c r="L189" s="13"/>
       <c r="M189" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N189" s="1"/>
     </row>
@@ -8104,7 +8110,7 @@
       </c>
       <c r="L190" s="13"/>
       <c r="M190" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N190" s="1"/>
     </row>
@@ -8132,7 +8138,7 @@
       </c>
       <c r="L191" s="12"/>
       <c r="M191" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N191" s="1"/>
     </row>
@@ -8160,7 +8166,7 @@
       </c>
       <c r="L192" s="6"/>
       <c r="M192" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N192" s="1"/>
     </row>
@@ -8188,7 +8194,7 @@
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
       <c r="M193" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N193" s="1"/>
     </row>
@@ -8216,7 +8222,7 @@
       <c r="K194" s="12"/>
       <c r="L194" s="12"/>
       <c r="M194" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N194" s="1"/>
     </row>
@@ -8244,7 +8250,7 @@
       <c r="K195" s="12"/>
       <c r="L195" s="12"/>
       <c r="M195" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N195" s="1"/>
     </row>
@@ -8272,7 +8278,7 @@
       </c>
       <c r="L196" s="12"/>
       <c r="M196" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N196" s="1"/>
     </row>
@@ -8300,7 +8306,7 @@
       <c r="K197" s="12"/>
       <c r="L197" s="12"/>
       <c r="M197" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N197" s="1"/>
     </row>
@@ -8328,7 +8334,7 @@
       <c r="K198" s="12"/>
       <c r="L198" s="12"/>
       <c r="M198" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N198" s="1"/>
     </row>
@@ -8356,7 +8362,7 @@
       <c r="K199" s="12"/>
       <c r="L199" s="12"/>
       <c r="M199" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N199" s="1"/>
     </row>
@@ -8384,7 +8390,7 @@
       <c r="K200" s="12"/>
       <c r="L200" s="12"/>
       <c r="M200" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N200" s="1"/>
     </row>
@@ -8412,7 +8418,7 @@
       <c r="K201" s="12"/>
       <c r="L201" s="12"/>
       <c r="M201" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N201" s="1"/>
     </row>
@@ -8440,7 +8446,7 @@
       <c r="K202" s="12"/>
       <c r="L202" s="12"/>
       <c r="M202" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N202" s="1"/>
     </row>
@@ -8468,7 +8474,7 @@
       <c r="K203" s="12"/>
       <c r="L203" s="12"/>
       <c r="M203" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N203" s="1"/>
     </row>
@@ -8496,7 +8502,7 @@
       </c>
       <c r="L204" s="12"/>
       <c r="M204" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="N204" s="1"/>
     </row>
@@ -8524,7 +8530,7 @@
       <c r="K205" s="12"/>
       <c r="L205" s="12"/>
       <c r="M205" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N205" s="1"/>
     </row>
@@ -8552,7 +8558,7 @@
       <c r="K206" s="12"/>
       <c r="L206" s="12"/>
       <c r="M206" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N206" s="1"/>
     </row>
@@ -8580,7 +8586,7 @@
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
       <c r="M207" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N207" s="1"/>
     </row>
@@ -8608,7 +8614,7 @@
       <c r="K208" s="12"/>
       <c r="L208" s="12"/>
       <c r="M208" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N208" s="1"/>
     </row>
@@ -8691,8 +8697,8 @@
         <v>2400</v>
       </c>
       <c r="L211" s="6"/>
-      <c r="M211" s="1" t="s">
-        <v>576</v>
+      <c r="M211" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N211" s="1"/>
     </row>
@@ -8720,7 +8726,7 @@
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
       <c r="M212" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N212" s="1"/>
     </row>
@@ -8748,7 +8754,7 @@
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
       <c r="M213" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N213" s="1"/>
     </row>
@@ -8776,7 +8782,7 @@
       </c>
       <c r="L214" s="6"/>
       <c r="M214" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N214" s="1"/>
     </row>
@@ -8804,7 +8810,7 @@
       </c>
       <c r="L215" s="6"/>
       <c r="M215" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N215" s="1"/>
     </row>
@@ -8832,7 +8838,7 @@
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
       <c r="M216" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N216" s="1"/>
     </row>
@@ -8887,8 +8893,8 @@
       <c r="J218" s="5"/>
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
-      <c r="M218" s="1" t="s">
-        <v>576</v>
+      <c r="M218" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N218" s="1"/>
     </row>
@@ -8900,7 +8906,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -8916,7 +8922,7 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
       <c r="M219" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N219" s="1"/>
     </row>
@@ -8944,7 +8950,7 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
       <c r="M220" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N220" s="1"/>
     </row>
@@ -8972,7 +8978,7 @@
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
       <c r="M221" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N221" s="1"/>
     </row>
@@ -9000,7 +9006,7 @@
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
       <c r="M222" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N222" s="1"/>
     </row>
@@ -9028,7 +9034,7 @@
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
       <c r="M223" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N223" s="1"/>
     </row>
@@ -9056,7 +9062,7 @@
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N224" s="1"/>
     </row>
@@ -9084,7 +9090,7 @@
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
       <c r="M225" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N225" s="1"/>
     </row>
@@ -9112,7 +9118,7 @@
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
       <c r="M226" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N226" s="1"/>
     </row>
@@ -9138,7 +9144,7 @@
       </c>
       <c r="L227" s="6"/>
       <c r="M227" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N227" s="1"/>
     </row>
@@ -9166,7 +9172,7 @@
       </c>
       <c r="L228" s="6"/>
       <c r="M228" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N228" s="1"/>
     </row>
@@ -9222,7 +9228,7 @@
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
       <c r="M230" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N230" s="1"/>
     </row>
@@ -9250,7 +9256,7 @@
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N231" s="1"/>
     </row>
@@ -9262,7 +9268,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -9305,8 +9311,8 @@
       <c r="J233" s="5"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
-      <c r="M233" s="1" t="s">
-        <v>576</v>
+      <c r="M233" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N233" s="1"/>
     </row>
@@ -9334,7 +9340,7 @@
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N234" s="1"/>
     </row>
@@ -9362,7 +9368,7 @@
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
       <c r="M235" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N235" s="1"/>
     </row>
@@ -9418,7 +9424,7 @@
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N237" s="1"/>
     </row>
@@ -9446,7 +9452,7 @@
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
       <c r="M238" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N238" s="1"/>
     </row>
@@ -9474,7 +9480,7 @@
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
       <c r="M239" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N239" s="1"/>
     </row>
@@ -9502,7 +9508,7 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N240" s="1"/>
     </row>
@@ -9530,7 +9536,7 @@
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N241" s="1"/>
     </row>
@@ -9558,7 +9564,7 @@
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N242" s="1"/>
     </row>
@@ -9586,7 +9592,7 @@
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N243" s="1"/>
     </row>
@@ -9614,7 +9620,7 @@
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
       <c r="M244" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N244" s="1"/>
     </row>
@@ -9642,7 +9648,7 @@
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N245" s="1"/>
     </row>
@@ -9670,7 +9676,7 @@
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
       <c r="M246" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N246" s="1"/>
     </row>
@@ -9698,7 +9704,7 @@
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
       <c r="M247" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N247" s="1"/>
     </row>
@@ -9726,7 +9732,7 @@
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
       <c r="M248" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N248" s="1"/>
     </row>
@@ -9754,7 +9760,7 @@
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
       <c r="M249" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N249" s="1"/>
     </row>
@@ -9782,7 +9788,7 @@
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N250" s="1"/>
     </row>
@@ -9794,7 +9800,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -9839,8 +9845,8 @@
         <v>520</v>
       </c>
       <c r="L252" s="6"/>
-      <c r="M252" s="1" t="s">
-        <v>576</v>
+      <c r="M252" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N252" s="1"/>
     </row>
@@ -9868,7 +9874,7 @@
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N253" s="1"/>
     </row>
@@ -9896,7 +9902,7 @@
       <c r="K254" s="6"/>
       <c r="L254" s="6"/>
       <c r="M254" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N254" s="1"/>
     </row>
@@ -9952,7 +9958,7 @@
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N256" s="1"/>
     </row>
@@ -9980,7 +9986,7 @@
       <c r="K257" s="6"/>
       <c r="L257" s="6"/>
       <c r="M257" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N257" s="1"/>
     </row>
@@ -10010,7 +10016,7 @@
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N258" s="1"/>
     </row>
@@ -10094,7 +10100,7 @@
       <c r="K261" s="6"/>
       <c r="L261" s="6"/>
       <c r="M261" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N261" s="1"/>
     </row>
@@ -10122,7 +10128,7 @@
       <c r="K262" s="6"/>
       <c r="L262" s="6"/>
       <c r="M262" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N262" s="1"/>
     </row>
@@ -10150,7 +10156,7 @@
       <c r="K263" s="6"/>
       <c r="L263" s="6"/>
       <c r="M263" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N263" s="1"/>
     </row>
@@ -10178,7 +10184,7 @@
       <c r="K264" s="6"/>
       <c r="L264" s="6"/>
       <c r="M264" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N264" s="1"/>
     </row>
@@ -10206,7 +10212,7 @@
       <c r="K265" s="6"/>
       <c r="L265" s="6"/>
       <c r="M265" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N265" s="1"/>
     </row>
@@ -10262,7 +10268,7 @@
       <c r="K267" s="6"/>
       <c r="L267" s="6"/>
       <c r="M267" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N267" s="1"/>
     </row>
@@ -10290,7 +10296,7 @@
       <c r="K268" s="6"/>
       <c r="L268" s="6"/>
       <c r="M268" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N268" s="1"/>
     </row>
@@ -10318,7 +10324,7 @@
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N269" s="1"/>
     </row>
@@ -10346,7 +10352,7 @@
       <c r="K270" s="6"/>
       <c r="L270" s="6"/>
       <c r="M270" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N270" s="1"/>
     </row>
@@ -10374,7 +10380,7 @@
       <c r="K271" s="6"/>
       <c r="L271" s="6"/>
       <c r="M271" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N271" s="1"/>
     </row>
@@ -10402,7 +10408,7 @@
       <c r="K272" s="6"/>
       <c r="L272" s="6"/>
       <c r="M272" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N272" s="1"/>
     </row>
@@ -10457,8 +10463,8 @@
       <c r="J274" s="5"/>
       <c r="K274" s="6"/>
       <c r="L274" s="6"/>
-      <c r="M274" s="1" t="s">
-        <v>576</v>
+      <c r="M274" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N274" s="1"/>
     </row>
@@ -10486,7 +10492,7 @@
       <c r="K275" s="6"/>
       <c r="L275" s="6"/>
       <c r="M275" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N275" s="1"/>
     </row>
@@ -10514,7 +10520,7 @@
       <c r="K276" s="6"/>
       <c r="L276" s="6"/>
       <c r="M276" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N276" s="1"/>
     </row>
@@ -10542,7 +10548,7 @@
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
       <c r="M277" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N277" s="1"/>
     </row>
@@ -10570,7 +10576,7 @@
       <c r="K278" s="6"/>
       <c r="L278" s="6"/>
       <c r="M278" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N278" s="1"/>
     </row>
@@ -10598,7 +10604,7 @@
       <c r="K279" s="6"/>
       <c r="L279" s="6"/>
       <c r="M279" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N279" s="1"/>
     </row>
@@ -10646,7 +10652,7 @@
       <c r="K281" s="6"/>
       <c r="L281" s="6"/>
       <c r="M281" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N281" s="1"/>
     </row>
@@ -10674,7 +10680,7 @@
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N282" s="1"/>
     </row>
@@ -10702,7 +10708,7 @@
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N283" s="1"/>
     </row>
@@ -10730,7 +10736,7 @@
       <c r="K284" s="6"/>
       <c r="L284" s="6"/>
       <c r="M284" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N284" s="1"/>
     </row>
@@ -10758,7 +10764,7 @@
       <c r="K285" s="6"/>
       <c r="L285" s="6"/>
       <c r="M285" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N285" s="1"/>
     </row>
@@ -10786,7 +10792,7 @@
       <c r="K286" s="6"/>
       <c r="L286" s="6"/>
       <c r="M286" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N286" s="1"/>
     </row>
@@ -10814,7 +10820,7 @@
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N287" s="1"/>
     </row>
@@ -10842,7 +10848,7 @@
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="1" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="N288" s="1"/>
     </row>
@@ -10870,7 +10876,7 @@
       <c r="K289" s="6"/>
       <c r="L289" s="6"/>
       <c r="M289" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N289" s="1"/>
     </row>
@@ -10898,7 +10904,7 @@
       <c r="K290" s="6"/>
       <c r="L290" s="6"/>
       <c r="M290" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N290" s="1"/>
     </row>
@@ -10926,7 +10932,7 @@
       <c r="K291" s="6"/>
       <c r="L291" s="6"/>
       <c r="M291" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N291" s="1"/>
     </row>
@@ -10954,7 +10960,7 @@
       <c r="K292" s="6"/>
       <c r="L292" s="6"/>
       <c r="M292" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N292" s="1"/>
     </row>
@@ -10982,7 +10988,7 @@
       <c r="K293" s="6"/>
       <c r="L293" s="6"/>
       <c r="M293" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N293" s="1"/>
     </row>
@@ -11010,7 +11016,7 @@
       <c r="K294" s="6"/>
       <c r="L294" s="6"/>
       <c r="M294" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N294" s="1"/>
     </row>
@@ -11038,7 +11044,7 @@
       <c r="K295" s="6"/>
       <c r="L295" s="6"/>
       <c r="M295" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N295" s="1"/>
     </row>
@@ -11093,8 +11099,8 @@
       <c r="J297" s="5"/>
       <c r="K297" s="6"/>
       <c r="L297" s="6"/>
-      <c r="M297" s="1" t="s">
-        <v>576</v>
+      <c r="M297" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N297" s="1"/>
     </row>
@@ -11122,7 +11128,7 @@
       <c r="K298" s="6"/>
       <c r="L298" s="6"/>
       <c r="M298" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N298" s="1"/>
     </row>
@@ -11148,7 +11154,7 @@
       <c r="K299" s="6"/>
       <c r="L299" s="6"/>
       <c r="M299" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N299" s="1"/>
     </row>
@@ -11176,7 +11182,7 @@
       <c r="K300" s="6"/>
       <c r="L300" s="6"/>
       <c r="M300" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N300" s="1"/>
     </row>
@@ -11204,7 +11210,7 @@
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N301" s="1"/>
     </row>
@@ -11232,7 +11238,7 @@
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N302" s="1"/>
     </row>
@@ -11260,7 +11266,7 @@
       <c r="K303" s="6"/>
       <c r="L303" s="6"/>
       <c r="M303" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N303" s="1"/>
     </row>
@@ -11288,7 +11294,7 @@
       <c r="K304" s="6"/>
       <c r="L304" s="6"/>
       <c r="M304" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N304" s="1"/>
     </row>
@@ -11316,7 +11322,7 @@
       <c r="K305" s="6"/>
       <c r="L305" s="6"/>
       <c r="M305" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N305" s="1"/>
     </row>
@@ -11344,7 +11350,7 @@
       <c r="K306" s="6"/>
       <c r="L306" s="6"/>
       <c r="M306" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N306" s="1"/>
     </row>
@@ -11399,8 +11405,8 @@
       <c r="J308" s="5"/>
       <c r="K308" s="6"/>
       <c r="L308" s="6"/>
-      <c r="M308" s="1" t="s">
-        <v>576</v>
+      <c r="M308" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N308" s="1"/>
     </row>
@@ -11428,7 +11434,7 @@
       <c r="K309" s="6"/>
       <c r="L309" s="6"/>
       <c r="M309" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N309" s="1"/>
     </row>
@@ -11456,7 +11462,7 @@
       <c r="K310" s="6"/>
       <c r="L310" s="6"/>
       <c r="M310" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N310" s="1"/>
     </row>
@@ -11484,7 +11490,7 @@
       <c r="K311" s="6"/>
       <c r="L311" s="6"/>
       <c r="M311" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N311" s="1"/>
     </row>
@@ -11512,7 +11518,7 @@
       <c r="K312" s="6"/>
       <c r="L312" s="6"/>
       <c r="M312" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N312" s="1"/>
     </row>
@@ -11540,7 +11546,7 @@
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N313" s="1"/>
     </row>
@@ -11566,7 +11572,7 @@
       <c r="K314" s="6"/>
       <c r="L314" s="6"/>
       <c r="M314" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N314" s="1"/>
     </row>
@@ -11594,7 +11600,7 @@
       <c r="K315" s="6"/>
       <c r="L315" s="6"/>
       <c r="M315" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N315" s="1"/>
     </row>
@@ -11650,7 +11656,7 @@
       <c r="K317" s="6"/>
       <c r="L317" s="6"/>
       <c r="M317" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N317" s="1"/>
     </row>
@@ -11678,7 +11684,7 @@
       <c r="K318" s="6"/>
       <c r="L318" s="6"/>
       <c r="M318" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N318" s="1"/>
     </row>
@@ -11706,7 +11712,7 @@
       <c r="K319" s="6"/>
       <c r="L319" s="6"/>
       <c r="M319" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N319" s="1"/>
     </row>
@@ -11761,8 +11767,8 @@
         <v>450</v>
       </c>
       <c r="L321" s="6"/>
-      <c r="M321" s="1" t="s">
-        <v>576</v>
+      <c r="M321" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N321" s="1"/>
     </row>
@@ -11790,7 +11796,7 @@
       <c r="K322" s="6"/>
       <c r="L322" s="6"/>
       <c r="M322" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N322" s="1"/>
     </row>
@@ -11846,7 +11852,7 @@
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N324" s="1"/>
     </row>
@@ -11874,7 +11880,7 @@
       <c r="K325" s="6"/>
       <c r="L325" s="6"/>
       <c r="M325" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N325" s="1"/>
     </row>
@@ -11902,7 +11908,7 @@
       <c r="K326" s="6"/>
       <c r="L326" s="6"/>
       <c r="M326" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N326" s="1"/>
     </row>
@@ -11930,7 +11936,7 @@
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N327" s="1"/>
     </row>
@@ -11960,7 +11966,7 @@
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N328" s="1"/>
     </row>
@@ -11988,7 +11994,7 @@
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N329" s="1"/>
     </row>
@@ -12016,7 +12022,7 @@
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N330" s="1"/>
     </row>
@@ -12044,7 +12050,7 @@
       <c r="K331" s="6"/>
       <c r="L331" s="6"/>
       <c r="M331" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N331" s="1"/>
     </row>
@@ -12072,7 +12078,7 @@
       <c r="K332" s="6"/>
       <c r="L332" s="6"/>
       <c r="M332" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N332" s="1"/>
     </row>
@@ -12100,7 +12106,7 @@
       <c r="K333" s="6"/>
       <c r="L333" s="6"/>
       <c r="M333" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N333" s="1"/>
     </row>
@@ -12128,7 +12134,7 @@
       <c r="K334" s="6"/>
       <c r="L334" s="6"/>
       <c r="M334" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N334" s="1"/>
     </row>
@@ -12156,7 +12162,7 @@
       <c r="K335" s="6"/>
       <c r="L335" s="6"/>
       <c r="M335" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N335" s="1"/>
     </row>
@@ -12184,7 +12190,7 @@
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N336" s="1"/>
     </row>
@@ -12212,7 +12218,7 @@
       <c r="K337" s="6"/>
       <c r="L337" s="6"/>
       <c r="M337" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N337" s="1"/>
     </row>
@@ -12240,7 +12246,7 @@
       <c r="K338" s="6"/>
       <c r="L338" s="6"/>
       <c r="M338" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N338" s="1"/>
     </row>
@@ -12268,7 +12274,7 @@
       <c r="K339" s="6"/>
       <c r="L339" s="6"/>
       <c r="M339" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N339" s="1"/>
     </row>
@@ -12296,7 +12302,7 @@
       <c r="K340" s="6"/>
       <c r="L340" s="6"/>
       <c r="M340" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N340" s="1"/>
     </row>
@@ -12324,7 +12330,7 @@
       <c r="K341" s="6"/>
       <c r="L341" s="6"/>
       <c r="M341" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N341" s="1"/>
     </row>
@@ -12352,7 +12358,7 @@
       <c r="K342" s="6"/>
       <c r="L342" s="6"/>
       <c r="M342" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N342" s="1"/>
     </row>
@@ -12380,7 +12386,7 @@
       <c r="K343" s="6"/>
       <c r="L343" s="6"/>
       <c r="M343" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N343" s="1"/>
     </row>
@@ -12435,8 +12441,8 @@
       <c r="J345" s="5"/>
       <c r="K345" s="6"/>
       <c r="L345" s="6"/>
-      <c r="M345" s="1" t="s">
-        <v>576</v>
+      <c r="M345" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N345" s="1"/>
     </row>
@@ -12464,7 +12470,7 @@
       <c r="K346" s="6"/>
       <c r="L346" s="6"/>
       <c r="M346" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N346" s="1"/>
     </row>
@@ -12492,7 +12498,7 @@
       <c r="K347" s="6"/>
       <c r="L347" s="6"/>
       <c r="M347" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N347" s="1"/>
     </row>
@@ -12520,7 +12526,7 @@
       <c r="K348" s="6"/>
       <c r="L348" s="6"/>
       <c r="M348" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N348" s="1"/>
     </row>
@@ -12548,7 +12554,7 @@
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N349" s="1"/>
     </row>
@@ -12603,8 +12609,8 @@
       <c r="J351" s="5"/>
       <c r="K351" s="6"/>
       <c r="L351" s="6"/>
-      <c r="M351" s="1" t="s">
-        <v>576</v>
+      <c r="M351" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N351" s="1"/>
     </row>
@@ -12659,8 +12665,8 @@
       <c r="J353" s="5"/>
       <c r="K353" s="6"/>
       <c r="L353" s="6"/>
-      <c r="M353" s="1" t="s">
-        <v>576</v>
+      <c r="M353" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N353" s="1"/>
     </row>
@@ -12688,7 +12694,7 @@
       <c r="K354" s="6"/>
       <c r="L354" s="6"/>
       <c r="M354" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N354" s="1"/>
     </row>
@@ -12716,7 +12722,7 @@
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N355" s="1"/>
     </row>
@@ -12744,7 +12750,7 @@
       <c r="K356" s="6"/>
       <c r="L356" s="6"/>
       <c r="M356" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N356" s="1"/>
     </row>
@@ -12772,7 +12778,7 @@
       <c r="K357" s="6"/>
       <c r="L357" s="6"/>
       <c r="M357" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N357" s="1"/>
     </row>
@@ -12800,7 +12806,7 @@
       <c r="K358" s="6"/>
       <c r="L358" s="6"/>
       <c r="M358" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N358" s="1"/>
     </row>
@@ -12828,7 +12834,7 @@
       <c r="K359" s="6"/>
       <c r="L359" s="6"/>
       <c r="M359" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N359" s="1"/>
     </row>
@@ -12856,7 +12862,7 @@
       <c r="K360" s="6"/>
       <c r="L360" s="6"/>
       <c r="M360" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N360" s="1"/>
     </row>
@@ -12884,7 +12890,7 @@
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N361" s="1"/>
     </row>
@@ -12912,7 +12918,7 @@
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N362" s="1"/>
     </row>
@@ -12940,7 +12946,7 @@
       <c r="K363" s="6"/>
       <c r="L363" s="6"/>
       <c r="M363" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N363" s="1"/>
     </row>
@@ -12968,7 +12974,7 @@
       <c r="K364" s="6"/>
       <c r="L364" s="6"/>
       <c r="M364" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N364" s="1"/>
     </row>
@@ -12996,7 +13002,7 @@
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N365" s="1"/>
     </row>
@@ -13052,7 +13058,7 @@
       <c r="K367" s="6"/>
       <c r="L367" s="6"/>
       <c r="M367" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N367" s="1"/>
     </row>
@@ -13107,8 +13113,8 @@
       <c r="J369" s="5"/>
       <c r="K369" s="6"/>
       <c r="L369" s="6"/>
-      <c r="M369" s="1" t="s">
-        <v>576</v>
+      <c r="M369" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N369" s="1"/>
     </row>
@@ -13136,7 +13142,7 @@
       <c r="K370" s="6"/>
       <c r="L370" s="6"/>
       <c r="M370" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N370" s="1"/>
     </row>
@@ -13164,7 +13170,7 @@
       <c r="K371" s="6"/>
       <c r="L371" s="6"/>
       <c r="M371" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N371" s="1"/>
     </row>
@@ -13219,8 +13225,8 @@
       <c r="J373" s="5"/>
       <c r="K373" s="6"/>
       <c r="L373" s="6"/>
-      <c r="M373" s="1" t="s">
-        <v>576</v>
+      <c r="M373" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N373" s="1"/>
     </row>
@@ -13275,8 +13281,8 @@
         <v>1600</v>
       </c>
       <c r="L375" s="6"/>
-      <c r="M375" s="1" t="s">
-        <v>576</v>
+      <c r="M375" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N375" s="1"/>
     </row>
@@ -13304,7 +13310,7 @@
       <c r="K376" s="6"/>
       <c r="L376" s="6"/>
       <c r="M376" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N376" s="1"/>
     </row>
@@ -13359,8 +13365,8 @@
       <c r="J378" s="5"/>
       <c r="K378" s="6"/>
       <c r="L378" s="6"/>
-      <c r="M378" s="1" t="s">
-        <v>576</v>
+      <c r="M378" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N378" s="1"/>
     </row>
@@ -13388,7 +13394,7 @@
       <c r="K379" s="6"/>
       <c r="L379" s="6"/>
       <c r="M379" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N379" s="1"/>
     </row>
@@ -13416,7 +13422,7 @@
       </c>
       <c r="L380" s="6"/>
       <c r="M380" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="N380" s="1"/>
     </row>
@@ -13444,7 +13450,7 @@
       <c r="K381" s="6"/>
       <c r="L381" s="6"/>
       <c r="M381" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N381" s="1"/>
     </row>
@@ -13472,7 +13478,7 @@
       <c r="K382" s="6"/>
       <c r="L382" s="6"/>
       <c r="M382" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N382" s="1"/>
     </row>
@@ -13500,7 +13506,7 @@
       <c r="K383" s="6"/>
       <c r="L383" s="6"/>
       <c r="M383" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N383" s="1"/>
     </row>
@@ -13528,7 +13534,7 @@
       <c r="K384" s="6"/>
       <c r="L384" s="6"/>
       <c r="M384" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N384" s="1"/>
     </row>
@@ -13556,7 +13562,7 @@
       <c r="K385" s="6"/>
       <c r="L385" s="6"/>
       <c r="M385" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N385" s="1"/>
     </row>
@@ -13584,7 +13590,7 @@
       </c>
       <c r="L386" s="6"/>
       <c r="M386" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N386" s="1"/>
     </row>
@@ -13667,8 +13673,8 @@
         <v>550</v>
       </c>
       <c r="L389" s="6"/>
-      <c r="M389" s="1" t="s">
-        <v>576</v>
+      <c r="M389" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N389" s="1"/>
     </row>
@@ -13696,7 +13702,7 @@
       <c r="K390" s="6"/>
       <c r="L390" s="6"/>
       <c r="M390" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N390" s="1"/>
     </row>
@@ -13724,7 +13730,7 @@
       </c>
       <c r="L391" s="6"/>
       <c r="M391" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N391" s="1"/>
     </row>
@@ -13752,7 +13758,7 @@
       <c r="K392" s="6"/>
       <c r="L392" s="6"/>
       <c r="M392" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N392" s="1"/>
     </row>
@@ -13780,7 +13786,7 @@
       <c r="K393" s="6"/>
       <c r="L393" s="6"/>
       <c r="M393" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N393" s="1"/>
     </row>
@@ -13808,7 +13814,7 @@
       </c>
       <c r="L394" s="6"/>
       <c r="M394" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N394" s="1"/>
     </row>
@@ -13836,7 +13842,7 @@
       <c r="K395" s="6"/>
       <c r="L395" s="6"/>
       <c r="M395" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N395" s="1"/>
     </row>
@@ -13864,7 +13870,7 @@
       <c r="K396" s="6"/>
       <c r="L396" s="6"/>
       <c r="M396" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N396" s="1"/>
     </row>
@@ -13892,7 +13898,7 @@
       <c r="K397" s="6"/>
       <c r="L397" s="6"/>
       <c r="M397" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N397" s="1"/>
     </row>
@@ -13920,7 +13926,7 @@
       </c>
       <c r="L398" s="6"/>
       <c r="M398" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N398" s="1"/>
     </row>
@@ -13948,7 +13954,7 @@
       </c>
       <c r="L399" s="6"/>
       <c r="M399" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N399" s="1"/>
     </row>
@@ -13976,7 +13982,7 @@
       </c>
       <c r="L400" s="6"/>
       <c r="M400" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N400" s="1"/>
     </row>
@@ -14004,7 +14010,7 @@
       </c>
       <c r="L401" s="6"/>
       <c r="M401" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N401" s="1"/>
     </row>
@@ -14016,7 +14022,7 @@
         <v>401</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -14032,7 +14038,7 @@
       </c>
       <c r="L402" s="6"/>
       <c r="M402" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N402" s="1"/>
     </row>
@@ -14058,7 +14064,7 @@
       </c>
       <c r="L403" s="6"/>
       <c r="M403" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N403" s="1"/>
     </row>
@@ -14086,7 +14092,7 @@
       <c r="K404" s="6"/>
       <c r="L404" s="6"/>
       <c r="M404" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N404" s="1"/>
     </row>
@@ -14114,7 +14120,7 @@
       </c>
       <c r="L405" s="6"/>
       <c r="M405" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N405" s="1"/>
     </row>
@@ -14142,7 +14148,7 @@
       </c>
       <c r="L406" s="6"/>
       <c r="M406" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N406" s="1"/>
     </row>
@@ -14170,7 +14176,7 @@
       <c r="K407" s="6"/>
       <c r="L407" s="6"/>
       <c r="M407" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N407" s="1"/>
     </row>
@@ -14226,7 +14232,7 @@
       <c r="K409" s="6"/>
       <c r="L409" s="6"/>
       <c r="M409" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N409" s="1"/>
     </row>
@@ -14254,7 +14260,7 @@
       </c>
       <c r="L410" s="6"/>
       <c r="M410" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N410" s="1"/>
     </row>
@@ -14282,7 +14288,7 @@
       <c r="K411" s="6"/>
       <c r="L411" s="6"/>
       <c r="M411" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N411" s="1"/>
     </row>
@@ -14338,7 +14344,7 @@
       <c r="K413" s="6"/>
       <c r="L413" s="6"/>
       <c r="M413" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N413" s="1"/>
     </row>
@@ -14366,7 +14372,7 @@
       </c>
       <c r="L414" s="6"/>
       <c r="M414" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N414" s="1"/>
     </row>
@@ -14421,8 +14427,8 @@
         <v>120</v>
       </c>
       <c r="L416" s="6"/>
-      <c r="M416" s="1" t="s">
-        <v>576</v>
+      <c r="M416" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N416" s="1"/>
     </row>
@@ -14448,7 +14454,7 @@
       <c r="K417" s="6"/>
       <c r="L417" s="6"/>
       <c r="M417" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N417" s="1"/>
     </row>
@@ -14474,7 +14480,7 @@
       <c r="K418" s="6"/>
       <c r="L418" s="6"/>
       <c r="M418" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N418" s="1"/>
     </row>
@@ -14502,7 +14508,7 @@
       <c r="K419" s="6"/>
       <c r="L419" s="6"/>
       <c r="M419" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N419" s="1"/>
     </row>
@@ -14530,7 +14536,7 @@
       <c r="K420" s="6"/>
       <c r="L420" s="6"/>
       <c r="M420" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N420" s="1"/>
     </row>
@@ -14558,7 +14564,7 @@
       </c>
       <c r="L421" s="6"/>
       <c r="M421" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N421" s="1"/>
     </row>
@@ -14586,7 +14592,7 @@
       <c r="K422" s="6"/>
       <c r="L422" s="6"/>
       <c r="M422" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N422" s="1"/>
     </row>
@@ -14598,7 +14604,7 @@
         <v>422</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -14697,8 +14703,8 @@
       <c r="J426" s="5"/>
       <c r="K426" s="6"/>
       <c r="L426" s="6"/>
-      <c r="M426" s="1" t="s">
-        <v>576</v>
+      <c r="M426" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N426" s="1"/>
     </row>
@@ -14726,7 +14732,7 @@
       <c r="K427" s="6"/>
       <c r="L427" s="6"/>
       <c r="M427" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N427" s="1"/>
     </row>
@@ -14754,7 +14760,7 @@
       <c r="K428" s="6"/>
       <c r="L428" s="6"/>
       <c r="M428" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N428" s="1"/>
     </row>
@@ -14782,7 +14788,7 @@
       <c r="K429" s="6"/>
       <c r="L429" s="6"/>
       <c r="M429" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N429" s="1"/>
     </row>
@@ -14810,7 +14816,7 @@
       </c>
       <c r="L430" s="6"/>
       <c r="M430" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N430" s="1"/>
     </row>
@@ -14865,8 +14871,8 @@
       <c r="J432" s="5"/>
       <c r="K432" s="6"/>
       <c r="L432" s="6"/>
-      <c r="M432" s="1" t="s">
-        <v>576</v>
+      <c r="M432" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N432" s="1"/>
     </row>
@@ -14894,7 +14900,7 @@
       <c r="K433" s="6"/>
       <c r="L433" s="6"/>
       <c r="M433" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N433" s="1"/>
     </row>
@@ -14922,7 +14928,7 @@
       <c r="K434" s="6"/>
       <c r="L434" s="6"/>
       <c r="M434" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N434" s="1"/>
     </row>
@@ -14950,7 +14956,7 @@
       <c r="K435" s="6"/>
       <c r="L435" s="6"/>
       <c r="M435" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N435" s="1"/>
     </row>
@@ -14978,7 +14984,7 @@
       <c r="K436" s="6"/>
       <c r="L436" s="6"/>
       <c r="M436" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N436" s="1"/>
     </row>
@@ -15006,7 +15012,7 @@
       <c r="K437" s="6"/>
       <c r="L437" s="6"/>
       <c r="M437" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N437" s="1"/>
     </row>
@@ -15034,7 +15040,7 @@
       <c r="K438" s="6"/>
       <c r="L438" s="6"/>
       <c r="M438" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N438" s="1"/>
     </row>
@@ -15061,8 +15067,8 @@
       <c r="J439" s="5"/>
       <c r="K439" s="6"/>
       <c r="L439" s="6"/>
-      <c r="M439" s="3">
-        <v>250000</v>
+      <c r="M439" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N439" s="1"/>
     </row>
@@ -15145,8 +15151,8 @@
       <c r="J442" s="5"/>
       <c r="K442" s="6"/>
       <c r="L442" s="6"/>
-      <c r="M442" s="1" t="s">
-        <v>576</v>
+      <c r="M442" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N442" s="1"/>
     </row>
@@ -15202,7 +15208,7 @@
       <c r="K444" s="6"/>
       <c r="L444" s="6"/>
       <c r="M444" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N444" s="1"/>
     </row>
@@ -15257,8 +15263,8 @@
       <c r="J446" s="5"/>
       <c r="K446" s="6"/>
       <c r="L446" s="6"/>
-      <c r="M446" s="1" t="s">
-        <v>576</v>
+      <c r="M446" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N446" s="1"/>
     </row>
@@ -15286,7 +15292,7 @@
       <c r="K447" s="6"/>
       <c r="L447" s="6"/>
       <c r="M447" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="N447" s="1"/>
     </row>
@@ -15342,7 +15348,7 @@
       <c r="K449" s="6"/>
       <c r="L449" s="6"/>
       <c r="M449" s="3">
-        <v>1800000</v>
+        <v>1600000</v>
       </c>
       <c r="N449" s="1"/>
     </row>
@@ -15370,7 +15376,7 @@
       <c r="K450" s="6"/>
       <c r="L450" s="6"/>
       <c r="M450" s="3">
-        <v>2925000</v>
+        <v>2775000</v>
       </c>
       <c r="N450" s="1"/>
     </row>
@@ -15397,8 +15403,8 @@
       <c r="J451" s="5"/>
       <c r="K451" s="6"/>
       <c r="L451" s="6"/>
-      <c r="M451" s="1" t="s">
-        <v>576</v>
+      <c r="M451" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N451" s="1"/>
     </row>
@@ -15426,7 +15432,7 @@
       <c r="K452" s="6"/>
       <c r="L452" s="6"/>
       <c r="M452" s="3">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="N452" s="1"/>
     </row>
@@ -15593,8 +15599,8 @@
       <c r="J458" s="5"/>
       <c r="K458" s="6"/>
       <c r="L458" s="6"/>
-      <c r="M458" s="3">
-        <v>50000</v>
+      <c r="M458" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N458" s="1"/>
     </row>
@@ -15703,8 +15709,8 @@
       <c r="J462" s="5"/>
       <c r="K462" s="6"/>
       <c r="L462" s="6"/>
-      <c r="M462" s="1" t="s">
-        <v>576</v>
+      <c r="M462" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N462" s="1"/>
     </row>
@@ -15755,8 +15761,8 @@
       <c r="J464" s="5"/>
       <c r="K464" s="6"/>
       <c r="L464" s="6"/>
-      <c r="M464" s="1" t="s">
-        <v>576</v>
+      <c r="M464" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N464" s="1"/>
     </row>
@@ -15811,8 +15817,8 @@
       <c r="J466" s="5"/>
       <c r="K466" s="6"/>
       <c r="L466" s="6"/>
-      <c r="M466" s="3">
-        <v>1500000</v>
+      <c r="M466" s="3" t="s">
+        <v>597</v>
       </c>
       <c r="N466" s="1"/>
     </row>
@@ -15895,8 +15901,8 @@
       <c r="J469" s="5"/>
       <c r="K469" s="6"/>
       <c r="L469" s="6"/>
-      <c r="M469" s="1" t="s">
-        <v>576</v>
+      <c r="M469" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="N469" s="1"/>
     </row>
@@ -16007,8 +16013,8 @@
         <v>550</v>
       </c>
       <c r="L473" s="6"/>
-      <c r="M473" s="1">
-        <v>550</v>
+      <c r="M473" s="3">
+        <v>450</v>
       </c>
       <c r="N473" s="1"/>
     </row>
@@ -16203,8 +16209,8 @@
         <v>45</v>
       </c>
       <c r="L480" s="12"/>
-      <c r="M480" s="1">
-        <v>45</v>
+      <c r="M480" s="3">
+        <v>300000</v>
       </c>
       <c r="N480" s="1"/>
     </row>
@@ -16652,7 +16658,7 @@
       </c>
       <c r="L496" s="12"/>
       <c r="M496" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N496" s="1"/>
     </row>
@@ -18140,31 +18146,31 @@
     </row>
     <row r="550" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B550" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C550" s="10" t="s">
         <v>593</v>
-      </c>
-      <c r="C550" s="10" t="s">
-        <v>595</v>
       </c>
       <c r="D550" s="10"/>
       <c r="E550" s="10"/>
       <c r="F550" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G550" s="10"/>
       <c r="H550" s="21" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I550" s="21"/>
       <c r="J550" s="21"/>
       <c r="K550" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L550" s="12"/>
       <c r="M550" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="551" spans="1:14" ht="18" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -435,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="596">
   <si>
     <t>الاسم</t>
   </si>
@@ -2189,12 +2189,18 @@
     <t>مدرسة لايوجد زمار</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1لايوجد</t>
+  </si>
+  <si>
     <t>فيصل لايوجد شركة عين زالة</t>
   </si>
   <si>
     <t>تحسين خضر لايوجد جديد</t>
   </si>
   <si>
+    <t xml:space="preserve"> 15لايوجد</t>
+  </si>
+  <si>
     <t>فراس موشة لايوجد حمود تل الهوى</t>
   </si>
   <si>
@@ -2217,18 +2223,6 @@
   </si>
   <si>
     <t>اسم تجريبي 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,100,000-</t>
   </si>
 </sst>
 </file>
@@ -2791,10 +2785,13 @@
   <dimension ref="A1:N551"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="K478" sqref="K478:L478"/>
+      <selection activeCell="K469" sqref="K469:L469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -7300,7 +7297,7 @@
       </c>
       <c r="L161" s="12"/>
       <c r="M161" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N161" s="1"/>
     </row>
@@ -7328,7 +7325,7 @@
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
       <c r="M162" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N162" s="1"/>
     </row>
@@ -7356,7 +7353,7 @@
       <c r="K163" s="12"/>
       <c r="L163" s="12"/>
       <c r="M163" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N163" s="1"/>
     </row>
@@ -7412,7 +7409,7 @@
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
       <c r="M165" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N165" s="1"/>
     </row>
@@ -7440,7 +7437,7 @@
       </c>
       <c r="L166" s="12"/>
       <c r="M166" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N166" s="1"/>
     </row>
@@ -7468,7 +7465,7 @@
       </c>
       <c r="L167" s="12"/>
       <c r="M167" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N167" s="1"/>
     </row>
@@ -7496,7 +7493,7 @@
       </c>
       <c r="L168" s="12"/>
       <c r="M168" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N168" s="1"/>
     </row>
@@ -7524,7 +7521,7 @@
       </c>
       <c r="L169" s="12"/>
       <c r="M169" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N169" s="1"/>
     </row>
@@ -7552,7 +7549,7 @@
       </c>
       <c r="L170" s="12"/>
       <c r="M170" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N170" s="1"/>
     </row>
@@ -7580,7 +7577,7 @@
       <c r="K171" s="12"/>
       <c r="L171" s="12"/>
       <c r="M171" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N171" s="1"/>
     </row>
@@ -7608,7 +7605,7 @@
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
       <c r="M172" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N172" s="1"/>
     </row>
@@ -7636,7 +7633,7 @@
       </c>
       <c r="L173" s="12"/>
       <c r="M173" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N173" s="1"/>
     </row>
@@ -7690,7 +7687,7 @@
       </c>
       <c r="L175" s="12"/>
       <c r="M175" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N175" s="1"/>
     </row>
@@ -7718,7 +7715,7 @@
       </c>
       <c r="L176" s="12"/>
       <c r="M176" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N176" s="1"/>
     </row>
@@ -7746,7 +7743,7 @@
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
       <c r="M177" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N177" s="1"/>
     </row>
@@ -7774,7 +7771,7 @@
       </c>
       <c r="L178" s="12"/>
       <c r="M178" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N178" s="1"/>
     </row>
@@ -7858,7 +7855,7 @@
       </c>
       <c r="L181" s="12"/>
       <c r="M181" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N181" s="1"/>
     </row>
@@ -7914,7 +7911,7 @@
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
       <c r="M183" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N183" s="1"/>
     </row>
@@ -7942,7 +7939,7 @@
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
       <c r="M184" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N184" s="1"/>
     </row>
@@ -7970,7 +7967,7 @@
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
       <c r="M185" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N185" s="1"/>
     </row>
@@ -7998,7 +7995,7 @@
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
       <c r="M186" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N186" s="1"/>
     </row>
@@ -8026,7 +8023,7 @@
       <c r="K187" s="12"/>
       <c r="L187" s="12"/>
       <c r="M187" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N187" s="1"/>
     </row>
@@ -8054,7 +8051,7 @@
       </c>
       <c r="L188" s="13"/>
       <c r="M188" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N188" s="1"/>
     </row>
@@ -8082,7 +8079,7 @@
       <c r="K189" s="13"/>
       <c r="L189" s="13"/>
       <c r="M189" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N189" s="1"/>
     </row>
@@ -8110,7 +8107,7 @@
       </c>
       <c r="L190" s="13"/>
       <c r="M190" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N190" s="1"/>
     </row>
@@ -8138,7 +8135,7 @@
       </c>
       <c r="L191" s="12"/>
       <c r="M191" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N191" s="1"/>
     </row>
@@ -8166,7 +8163,7 @@
       </c>
       <c r="L192" s="6"/>
       <c r="M192" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N192" s="1"/>
     </row>
@@ -8194,7 +8191,7 @@
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
       <c r="M193" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N193" s="1"/>
     </row>
@@ -8222,7 +8219,7 @@
       <c r="K194" s="12"/>
       <c r="L194" s="12"/>
       <c r="M194" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N194" s="1"/>
     </row>
@@ -8250,7 +8247,7 @@
       <c r="K195" s="12"/>
       <c r="L195" s="12"/>
       <c r="M195" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N195" s="1"/>
     </row>
@@ -8278,7 +8275,7 @@
       </c>
       <c r="L196" s="12"/>
       <c r="M196" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N196" s="1"/>
     </row>
@@ -8306,7 +8303,7 @@
       <c r="K197" s="12"/>
       <c r="L197" s="12"/>
       <c r="M197" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N197" s="1"/>
     </row>
@@ -8334,7 +8331,7 @@
       <c r="K198" s="12"/>
       <c r="L198" s="12"/>
       <c r="M198" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N198" s="1"/>
     </row>
@@ -8362,7 +8359,7 @@
       <c r="K199" s="12"/>
       <c r="L199" s="12"/>
       <c r="M199" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N199" s="1"/>
     </row>
@@ -8390,7 +8387,7 @@
       <c r="K200" s="12"/>
       <c r="L200" s="12"/>
       <c r="M200" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N200" s="1"/>
     </row>
@@ -8418,7 +8415,7 @@
       <c r="K201" s="12"/>
       <c r="L201" s="12"/>
       <c r="M201" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N201" s="1"/>
     </row>
@@ -8446,7 +8443,7 @@
       <c r="K202" s="12"/>
       <c r="L202" s="12"/>
       <c r="M202" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N202" s="1"/>
     </row>
@@ -8474,7 +8471,7 @@
       <c r="K203" s="12"/>
       <c r="L203" s="12"/>
       <c r="M203" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N203" s="1"/>
     </row>
@@ -8502,7 +8499,7 @@
       </c>
       <c r="L204" s="12"/>
       <c r="M204" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="N204" s="1"/>
     </row>
@@ -8530,7 +8527,7 @@
       <c r="K205" s="12"/>
       <c r="L205" s="12"/>
       <c r="M205" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N205" s="1"/>
     </row>
@@ -8558,7 +8555,7 @@
       <c r="K206" s="12"/>
       <c r="L206" s="12"/>
       <c r="M206" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N206" s="1"/>
     </row>
@@ -8586,7 +8583,7 @@
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
       <c r="M207" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N207" s="1"/>
     </row>
@@ -8614,7 +8611,7 @@
       <c r="K208" s="12"/>
       <c r="L208" s="12"/>
       <c r="M208" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N208" s="1"/>
     </row>
@@ -8698,7 +8695,7 @@
       </c>
       <c r="L211" s="6"/>
       <c r="M211" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N211" s="1"/>
     </row>
@@ -8726,7 +8723,7 @@
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
       <c r="M212" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N212" s="1"/>
     </row>
@@ -8754,7 +8751,7 @@
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
       <c r="M213" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N213" s="1"/>
     </row>
@@ -8782,7 +8779,7 @@
       </c>
       <c r="L214" s="6"/>
       <c r="M214" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N214" s="1"/>
     </row>
@@ -8810,7 +8807,7 @@
       </c>
       <c r="L215" s="6"/>
       <c r="M215" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N215" s="1"/>
     </row>
@@ -8838,7 +8835,7 @@
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
       <c r="M216" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N216" s="1"/>
     </row>
@@ -8894,7 +8891,7 @@
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
       <c r="M218" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N218" s="1"/>
     </row>
@@ -8906,7 +8903,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -8922,7 +8919,7 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
       <c r="M219" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N219" s="1"/>
     </row>
@@ -8950,7 +8947,7 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
       <c r="M220" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N220" s="1"/>
     </row>
@@ -8978,7 +8975,7 @@
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
       <c r="M221" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N221" s="1"/>
     </row>
@@ -9006,7 +9003,7 @@
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
       <c r="M222" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N222" s="1"/>
     </row>
@@ -9034,7 +9031,7 @@
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
       <c r="M223" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N223" s="1"/>
     </row>
@@ -9062,7 +9059,7 @@
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N224" s="1"/>
     </row>
@@ -9090,7 +9087,7 @@
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
       <c r="M225" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N225" s="1"/>
     </row>
@@ -9118,7 +9115,7 @@
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
       <c r="M226" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N226" s="1"/>
     </row>
@@ -9144,7 +9141,7 @@
       </c>
       <c r="L227" s="6"/>
       <c r="M227" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N227" s="1"/>
     </row>
@@ -9172,7 +9169,7 @@
       </c>
       <c r="L228" s="6"/>
       <c r="M228" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N228" s="1"/>
     </row>
@@ -9228,7 +9225,7 @@
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
       <c r="M230" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N230" s="1"/>
     </row>
@@ -9256,7 +9253,7 @@
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N231" s="1"/>
     </row>
@@ -9268,7 +9265,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -9312,7 +9309,7 @@
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
       <c r="M233" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N233" s="1"/>
     </row>
@@ -9340,7 +9337,7 @@
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N234" s="1"/>
     </row>
@@ -9368,7 +9365,7 @@
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
       <c r="M235" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N235" s="1"/>
     </row>
@@ -9424,7 +9421,7 @@
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N237" s="1"/>
     </row>
@@ -9452,7 +9449,7 @@
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
       <c r="M238" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N238" s="1"/>
     </row>
@@ -9480,7 +9477,7 @@
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
       <c r="M239" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N239" s="1"/>
     </row>
@@ -9508,7 +9505,7 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N240" s="1"/>
     </row>
@@ -9536,7 +9533,7 @@
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N241" s="1"/>
     </row>
@@ -9564,7 +9561,7 @@
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N242" s="1"/>
     </row>
@@ -9592,7 +9589,7 @@
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N243" s="1"/>
     </row>
@@ -9620,7 +9617,7 @@
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
       <c r="M244" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N244" s="1"/>
     </row>
@@ -9648,7 +9645,7 @@
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N245" s="1"/>
     </row>
@@ -9676,7 +9673,7 @@
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
       <c r="M246" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N246" s="1"/>
     </row>
@@ -9704,7 +9701,7 @@
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
       <c r="M247" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N247" s="1"/>
     </row>
@@ -9732,7 +9729,7 @@
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
       <c r="M248" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N248" s="1"/>
     </row>
@@ -9760,7 +9757,7 @@
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
       <c r="M249" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N249" s="1"/>
     </row>
@@ -9788,7 +9785,7 @@
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N250" s="1"/>
     </row>
@@ -9800,7 +9797,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -9846,7 +9843,7 @@
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N252" s="1"/>
     </row>
@@ -9874,7 +9871,7 @@
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N253" s="1"/>
     </row>
@@ -9902,7 +9899,7 @@
       <c r="K254" s="6"/>
       <c r="L254" s="6"/>
       <c r="M254" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N254" s="1"/>
     </row>
@@ -9958,7 +9955,7 @@
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N256" s="1"/>
     </row>
@@ -9986,7 +9983,7 @@
       <c r="K257" s="6"/>
       <c r="L257" s="6"/>
       <c r="M257" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N257" s="1"/>
     </row>
@@ -10016,7 +10013,7 @@
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N258" s="1"/>
     </row>
@@ -10100,7 +10097,7 @@
       <c r="K261" s="6"/>
       <c r="L261" s="6"/>
       <c r="M261" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N261" s="1"/>
     </row>
@@ -10128,7 +10125,7 @@
       <c r="K262" s="6"/>
       <c r="L262" s="6"/>
       <c r="M262" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N262" s="1"/>
     </row>
@@ -10156,7 +10153,7 @@
       <c r="K263" s="6"/>
       <c r="L263" s="6"/>
       <c r="M263" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N263" s="1"/>
     </row>
@@ -10184,7 +10181,7 @@
       <c r="K264" s="6"/>
       <c r="L264" s="6"/>
       <c r="M264" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N264" s="1"/>
     </row>
@@ -10212,7 +10209,7 @@
       <c r="K265" s="6"/>
       <c r="L265" s="6"/>
       <c r="M265" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N265" s="1"/>
     </row>
@@ -10268,7 +10265,7 @@
       <c r="K267" s="6"/>
       <c r="L267" s="6"/>
       <c r="M267" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N267" s="1"/>
     </row>
@@ -10296,7 +10293,7 @@
       <c r="K268" s="6"/>
       <c r="L268" s="6"/>
       <c r="M268" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N268" s="1"/>
     </row>
@@ -10324,7 +10321,7 @@
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N269" s="1"/>
     </row>
@@ -10352,7 +10349,7 @@
       <c r="K270" s="6"/>
       <c r="L270" s="6"/>
       <c r="M270" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N270" s="1"/>
     </row>
@@ -10380,7 +10377,7 @@
       <c r="K271" s="6"/>
       <c r="L271" s="6"/>
       <c r="M271" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N271" s="1"/>
     </row>
@@ -10408,7 +10405,7 @@
       <c r="K272" s="6"/>
       <c r="L272" s="6"/>
       <c r="M272" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N272" s="1"/>
     </row>
@@ -10464,7 +10461,7 @@
       <c r="K274" s="6"/>
       <c r="L274" s="6"/>
       <c r="M274" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N274" s="1"/>
     </row>
@@ -10492,7 +10489,7 @@
       <c r="K275" s="6"/>
       <c r="L275" s="6"/>
       <c r="M275" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N275" s="1"/>
     </row>
@@ -10520,7 +10517,7 @@
       <c r="K276" s="6"/>
       <c r="L276" s="6"/>
       <c r="M276" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N276" s="1"/>
     </row>
@@ -10548,7 +10545,7 @@
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
       <c r="M277" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N277" s="1"/>
     </row>
@@ -10576,7 +10573,7 @@
       <c r="K278" s="6"/>
       <c r="L278" s="6"/>
       <c r="M278" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N278" s="1"/>
     </row>
@@ -10604,7 +10601,7 @@
       <c r="K279" s="6"/>
       <c r="L279" s="6"/>
       <c r="M279" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N279" s="1"/>
     </row>
@@ -10652,7 +10649,7 @@
       <c r="K281" s="6"/>
       <c r="L281" s="6"/>
       <c r="M281" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N281" s="1"/>
     </row>
@@ -10680,7 +10677,7 @@
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N282" s="1"/>
     </row>
@@ -10708,7 +10705,7 @@
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N283" s="1"/>
     </row>
@@ -10736,7 +10733,7 @@
       <c r="K284" s="6"/>
       <c r="L284" s="6"/>
       <c r="M284" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N284" s="1"/>
     </row>
@@ -10764,7 +10761,7 @@
       <c r="K285" s="6"/>
       <c r="L285" s="6"/>
       <c r="M285" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N285" s="1"/>
     </row>
@@ -10792,7 +10789,7 @@
       <c r="K286" s="6"/>
       <c r="L286" s="6"/>
       <c r="M286" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N286" s="1"/>
     </row>
@@ -10820,7 +10817,7 @@
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N287" s="1"/>
     </row>
@@ -10848,7 +10845,7 @@
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="1" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="N288" s="1"/>
     </row>
@@ -10876,7 +10873,7 @@
       <c r="K289" s="6"/>
       <c r="L289" s="6"/>
       <c r="M289" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N289" s="1"/>
     </row>
@@ -10904,7 +10901,7 @@
       <c r="K290" s="6"/>
       <c r="L290" s="6"/>
       <c r="M290" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N290" s="1"/>
     </row>
@@ -10932,7 +10929,7 @@
       <c r="K291" s="6"/>
       <c r="L291" s="6"/>
       <c r="M291" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N291" s="1"/>
     </row>
@@ -10960,7 +10957,7 @@
       <c r="K292" s="6"/>
       <c r="L292" s="6"/>
       <c r="M292" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N292" s="1"/>
     </row>
@@ -10988,7 +10985,7 @@
       <c r="K293" s="6"/>
       <c r="L293" s="6"/>
       <c r="M293" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N293" s="1"/>
     </row>
@@ -11016,7 +11013,7 @@
       <c r="K294" s="6"/>
       <c r="L294" s="6"/>
       <c r="M294" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N294" s="1"/>
     </row>
@@ -11044,7 +11041,7 @@
       <c r="K295" s="6"/>
       <c r="L295" s="6"/>
       <c r="M295" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N295" s="1"/>
     </row>
@@ -11100,7 +11097,7 @@
       <c r="K297" s="6"/>
       <c r="L297" s="6"/>
       <c r="M297" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N297" s="1"/>
     </row>
@@ -11128,7 +11125,7 @@
       <c r="K298" s="6"/>
       <c r="L298" s="6"/>
       <c r="M298" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N298" s="1"/>
     </row>
@@ -11154,7 +11151,7 @@
       <c r="K299" s="6"/>
       <c r="L299" s="6"/>
       <c r="M299" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N299" s="1"/>
     </row>
@@ -11182,7 +11179,7 @@
       <c r="K300" s="6"/>
       <c r="L300" s="6"/>
       <c r="M300" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N300" s="1"/>
     </row>
@@ -11210,7 +11207,7 @@
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N301" s="1"/>
     </row>
@@ -11238,7 +11235,7 @@
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N302" s="1"/>
     </row>
@@ -11266,7 +11263,7 @@
       <c r="K303" s="6"/>
       <c r="L303" s="6"/>
       <c r="M303" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N303" s="1"/>
     </row>
@@ -11294,7 +11291,7 @@
       <c r="K304" s="6"/>
       <c r="L304" s="6"/>
       <c r="M304" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N304" s="1"/>
     </row>
@@ -11322,7 +11319,7 @@
       <c r="K305" s="6"/>
       <c r="L305" s="6"/>
       <c r="M305" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N305" s="1"/>
     </row>
@@ -11350,7 +11347,7 @@
       <c r="K306" s="6"/>
       <c r="L306" s="6"/>
       <c r="M306" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N306" s="1"/>
     </row>
@@ -11406,7 +11403,7 @@
       <c r="K308" s="6"/>
       <c r="L308" s="6"/>
       <c r="M308" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N308" s="1"/>
     </row>
@@ -11434,7 +11431,7 @@
       <c r="K309" s="6"/>
       <c r="L309" s="6"/>
       <c r="M309" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N309" s="1"/>
     </row>
@@ -11462,7 +11459,7 @@
       <c r="K310" s="6"/>
       <c r="L310" s="6"/>
       <c r="M310" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N310" s="1"/>
     </row>
@@ -11490,7 +11487,7 @@
       <c r="K311" s="6"/>
       <c r="L311" s="6"/>
       <c r="M311" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N311" s="1"/>
     </row>
@@ -11518,7 +11515,7 @@
       <c r="K312" s="6"/>
       <c r="L312" s="6"/>
       <c r="M312" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N312" s="1"/>
     </row>
@@ -11546,7 +11543,7 @@
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N313" s="1"/>
     </row>
@@ -11572,7 +11569,7 @@
       <c r="K314" s="6"/>
       <c r="L314" s="6"/>
       <c r="M314" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N314" s="1"/>
     </row>
@@ -11600,7 +11597,7 @@
       <c r="K315" s="6"/>
       <c r="L315" s="6"/>
       <c r="M315" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N315" s="1"/>
     </row>
@@ -11656,7 +11653,7 @@
       <c r="K317" s="6"/>
       <c r="L317" s="6"/>
       <c r="M317" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N317" s="1"/>
     </row>
@@ -11684,7 +11681,7 @@
       <c r="K318" s="6"/>
       <c r="L318" s="6"/>
       <c r="M318" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N318" s="1"/>
     </row>
@@ -11712,7 +11709,7 @@
       <c r="K319" s="6"/>
       <c r="L319" s="6"/>
       <c r="M319" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N319" s="1"/>
     </row>
@@ -11768,7 +11765,7 @@
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N321" s="1"/>
     </row>
@@ -11796,7 +11793,7 @@
       <c r="K322" s="6"/>
       <c r="L322" s="6"/>
       <c r="M322" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N322" s="1"/>
     </row>
@@ -11852,7 +11849,7 @@
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N324" s="1"/>
     </row>
@@ -11880,7 +11877,7 @@
       <c r="K325" s="6"/>
       <c r="L325" s="6"/>
       <c r="M325" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N325" s="1"/>
     </row>
@@ -11908,7 +11905,7 @@
       <c r="K326" s="6"/>
       <c r="L326" s="6"/>
       <c r="M326" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N326" s="1"/>
     </row>
@@ -11936,7 +11933,7 @@
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N327" s="1"/>
     </row>
@@ -11966,7 +11963,7 @@
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N328" s="1"/>
     </row>
@@ -11994,7 +11991,7 @@
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N329" s="1"/>
     </row>
@@ -12022,7 +12019,7 @@
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N330" s="1"/>
     </row>
@@ -12050,7 +12047,7 @@
       <c r="K331" s="6"/>
       <c r="L331" s="6"/>
       <c r="M331" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N331" s="1"/>
     </row>
@@ -12078,7 +12075,7 @@
       <c r="K332" s="6"/>
       <c r="L332" s="6"/>
       <c r="M332" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N332" s="1"/>
     </row>
@@ -12106,7 +12103,7 @@
       <c r="K333" s="6"/>
       <c r="L333" s="6"/>
       <c r="M333" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N333" s="1"/>
     </row>
@@ -12134,7 +12131,7 @@
       <c r="K334" s="6"/>
       <c r="L334" s="6"/>
       <c r="M334" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N334" s="1"/>
     </row>
@@ -12162,7 +12159,7 @@
       <c r="K335" s="6"/>
       <c r="L335" s="6"/>
       <c r="M335" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N335" s="1"/>
     </row>
@@ -12190,7 +12187,7 @@
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N336" s="1"/>
     </row>
@@ -12218,7 +12215,7 @@
       <c r="K337" s="6"/>
       <c r="L337" s="6"/>
       <c r="M337" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N337" s="1"/>
     </row>
@@ -12246,7 +12243,7 @@
       <c r="K338" s="6"/>
       <c r="L338" s="6"/>
       <c r="M338" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N338" s="1"/>
     </row>
@@ -12274,7 +12271,7 @@
       <c r="K339" s="6"/>
       <c r="L339" s="6"/>
       <c r="M339" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N339" s="1"/>
     </row>
@@ -12302,7 +12299,7 @@
       <c r="K340" s="6"/>
       <c r="L340" s="6"/>
       <c r="M340" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N340" s="1"/>
     </row>
@@ -12330,7 +12327,7 @@
       <c r="K341" s="6"/>
       <c r="L341" s="6"/>
       <c r="M341" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N341" s="1"/>
     </row>
@@ -12358,7 +12355,7 @@
       <c r="K342" s="6"/>
       <c r="L342" s="6"/>
       <c r="M342" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N342" s="1"/>
     </row>
@@ -12386,7 +12383,7 @@
       <c r="K343" s="6"/>
       <c r="L343" s="6"/>
       <c r="M343" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N343" s="1"/>
     </row>
@@ -12442,7 +12439,7 @@
       <c r="K345" s="6"/>
       <c r="L345" s="6"/>
       <c r="M345" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N345" s="1"/>
     </row>
@@ -12470,7 +12467,7 @@
       <c r="K346" s="6"/>
       <c r="L346" s="6"/>
       <c r="M346" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N346" s="1"/>
     </row>
@@ -12498,7 +12495,7 @@
       <c r="K347" s="6"/>
       <c r="L347" s="6"/>
       <c r="M347" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N347" s="1"/>
     </row>
@@ -12526,7 +12523,7 @@
       <c r="K348" s="6"/>
       <c r="L348" s="6"/>
       <c r="M348" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N348" s="1"/>
     </row>
@@ -12554,7 +12551,7 @@
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N349" s="1"/>
     </row>
@@ -12610,7 +12607,7 @@
       <c r="K351" s="6"/>
       <c r="L351" s="6"/>
       <c r="M351" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N351" s="1"/>
     </row>
@@ -12666,7 +12663,7 @@
       <c r="K353" s="6"/>
       <c r="L353" s="6"/>
       <c r="M353" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N353" s="1"/>
     </row>
@@ -12694,7 +12691,7 @@
       <c r="K354" s="6"/>
       <c r="L354" s="6"/>
       <c r="M354" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N354" s="1"/>
     </row>
@@ -12722,7 +12719,7 @@
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N355" s="1"/>
     </row>
@@ -12750,7 +12747,7 @@
       <c r="K356" s="6"/>
       <c r="L356" s="6"/>
       <c r="M356" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N356" s="1"/>
     </row>
@@ -12778,7 +12775,7 @@
       <c r="K357" s="6"/>
       <c r="L357" s="6"/>
       <c r="M357" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N357" s="1"/>
     </row>
@@ -12806,7 +12803,7 @@
       <c r="K358" s="6"/>
       <c r="L358" s="6"/>
       <c r="M358" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N358" s="1"/>
     </row>
@@ -12834,7 +12831,7 @@
       <c r="K359" s="6"/>
       <c r="L359" s="6"/>
       <c r="M359" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N359" s="1"/>
     </row>
@@ -12862,7 +12859,7 @@
       <c r="K360" s="6"/>
       <c r="L360" s="6"/>
       <c r="M360" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N360" s="1"/>
     </row>
@@ -12890,7 +12887,7 @@
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N361" s="1"/>
     </row>
@@ -12918,7 +12915,7 @@
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N362" s="1"/>
     </row>
@@ -12946,7 +12943,7 @@
       <c r="K363" s="6"/>
       <c r="L363" s="6"/>
       <c r="M363" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N363" s="1"/>
     </row>
@@ -12974,7 +12971,7 @@
       <c r="K364" s="6"/>
       <c r="L364" s="6"/>
       <c r="M364" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N364" s="1"/>
     </row>
@@ -13002,7 +12999,7 @@
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N365" s="1"/>
     </row>
@@ -13058,7 +13055,7 @@
       <c r="K367" s="6"/>
       <c r="L367" s="6"/>
       <c r="M367" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N367" s="1"/>
     </row>
@@ -13114,7 +13111,7 @@
       <c r="K369" s="6"/>
       <c r="L369" s="6"/>
       <c r="M369" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N369" s="1"/>
     </row>
@@ -13142,7 +13139,7 @@
       <c r="K370" s="6"/>
       <c r="L370" s="6"/>
       <c r="M370" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N370" s="1"/>
     </row>
@@ -13170,7 +13167,7 @@
       <c r="K371" s="6"/>
       <c r="L371" s="6"/>
       <c r="M371" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N371" s="1"/>
     </row>
@@ -13226,7 +13223,7 @@
       <c r="K373" s="6"/>
       <c r="L373" s="6"/>
       <c r="M373" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N373" s="1"/>
     </row>
@@ -13282,7 +13279,7 @@
       </c>
       <c r="L375" s="6"/>
       <c r="M375" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N375" s="1"/>
     </row>
@@ -13310,7 +13307,7 @@
       <c r="K376" s="6"/>
       <c r="L376" s="6"/>
       <c r="M376" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N376" s="1"/>
     </row>
@@ -13366,7 +13363,7 @@
       <c r="K378" s="6"/>
       <c r="L378" s="6"/>
       <c r="M378" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N378" s="1"/>
     </row>
@@ -13394,7 +13391,7 @@
       <c r="K379" s="6"/>
       <c r="L379" s="6"/>
       <c r="M379" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N379" s="1"/>
     </row>
@@ -13422,7 +13419,7 @@
       </c>
       <c r="L380" s="6"/>
       <c r="M380" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="N380" s="1"/>
     </row>
@@ -13450,7 +13447,7 @@
       <c r="K381" s="6"/>
       <c r="L381" s="6"/>
       <c r="M381" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N381" s="1"/>
     </row>
@@ -13478,7 +13475,7 @@
       <c r="K382" s="6"/>
       <c r="L382" s="6"/>
       <c r="M382" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N382" s="1"/>
     </row>
@@ -13506,7 +13503,7 @@
       <c r="K383" s="6"/>
       <c r="L383" s="6"/>
       <c r="M383" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N383" s="1"/>
     </row>
@@ -13534,7 +13531,7 @@
       <c r="K384" s="6"/>
       <c r="L384" s="6"/>
       <c r="M384" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N384" s="1"/>
     </row>
@@ -13562,7 +13559,7 @@
       <c r="K385" s="6"/>
       <c r="L385" s="6"/>
       <c r="M385" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N385" s="1"/>
     </row>
@@ -13590,7 +13587,7 @@
       </c>
       <c r="L386" s="6"/>
       <c r="M386" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N386" s="1"/>
     </row>
@@ -13674,7 +13671,7 @@
       </c>
       <c r="L389" s="6"/>
       <c r="M389" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N389" s="1"/>
     </row>
@@ -13702,7 +13699,7 @@
       <c r="K390" s="6"/>
       <c r="L390" s="6"/>
       <c r="M390" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N390" s="1"/>
     </row>
@@ -13730,7 +13727,7 @@
       </c>
       <c r="L391" s="6"/>
       <c r="M391" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N391" s="1"/>
     </row>
@@ -13758,7 +13755,7 @@
       <c r="K392" s="6"/>
       <c r="L392" s="6"/>
       <c r="M392" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N392" s="1"/>
     </row>
@@ -13786,7 +13783,7 @@
       <c r="K393" s="6"/>
       <c r="L393" s="6"/>
       <c r="M393" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N393" s="1"/>
     </row>
@@ -13814,7 +13811,7 @@
       </c>
       <c r="L394" s="6"/>
       <c r="M394" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N394" s="1"/>
     </row>
@@ -13842,7 +13839,7 @@
       <c r="K395" s="6"/>
       <c r="L395" s="6"/>
       <c r="M395" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N395" s="1"/>
     </row>
@@ -13870,7 +13867,7 @@
       <c r="K396" s="6"/>
       <c r="L396" s="6"/>
       <c r="M396" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N396" s="1"/>
     </row>
@@ -13898,7 +13895,7 @@
       <c r="K397" s="6"/>
       <c r="L397" s="6"/>
       <c r="M397" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N397" s="1"/>
     </row>
@@ -13926,7 +13923,7 @@
       </c>
       <c r="L398" s="6"/>
       <c r="M398" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N398" s="1"/>
     </row>
@@ -13954,7 +13951,7 @@
       </c>
       <c r="L399" s="6"/>
       <c r="M399" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N399" s="1"/>
     </row>
@@ -13982,7 +13979,7 @@
       </c>
       <c r="L400" s="6"/>
       <c r="M400" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N400" s="1"/>
     </row>
@@ -14010,7 +14007,7 @@
       </c>
       <c r="L401" s="6"/>
       <c r="M401" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N401" s="1"/>
     </row>
@@ -14022,7 +14019,7 @@
         <v>401</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -14038,7 +14035,7 @@
       </c>
       <c r="L402" s="6"/>
       <c r="M402" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N402" s="1"/>
     </row>
@@ -14064,7 +14061,7 @@
       </c>
       <c r="L403" s="6"/>
       <c r="M403" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N403" s="1"/>
     </row>
@@ -14092,7 +14089,7 @@
       <c r="K404" s="6"/>
       <c r="L404" s="6"/>
       <c r="M404" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N404" s="1"/>
     </row>
@@ -14120,7 +14117,7 @@
       </c>
       <c r="L405" s="6"/>
       <c r="M405" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N405" s="1"/>
     </row>
@@ -14148,7 +14145,7 @@
       </c>
       <c r="L406" s="6"/>
       <c r="M406" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N406" s="1"/>
     </row>
@@ -14176,7 +14173,7 @@
       <c r="K407" s="6"/>
       <c r="L407" s="6"/>
       <c r="M407" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N407" s="1"/>
     </row>
@@ -14232,7 +14229,7 @@
       <c r="K409" s="6"/>
       <c r="L409" s="6"/>
       <c r="M409" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N409" s="1"/>
     </row>
@@ -14260,7 +14257,7 @@
       </c>
       <c r="L410" s="6"/>
       <c r="M410" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N410" s="1"/>
     </row>
@@ -14288,7 +14285,7 @@
       <c r="K411" s="6"/>
       <c r="L411" s="6"/>
       <c r="M411" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N411" s="1"/>
     </row>
@@ -14344,7 +14341,7 @@
       <c r="K413" s="6"/>
       <c r="L413" s="6"/>
       <c r="M413" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N413" s="1"/>
     </row>
@@ -14372,7 +14369,7 @@
       </c>
       <c r="L414" s="6"/>
       <c r="M414" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N414" s="1"/>
     </row>
@@ -14428,7 +14425,7 @@
       </c>
       <c r="L416" s="6"/>
       <c r="M416" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N416" s="1"/>
     </row>
@@ -14454,7 +14451,7 @@
       <c r="K417" s="6"/>
       <c r="L417" s="6"/>
       <c r="M417" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N417" s="1"/>
     </row>
@@ -14480,7 +14477,7 @@
       <c r="K418" s="6"/>
       <c r="L418" s="6"/>
       <c r="M418" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N418" s="1"/>
     </row>
@@ -14508,7 +14505,7 @@
       <c r="K419" s="6"/>
       <c r="L419" s="6"/>
       <c r="M419" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N419" s="1"/>
     </row>
@@ -14536,7 +14533,7 @@
       <c r="K420" s="6"/>
       <c r="L420" s="6"/>
       <c r="M420" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N420" s="1"/>
     </row>
@@ -14564,7 +14561,7 @@
       </c>
       <c r="L421" s="6"/>
       <c r="M421" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N421" s="1"/>
     </row>
@@ -14592,7 +14589,7 @@
       <c r="K422" s="6"/>
       <c r="L422" s="6"/>
       <c r="M422" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N422" s="1"/>
     </row>
@@ -14604,7 +14601,7 @@
         <v>422</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -14704,7 +14701,7 @@
       <c r="K426" s="6"/>
       <c r="L426" s="6"/>
       <c r="M426" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N426" s="1"/>
     </row>
@@ -14732,7 +14729,7 @@
       <c r="K427" s="6"/>
       <c r="L427" s="6"/>
       <c r="M427" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N427" s="1"/>
     </row>
@@ -14760,7 +14757,7 @@
       <c r="K428" s="6"/>
       <c r="L428" s="6"/>
       <c r="M428" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N428" s="1"/>
     </row>
@@ -14788,7 +14785,7 @@
       <c r="K429" s="6"/>
       <c r="L429" s="6"/>
       <c r="M429" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N429" s="1"/>
     </row>
@@ -14816,7 +14813,7 @@
       </c>
       <c r="L430" s="6"/>
       <c r="M430" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N430" s="1"/>
     </row>
@@ -14872,7 +14869,7 @@
       <c r="K432" s="6"/>
       <c r="L432" s="6"/>
       <c r="M432" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N432" s="1"/>
     </row>
@@ -14900,7 +14897,7 @@
       <c r="K433" s="6"/>
       <c r="L433" s="6"/>
       <c r="M433" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N433" s="1"/>
     </row>
@@ -14928,7 +14925,7 @@
       <c r="K434" s="6"/>
       <c r="L434" s="6"/>
       <c r="M434" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N434" s="1"/>
     </row>
@@ -14956,7 +14953,7 @@
       <c r="K435" s="6"/>
       <c r="L435" s="6"/>
       <c r="M435" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N435" s="1"/>
     </row>
@@ -14984,7 +14981,7 @@
       <c r="K436" s="6"/>
       <c r="L436" s="6"/>
       <c r="M436" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N436" s="1"/>
     </row>
@@ -15012,7 +15009,7 @@
       <c r="K437" s="6"/>
       <c r="L437" s="6"/>
       <c r="M437" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N437" s="1"/>
     </row>
@@ -15040,7 +15037,7 @@
       <c r="K438" s="6"/>
       <c r="L438" s="6"/>
       <c r="M438" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N438" s="1"/>
     </row>
@@ -15068,7 +15065,7 @@
       <c r="K439" s="6"/>
       <c r="L439" s="6"/>
       <c r="M439" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N439" s="1"/>
     </row>
@@ -15152,7 +15149,7 @@
       <c r="K442" s="6"/>
       <c r="L442" s="6"/>
       <c r="M442" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N442" s="1"/>
     </row>
@@ -15208,7 +15205,7 @@
       <c r="K444" s="6"/>
       <c r="L444" s="6"/>
       <c r="M444" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N444" s="1"/>
     </row>
@@ -15264,7 +15261,7 @@
       <c r="K446" s="6"/>
       <c r="L446" s="6"/>
       <c r="M446" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N446" s="1"/>
     </row>
@@ -15292,7 +15289,7 @@
       <c r="K447" s="6"/>
       <c r="L447" s="6"/>
       <c r="M447" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N447" s="1"/>
     </row>
@@ -15404,7 +15401,7 @@
       <c r="K451" s="6"/>
       <c r="L451" s="6"/>
       <c r="M451" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N451" s="1"/>
     </row>
@@ -15600,7 +15597,7 @@
       <c r="K458" s="6"/>
       <c r="L458" s="6"/>
       <c r="M458" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N458" s="1"/>
     </row>
@@ -15710,7 +15707,7 @@
       <c r="K462" s="6"/>
       <c r="L462" s="6"/>
       <c r="M462" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N462" s="1"/>
     </row>
@@ -15762,7 +15759,7 @@
       <c r="K464" s="6"/>
       <c r="L464" s="6"/>
       <c r="M464" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N464" s="1"/>
     </row>
@@ -15817,8 +15814,8 @@
       <c r="J466" s="5"/>
       <c r="K466" s="6"/>
       <c r="L466" s="6"/>
-      <c r="M466" s="3" t="s">
-        <v>597</v>
+      <c r="M466" s="3">
+        <v>-1100000</v>
       </c>
       <c r="N466" s="1"/>
     </row>
@@ -15902,7 +15899,7 @@
       <c r="K469" s="6"/>
       <c r="L469" s="6"/>
       <c r="M469" s="3" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="N469" s="1"/>
     </row>
@@ -16658,7 +16655,7 @@
       </c>
       <c r="L496" s="12"/>
       <c r="M496" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N496" s="1"/>
     </row>
@@ -18146,31 +18143,31 @@
     </row>
     <row r="550" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C550" s="10" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D550" s="10"/>
       <c r="E550" s="10"/>
       <c r="F550" s="10" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G550" s="10"/>
       <c r="H550" s="21" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I550" s="21"/>
       <c r="J550" s="21"/>
       <c r="K550" s="12" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L550" s="12"/>
       <c r="M550" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="551" spans="1:14" ht="18" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -2785,7 +2785,7 @@
   <dimension ref="A1:N551"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="K469" sqref="K469:L469"/>
+      <selection activeCell="M467" sqref="M467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15815,7 +15815,7 @@
       <c r="K466" s="6"/>
       <c r="L466" s="6"/>
       <c r="M466" s="3">
-        <v>-1100000</v>
+        <v>1100000</v>
       </c>
       <c r="N466" s="1"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2222,7 +2222,7 @@
     <t>تجريبي</t>
   </si>
   <si>
-    <t>اسم تجريبي 19</t>
+    <t>اسم تجريبي 20</t>
   </si>
 </sst>
 </file>
@@ -2784,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N551"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="M467" sqref="M467"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="C550" sqref="C550:E550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -435,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="658">
   <si>
     <t>الاسم</t>
   </si>
@@ -2165,15 +2165,6 @@
     <t>فيصل نايف عزو جديد</t>
   </si>
   <si>
-    <t>عنوان تجريبي</t>
-  </si>
-  <si>
-    <t>تجريبي</t>
-  </si>
-  <si>
-    <t>اسم تجريبي 20</t>
-  </si>
-  <si>
     <t>محمود عزو</t>
   </si>
   <si>
@@ -2310,9 +2301,6 @@
   </si>
   <si>
     <t>سيد خليل إبراهيم  جديد</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>مبلغ بالدينار</t>
@@ -2953,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U580"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:L12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A554" workbookViewId="0">
+      <selection activeCell="M575" sqref="M575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2967,7 +2955,7 @@
         <v>499</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>0</v>
@@ -2992,19 +2980,19 @@
       </c>
       <c r="N1" s="16"/>
       <c r="O1" s="22" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="P1" s="22"/>
       <c r="Q1" s="23" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="R1" s="23"/>
       <c r="S1" s="23" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="T1" s="23"/>
       <c r="U1" s="23" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -3030,8 +3018,8 @@
         <v>1313</v>
       </c>
       <c r="L2" s="17"/>
-      <c r="M2" s="2" t="s">
-        <v>613</v>
+      <c r="M2" s="2">
+        <v>0</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="22">
@@ -3041,7 +3029,7 @@
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
       <c r="S2" s="22" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="T2" s="22"/>
       <c r="U2" s="24">
@@ -3071,8 +3059,8 @@
         <v>632</v>
       </c>
       <c r="L3" s="17"/>
-      <c r="M3" s="2" t="s">
-        <v>613</v>
+      <c r="M3" s="2">
+        <v>0</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="22">
@@ -3112,8 +3100,8 @@
         <v>1152</v>
       </c>
       <c r="L4" s="17"/>
-      <c r="M4" s="2" t="s">
-        <v>613</v>
+      <c r="M4" s="2">
+        <v>0</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="22"/>
@@ -3153,8 +3141,8 @@
         <v>2168</v>
       </c>
       <c r="L5" s="17"/>
-      <c r="M5" s="2" t="s">
-        <v>613</v>
+      <c r="M5" s="2">
+        <v>0</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="22"/>
@@ -3194,8 +3182,8 @@
         <v>600</v>
       </c>
       <c r="L6" s="17"/>
-      <c r="M6" s="2" t="s">
-        <v>613</v>
+      <c r="M6" s="2">
+        <v>0</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="22"/>
@@ -3205,7 +3193,7 @@
       </c>
       <c r="R6" s="22"/>
       <c r="S6" s="22" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="T6" s="22"/>
       <c r="U6" s="24">
@@ -3287,7 +3275,7 @@
       </c>
       <c r="R8" s="22"/>
       <c r="S8" s="22" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="T8" s="22"/>
       <c r="U8" s="24">
@@ -3399,8 +3387,8 @@
         <v>550</v>
       </c>
       <c r="L11" s="17"/>
-      <c r="M11" s="2" t="s">
-        <v>613</v>
+      <c r="M11" s="2">
+        <v>0</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="22"/>
@@ -3440,8 +3428,8 @@
         <v>100</v>
       </c>
       <c r="L12" s="17"/>
-      <c r="M12" s="2" t="s">
-        <v>613</v>
+      <c r="M12" s="2">
+        <v>0</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="22"/>
@@ -3481,8 +3469,8 @@
       <c r="J13" s="15"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="2" t="s">
-        <v>613</v>
+      <c r="M13" s="2">
+        <v>0</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="22">
@@ -3522,8 +3510,8 @@
       <c r="J14" s="15"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
-      <c r="M14" s="2" t="s">
-        <v>613</v>
+      <c r="M14" s="2">
+        <v>0</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="22"/>
@@ -3563,8 +3551,8 @@
       <c r="J15" s="15"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="2" t="s">
-        <v>613</v>
+      <c r="M15" s="2">
+        <v>0</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="22"/>
@@ -3604,8 +3592,8 @@
         <v>1486</v>
       </c>
       <c r="L16" s="17"/>
-      <c r="M16" s="2" t="s">
-        <v>613</v>
+      <c r="M16" s="2">
+        <v>0</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="22"/>
@@ -3645,8 +3633,8 @@
       <c r="J17" s="15"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
-      <c r="M17" s="2" t="s">
-        <v>613</v>
+      <c r="M17" s="2">
+        <v>0</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="22">
@@ -3686,8 +3674,8 @@
         <v>1050</v>
       </c>
       <c r="L18" s="17"/>
-      <c r="M18" s="2" t="s">
-        <v>613</v>
+      <c r="M18" s="2">
+        <v>0</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="22"/>
@@ -3769,7 +3757,7 @@
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="22"/>
@@ -3779,7 +3767,7 @@
       </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="T20" s="22"/>
       <c r="U20" s="24">
@@ -3943,7 +3931,7 @@
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="22" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="T24" s="22"/>
       <c r="U24" s="24">
@@ -3973,8 +3961,8 @@
       <c r="J25" s="15"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
-      <c r="M25" s="2" t="s">
-        <v>613</v>
+      <c r="M25" s="2">
+        <v>0</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="22"/>
@@ -4055,8 +4043,8 @@
         <v>120</v>
       </c>
       <c r="L27" s="17"/>
-      <c r="M27" s="2" t="s">
-        <v>613</v>
+      <c r="M27" s="2">
+        <v>0</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="22"/>
@@ -4096,8 +4084,8 @@
         <v>300</v>
       </c>
       <c r="L28" s="17"/>
-      <c r="M28" s="2" t="s">
-        <v>613</v>
+      <c r="M28" s="2">
+        <v>0</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="22"/>
@@ -4137,8 +4125,8 @@
       <c r="J29" s="15"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
-      <c r="M29" s="2" t="s">
-        <v>613</v>
+      <c r="M29" s="2">
+        <v>0</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="22"/>
@@ -4189,7 +4177,7 @@
       </c>
       <c r="R30" s="22"/>
       <c r="S30" s="22" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="T30" s="22"/>
       <c r="U30" s="24">
@@ -4219,8 +4207,8 @@
       <c r="J31" s="15"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
-      <c r="M31" s="2" t="s">
-        <v>613</v>
+      <c r="M31" s="2">
+        <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="22">
@@ -4342,8 +4330,8 @@
       <c r="J34" s="15"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="1" t="s">
-        <v>613</v>
+      <c r="M34" s="1">
+        <v>0</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="22"/>
@@ -4353,7 +4341,7 @@
       </c>
       <c r="R34" s="22"/>
       <c r="S34" s="22" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="T34" s="22"/>
       <c r="U34" s="24">
@@ -4383,8 +4371,8 @@
         <v>429</v>
       </c>
       <c r="L35" s="10"/>
-      <c r="M35" s="1" t="s">
-        <v>613</v>
+      <c r="M35" s="1">
+        <v>0</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="22"/>
@@ -4424,8 +4412,8 @@
       <c r="J36" s="15"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="1" t="s">
-        <v>613</v>
+      <c r="M36" s="1">
+        <v>0</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="22"/>
@@ -4435,7 +4423,7 @@
       </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="T36" s="22"/>
       <c r="U36" s="24">
@@ -4465,8 +4453,8 @@
         <v>1562</v>
       </c>
       <c r="L37" s="10"/>
-      <c r="M37" s="1" t="s">
-        <v>613</v>
+      <c r="M37" s="1">
+        <v>0</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="22"/>
@@ -4506,8 +4494,8 @@
       <c r="J38" s="15"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="1" t="s">
-        <v>613</v>
+      <c r="M38" s="1">
+        <v>0</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="22"/>
@@ -4547,8 +4535,8 @@
         <v>2575</v>
       </c>
       <c r="L39" s="10"/>
-      <c r="M39" s="1" t="s">
-        <v>613</v>
+      <c r="M39" s="1">
+        <v>0</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="22"/>
@@ -4558,7 +4546,7 @@
       </c>
       <c r="R39" s="22"/>
       <c r="S39" s="22" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="T39" s="22"/>
       <c r="U39" s="24">
@@ -4588,8 +4576,8 @@
         <v>2700</v>
       </c>
       <c r="L40" s="10"/>
-      <c r="M40" s="1" t="s">
-        <v>613</v>
+      <c r="M40" s="1">
+        <v>0</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="22"/>
@@ -4752,8 +4740,8 @@
         <v>750</v>
       </c>
       <c r="L44" s="10"/>
-      <c r="M44" s="1" t="s">
-        <v>613</v>
+      <c r="M44" s="1">
+        <v>0</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="22"/>
@@ -4778,7 +4766,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -4793,8 +4781,8 @@
         <v>600</v>
       </c>
       <c r="L45" s="10"/>
-      <c r="M45" s="1" t="s">
-        <v>613</v>
+      <c r="M45" s="1">
+        <v>0</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="22">
@@ -4804,7 +4792,7 @@
       <c r="Q45" s="22"/>
       <c r="R45" s="22"/>
       <c r="S45" s="22" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="T45" s="22"/>
       <c r="U45" s="24">
@@ -4834,8 +4822,8 @@
         <v>2200</v>
       </c>
       <c r="L46" s="10"/>
-      <c r="M46" s="1" t="s">
-        <v>613</v>
+      <c r="M46" s="1">
+        <v>0</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="22"/>
@@ -4875,8 +4863,8 @@
         <v>1778</v>
       </c>
       <c r="L47" s="10"/>
-      <c r="M47" s="1" t="s">
-        <v>613</v>
+      <c r="M47" s="1">
+        <v>0</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="22"/>
@@ -4916,8 +4904,8 @@
         <v>500</v>
       </c>
       <c r="L48" s="10"/>
-      <c r="M48" s="1" t="s">
-        <v>613</v>
+      <c r="M48" s="1">
+        <v>0</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="22"/>
@@ -4957,8 +4945,8 @@
       <c r="J49" s="15"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
-      <c r="M49" s="1" t="s">
-        <v>613</v>
+      <c r="M49" s="1">
+        <v>0</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="22"/>
@@ -4998,8 +4986,8 @@
         <v>700</v>
       </c>
       <c r="L50" s="10"/>
-      <c r="M50" s="1" t="s">
-        <v>613</v>
+      <c r="M50" s="1">
+        <v>0</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="22"/>
@@ -5039,8 +5027,8 @@
         <v>2100</v>
       </c>
       <c r="L51" s="10"/>
-      <c r="M51" s="1" t="s">
-        <v>613</v>
+      <c r="M51" s="1">
+        <v>0</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="22"/>
@@ -5080,8 +5068,8 @@
         <v>830</v>
       </c>
       <c r="L52" s="10"/>
-      <c r="M52" s="1" t="s">
-        <v>613</v>
+      <c r="M52" s="1">
+        <v>0</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="22"/>
@@ -5091,7 +5079,7 @@
       </c>
       <c r="R52" s="22"/>
       <c r="S52" s="22" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="T52" s="22"/>
       <c r="U52" s="24">
@@ -5121,8 +5109,8 @@
         <v>650</v>
       </c>
       <c r="L53" s="10"/>
-      <c r="M53" s="1" t="s">
-        <v>613</v>
+      <c r="M53" s="1">
+        <v>0</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="22"/>
@@ -5162,8 +5150,8 @@
         <v>220</v>
       </c>
       <c r="L54" s="10"/>
-      <c r="M54" s="1" t="s">
-        <v>613</v>
+      <c r="M54" s="1">
+        <v>0</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="22"/>
@@ -5203,8 +5191,8 @@
       <c r="J55" s="15"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
-      <c r="M55" s="1" t="s">
-        <v>613</v>
+      <c r="M55" s="1">
+        <v>0</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="22"/>
@@ -5214,7 +5202,7 @@
       </c>
       <c r="R55" s="22"/>
       <c r="S55" s="22" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="T55" s="22"/>
       <c r="U55" s="24">
@@ -5244,8 +5232,8 @@
       <c r="J56" s="15"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
-      <c r="M56" s="1" t="s">
-        <v>613</v>
+      <c r="M56" s="1">
+        <v>0</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="22">
@@ -5255,7 +5243,7 @@
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
       <c r="S56" s="22" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="T56" s="22"/>
       <c r="U56" s="24">
@@ -5285,8 +5273,8 @@
         <v>800</v>
       </c>
       <c r="L57" s="10"/>
-      <c r="M57" s="1" t="s">
-        <v>613</v>
+      <c r="M57" s="1">
+        <v>0</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="22"/>
@@ -5296,7 +5284,7 @@
       </c>
       <c r="R57" s="22"/>
       <c r="S57" s="22" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="T57" s="22"/>
       <c r="U57" s="24">
@@ -5326,8 +5314,8 @@
       <c r="J58" s="15"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="1" t="s">
-        <v>613</v>
+      <c r="M58" s="1">
+        <v>0</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="22"/>
@@ -5337,7 +5325,7 @@
       </c>
       <c r="R58" s="22"/>
       <c r="S58" s="22" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="T58" s="22"/>
       <c r="U58" s="24">
@@ -5449,8 +5437,8 @@
       <c r="J61" s="15"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
-      <c r="M61" s="1" t="s">
-        <v>613</v>
+      <c r="M61" s="1">
+        <v>0</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="22"/>
@@ -5531,8 +5519,8 @@
         <v>200</v>
       </c>
       <c r="L63" s="10"/>
-      <c r="M63" s="1" t="s">
-        <v>613</v>
+      <c r="M63" s="1">
+        <v>0</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="22">
@@ -5572,8 +5560,8 @@
         <v>200</v>
       </c>
       <c r="L64" s="10"/>
-      <c r="M64" s="1" t="s">
-        <v>613</v>
+      <c r="M64" s="1">
+        <v>0</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="22"/>
@@ -5613,8 +5601,8 @@
         <v>335</v>
       </c>
       <c r="L65" s="10"/>
-      <c r="M65" s="1" t="s">
-        <v>613</v>
+      <c r="M65" s="1">
+        <v>0</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="22"/>
@@ -5654,8 +5642,8 @@
         <v>565</v>
       </c>
       <c r="L66" s="10"/>
-      <c r="M66" s="1" t="s">
-        <v>613</v>
+      <c r="M66" s="1">
+        <v>0</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="22"/>
@@ -5695,8 +5683,8 @@
       <c r="J67" s="15"/>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
-      <c r="M67" s="1" t="s">
-        <v>613</v>
+      <c r="M67" s="1">
+        <v>0</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="22"/>
@@ -5706,7 +5694,7 @@
       </c>
       <c r="R67" s="22"/>
       <c r="S67" s="22" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="T67" s="22"/>
       <c r="U67" s="24">
@@ -5736,8 +5724,8 @@
       <c r="J68" s="15"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
-      <c r="M68" s="1" t="s">
-        <v>613</v>
+      <c r="M68" s="1">
+        <v>0</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="26"/>
@@ -5818,8 +5806,8 @@
       <c r="J70" s="15"/>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
-      <c r="M70" s="1" t="s">
-        <v>613</v>
+      <c r="M70" s="1">
+        <v>0</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="31">
@@ -5829,7 +5817,7 @@
       <c r="Q70" s="27"/>
       <c r="R70" s="28"/>
       <c r="S70" s="29" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="T70" s="29"/>
       <c r="U70" s="30">
@@ -5859,8 +5847,8 @@
         <v>150</v>
       </c>
       <c r="L71" s="10"/>
-      <c r="M71" s="1" t="s">
-        <v>613</v>
+      <c r="M71" s="1">
+        <v>0</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="31"/>
@@ -5900,8 +5888,8 @@
         <v>150</v>
       </c>
       <c r="L72" s="10"/>
-      <c r="M72" s="1" t="s">
-        <v>613</v>
+      <c r="M72" s="1">
+        <v>0</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="31"/>
@@ -5941,8 +5929,8 @@
         <v>1000</v>
       </c>
       <c r="L73" s="10"/>
-      <c r="M73" s="1" t="s">
-        <v>613</v>
+      <c r="M73" s="1">
+        <v>0</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="31"/>
@@ -5982,8 +5970,8 @@
         <v>220</v>
       </c>
       <c r="L74" s="10"/>
-      <c r="M74" s="1" t="s">
-        <v>613</v>
+      <c r="M74" s="1">
+        <v>0</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="31">
@@ -6064,8 +6052,8 @@
         <v>300</v>
       </c>
       <c r="L76" s="10"/>
-      <c r="M76" s="1" t="s">
-        <v>613</v>
+      <c r="M76" s="1">
+        <v>0</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="31"/>
@@ -6105,8 +6093,8 @@
       <c r="J77" s="15"/>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
-      <c r="M77" s="1" t="s">
-        <v>613</v>
+      <c r="M77" s="1">
+        <v>0</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="31"/>
@@ -6157,7 +6145,7 @@
       </c>
       <c r="R78" s="28"/>
       <c r="S78" s="29" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="T78" s="29"/>
       <c r="U78" s="30">
@@ -6198,7 +6186,7 @@
       </c>
       <c r="R79" s="28"/>
       <c r="S79" s="29" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="T79" s="29"/>
       <c r="U79" s="30">
@@ -6228,8 +6216,8 @@
         <v>234</v>
       </c>
       <c r="L80" s="10"/>
-      <c r="M80" s="1" t="s">
-        <v>613</v>
+      <c r="M80" s="1">
+        <v>0</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="31"/>
@@ -6280,7 +6268,7 @@
       </c>
       <c r="R81" s="28"/>
       <c r="S81" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="T81" s="29"/>
       <c r="U81" s="30">
@@ -6310,8 +6298,8 @@
         <v>380</v>
       </c>
       <c r="L82" s="10"/>
-      <c r="M82" s="1" t="s">
-        <v>613</v>
+      <c r="M82" s="1">
+        <v>0</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="31"/>
@@ -6433,8 +6421,8 @@
       <c r="J85" s="15"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
-      <c r="M85" s="1" t="s">
-        <v>613</v>
+      <c r="M85" s="1">
+        <v>0</v>
       </c>
       <c r="N85" s="1"/>
       <c r="O85" s="34"/>
@@ -6485,7 +6473,7 @@
       </c>
       <c r="R86" s="28"/>
       <c r="S86" s="33" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="T86" s="33"/>
       <c r="U86" s="36">
@@ -6515,8 +6503,8 @@
         <v>100</v>
       </c>
       <c r="L87" s="10"/>
-      <c r="M87" s="1" t="s">
-        <v>613</v>
+      <c r="M87" s="1">
+        <v>0</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="31"/>
@@ -6526,7 +6514,7 @@
       </c>
       <c r="R87" s="28"/>
       <c r="S87" s="29" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="T87" s="29"/>
       <c r="U87" s="30">
@@ -6556,8 +6544,8 @@
         <v>467</v>
       </c>
       <c r="L88" s="10"/>
-      <c r="M88" s="1" t="s">
-        <v>613</v>
+      <c r="M88" s="1">
+        <v>0</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="31"/>
@@ -6679,8 +6667,8 @@
         <v>100</v>
       </c>
       <c r="L91" s="10"/>
-      <c r="M91" s="1" t="s">
-        <v>613</v>
+      <c r="M91" s="1">
+        <v>0</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="31"/>
@@ -6705,7 +6693,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -6721,7 +6709,7 @@
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="1">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="31"/>
@@ -6761,8 +6749,8 @@
         <v>300</v>
       </c>
       <c r="L93" s="10"/>
-      <c r="M93" s="1" t="s">
-        <v>613</v>
+      <c r="M93" s="1">
+        <v>0</v>
       </c>
       <c r="N93" s="1"/>
       <c r="O93" s="31"/>
@@ -6772,7 +6760,7 @@
       </c>
       <c r="R93" s="28"/>
       <c r="S93" s="29" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="T93" s="29"/>
       <c r="U93" s="30">
@@ -6802,8 +6790,8 @@
         <v>594</v>
       </c>
       <c r="L94" s="10"/>
-      <c r="M94" s="1" t="s">
-        <v>613</v>
+      <c r="M94" s="1">
+        <v>0</v>
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="31"/>
@@ -6925,8 +6913,8 @@
         <v>374</v>
       </c>
       <c r="L97" s="10"/>
-      <c r="M97" s="1" t="s">
-        <v>613</v>
+      <c r="M97" s="1">
+        <v>0</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="37"/>
@@ -6966,8 +6954,8 @@
         <v>450</v>
       </c>
       <c r="L98" s="10"/>
-      <c r="M98" s="1" t="s">
-        <v>613</v>
+      <c r="M98" s="1">
+        <v>0</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="37"/>
@@ -7130,8 +7118,8 @@
         <v>375</v>
       </c>
       <c r="L102" s="10"/>
-      <c r="M102" s="1" t="s">
-        <v>613</v>
+      <c r="M102" s="1">
+        <v>0</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="37"/>
@@ -7171,8 +7159,8 @@
         <v>100</v>
       </c>
       <c r="L103" s="10"/>
-      <c r="M103" s="1" t="s">
-        <v>613</v>
+      <c r="M103" s="1">
+        <v>0</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="37"/>
@@ -7212,8 +7200,8 @@
       <c r="J104" s="15"/>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
-      <c r="M104" s="1" t="s">
-        <v>613</v>
+      <c r="M104" s="1">
+        <v>0</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="37"/>
@@ -7253,8 +7241,8 @@
         <v>160</v>
       </c>
       <c r="L105" s="10"/>
-      <c r="M105" s="1" t="s">
-        <v>613</v>
+      <c r="M105" s="1">
+        <v>0</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="37"/>
@@ -7335,8 +7323,8 @@
       <c r="J107" s="15"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="1" t="s">
-        <v>613</v>
+      <c r="M107" s="1">
+        <v>0</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="37"/>
@@ -7346,7 +7334,7 @@
       </c>
       <c r="R107" s="22"/>
       <c r="S107" s="22" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="T107" s="22"/>
       <c r="U107" s="24">
@@ -7376,8 +7364,8 @@
         <v>44</v>
       </c>
       <c r="L108" s="10"/>
-      <c r="M108" s="1" t="s">
-        <v>613</v>
+      <c r="M108" s="1">
+        <v>0</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="37"/>
@@ -7417,8 +7405,8 @@
         <v>400</v>
       </c>
       <c r="L109" s="10"/>
-      <c r="M109" s="1" t="s">
-        <v>613</v>
+      <c r="M109" s="1">
+        <v>0</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="37"/>
@@ -7499,8 +7487,8 @@
         <v>1477</v>
       </c>
       <c r="L111" s="10"/>
-      <c r="M111" s="1" t="s">
-        <v>613</v>
+      <c r="M111" s="1">
+        <v>0</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="37"/>
@@ -7510,7 +7498,7 @@
       </c>
       <c r="R111" s="22"/>
       <c r="S111" s="22" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="T111" s="22"/>
       <c r="U111" s="24">
@@ -7540,8 +7528,8 @@
         <v>129</v>
       </c>
       <c r="L112" s="10"/>
-      <c r="M112" s="1" t="s">
-        <v>613</v>
+      <c r="M112" s="1">
+        <v>0</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="37"/>
@@ -7592,7 +7580,7 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
       <c r="S113" s="22" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="T113" s="22"/>
       <c r="U113" s="24">
@@ -7622,8 +7610,8 @@
       <c r="J114" s="15"/>
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
-      <c r="M114" s="1" t="s">
-        <v>613</v>
+      <c r="M114" s="1">
+        <v>0</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="37"/>
@@ -7663,8 +7651,8 @@
       <c r="J115" s="15"/>
       <c r="K115" s="10"/>
       <c r="L115" s="10"/>
-      <c r="M115" s="1" t="s">
-        <v>613</v>
+      <c r="M115" s="1">
+        <v>0</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="37"/>
@@ -7715,7 +7703,7 @@
       </c>
       <c r="R116" s="22"/>
       <c r="S116" s="22" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="T116" s="22"/>
       <c r="U116" s="24">
@@ -7745,8 +7733,8 @@
       <c r="J117" s="15"/>
       <c r="K117" s="10"/>
       <c r="L117" s="10"/>
-      <c r="M117" s="1" t="s">
-        <v>613</v>
+      <c r="M117" s="1">
+        <v>0</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="37">
@@ -7868,8 +7856,8 @@
         <v>1300</v>
       </c>
       <c r="L120" s="10"/>
-      <c r="M120" s="1" t="s">
-        <v>613</v>
+      <c r="M120" s="1">
+        <v>0</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="37"/>
@@ -7909,8 +7897,8 @@
         <v>400</v>
       </c>
       <c r="L121" s="10"/>
-      <c r="M121" s="1" t="s">
-        <v>613</v>
+      <c r="M121" s="1">
+        <v>0</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="37"/>
@@ -7950,8 +7938,8 @@
         <v>113</v>
       </c>
       <c r="L122" s="10"/>
-      <c r="M122" s="1" t="s">
-        <v>613</v>
+      <c r="M122" s="1">
+        <v>0</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="37"/>
@@ -7991,7 +7979,9 @@
         <v>57</v>
       </c>
       <c r="L123" s="10"/>
-      <c r="M123" s="1"/>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
       <c r="N123" s="1"/>
       <c r="O123" s="37"/>
       <c r="P123" s="38"/>
@@ -8030,8 +8020,8 @@
         <v>630</v>
       </c>
       <c r="L124" s="10"/>
-      <c r="M124" s="1" t="s">
-        <v>613</v>
+      <c r="M124" s="1">
+        <v>0</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="37">
@@ -8071,8 +8061,8 @@
         <v>434</v>
       </c>
       <c r="L125" s="10"/>
-      <c r="M125" s="1" t="s">
-        <v>613</v>
+      <c r="M125" s="1">
+        <v>0</v>
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="37"/>
@@ -8138,7 +8128,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -8153,8 +8143,8 @@
         <v>550</v>
       </c>
       <c r="L127" s="10"/>
-      <c r="M127" s="1" t="s">
-        <v>613</v>
+      <c r="M127" s="1">
+        <v>0</v>
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="37">
@@ -8194,8 +8184,8 @@
         <v>1320</v>
       </c>
       <c r="L128" s="10"/>
-      <c r="M128" s="1" t="s">
-        <v>613</v>
+      <c r="M128" s="1">
+        <v>0</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="37">
@@ -8205,7 +8195,7 @@
       <c r="Q128" s="22"/>
       <c r="R128" s="22"/>
       <c r="S128" s="22" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="T128" s="22"/>
       <c r="U128" s="24">
@@ -8235,8 +8225,8 @@
         <v>730</v>
       </c>
       <c r="L129" s="10"/>
-      <c r="M129" s="1" t="s">
-        <v>613</v>
+      <c r="M129" s="1">
+        <v>0</v>
       </c>
       <c r="N129" s="1"/>
       <c r="O129" s="37"/>
@@ -8246,7 +8236,7 @@
       </c>
       <c r="R129" s="22"/>
       <c r="S129" s="22" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="T129" s="22"/>
       <c r="U129" s="24">
@@ -8276,8 +8266,8 @@
       <c r="J130" s="15"/>
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
-      <c r="M130" s="1" t="s">
-        <v>613</v>
+      <c r="M130" s="1">
+        <v>0</v>
       </c>
       <c r="N130" s="1"/>
       <c r="O130" s="37"/>
@@ -8358,8 +8348,8 @@
         <v>100</v>
       </c>
       <c r="L132" s="10"/>
-      <c r="M132" s="1" t="s">
-        <v>613</v>
+      <c r="M132" s="1">
+        <v>0</v>
       </c>
       <c r="N132" s="1"/>
       <c r="O132" s="37"/>
@@ -8440,8 +8430,8 @@
         <v>2580</v>
       </c>
       <c r="L134" s="10"/>
-      <c r="M134" s="1" t="s">
-        <v>613</v>
+      <c r="M134" s="1">
+        <v>0</v>
       </c>
       <c r="N134" s="1"/>
       <c r="O134" s="37">
@@ -8481,8 +8471,8 @@
       <c r="J135" s="15"/>
       <c r="K135" s="10"/>
       <c r="L135" s="10"/>
-      <c r="M135" s="1" t="s">
-        <v>613</v>
+      <c r="M135" s="1">
+        <v>0</v>
       </c>
       <c r="N135" s="1"/>
       <c r="O135" s="37"/>
@@ -8563,8 +8553,8 @@
         <v>460</v>
       </c>
       <c r="L137" s="10"/>
-      <c r="M137" s="1" t="s">
-        <v>613</v>
+      <c r="M137" s="1">
+        <v>0</v>
       </c>
       <c r="N137" s="1"/>
       <c r="O137" s="37"/>
@@ -8604,8 +8594,8 @@
         <v>709</v>
       </c>
       <c r="L138" s="10"/>
-      <c r="M138" s="1" t="s">
-        <v>613</v>
+      <c r="M138" s="1">
+        <v>0</v>
       </c>
       <c r="N138" s="1"/>
       <c r="O138" s="37"/>
@@ -8656,7 +8646,7 @@
       </c>
       <c r="R139" s="22"/>
       <c r="S139" s="22" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="T139" s="22"/>
       <c r="U139" s="24">
@@ -8809,8 +8799,8 @@
         <v>198</v>
       </c>
       <c r="L143" s="10"/>
-      <c r="M143" s="1" t="s">
-        <v>613</v>
+      <c r="M143" s="1">
+        <v>0</v>
       </c>
       <c r="N143" s="1"/>
       <c r="O143" s="37">
@@ -8850,8 +8840,8 @@
         <v>400</v>
       </c>
       <c r="L144" s="10"/>
-      <c r="M144" s="1" t="s">
-        <v>613</v>
+      <c r="M144" s="1">
+        <v>0</v>
       </c>
       <c r="N144" s="1"/>
       <c r="O144" s="37"/>
@@ -8932,8 +8922,8 @@
       <c r="J146" s="15"/>
       <c r="K146" s="10"/>
       <c r="L146" s="10"/>
-      <c r="M146" s="1" t="s">
-        <v>613</v>
+      <c r="M146" s="1">
+        <v>0</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="37">
@@ -8973,8 +8963,8 @@
         <v>189</v>
       </c>
       <c r="L147" s="10"/>
-      <c r="M147" s="1" t="s">
-        <v>613</v>
+      <c r="M147" s="1">
+        <v>0</v>
       </c>
       <c r="N147" s="1"/>
       <c r="O147" s="37"/>
@@ -8984,7 +8974,7 @@
       </c>
       <c r="R147" s="22"/>
       <c r="S147" s="22" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="T147" s="22"/>
       <c r="U147" s="24">
@@ -9025,7 +9015,7 @@
       <c r="Q148" s="22"/>
       <c r="R148" s="22"/>
       <c r="S148" s="22" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="T148" s="22"/>
       <c r="U148" s="24">
@@ -9209,7 +9199,7 @@
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="15"/>
@@ -9301,8 +9291,8 @@
       <c r="J155" s="15"/>
       <c r="K155" s="10"/>
       <c r="L155" s="10"/>
-      <c r="M155" s="1" t="s">
-        <v>613</v>
+      <c r="M155" s="1">
+        <v>0</v>
       </c>
       <c r="N155" s="1"/>
       <c r="O155" s="37"/>
@@ -9342,8 +9332,8 @@
       <c r="J156" s="15"/>
       <c r="K156" s="17"/>
       <c r="L156" s="17"/>
-      <c r="M156" s="1" t="s">
-        <v>613</v>
+      <c r="M156" s="1">
+        <v>0</v>
       </c>
       <c r="N156" s="1"/>
       <c r="O156" s="37"/>
@@ -9353,7 +9343,7 @@
       </c>
       <c r="R156" s="22"/>
       <c r="S156" s="22" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="T156" s="22"/>
       <c r="U156" s="24">
@@ -9373,7 +9363,7 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="15"/>
@@ -9383,8 +9373,8 @@
         <v>2600</v>
       </c>
       <c r="L157" s="17"/>
-      <c r="M157" s="1" t="s">
-        <v>613</v>
+      <c r="M157" s="1">
+        <v>0</v>
       </c>
       <c r="N157" s="1"/>
       <c r="O157" s="37"/>
@@ -9424,8 +9414,8 @@
       <c r="J158" s="15"/>
       <c r="K158" s="17"/>
       <c r="L158" s="17"/>
-      <c r="M158" s="1" t="s">
-        <v>613</v>
+      <c r="M158" s="1">
+        <v>0</v>
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="37"/>
@@ -9476,7 +9466,7 @@
       <c r="Q159" s="22"/>
       <c r="R159" s="22"/>
       <c r="S159" s="22" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="T159" s="22"/>
       <c r="U159" s="24">
@@ -9547,8 +9537,8 @@
         <v>220</v>
       </c>
       <c r="L161" s="10"/>
-      <c r="M161" s="1" t="s">
-        <v>613</v>
+      <c r="M161" s="1">
+        <v>0</v>
       </c>
       <c r="N161" s="1"/>
       <c r="O161" s="37"/>
@@ -9588,8 +9578,8 @@
       <c r="J162" s="15"/>
       <c r="K162" s="10"/>
       <c r="L162" s="10"/>
-      <c r="M162" s="1" t="s">
-        <v>613</v>
+      <c r="M162" s="1">
+        <v>0</v>
       </c>
       <c r="N162" s="1"/>
       <c r="O162" s="37">
@@ -9614,7 +9604,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
@@ -9629,8 +9619,8 @@
       <c r="J163" s="15"/>
       <c r="K163" s="10"/>
       <c r="L163" s="10"/>
-      <c r="M163" s="1" t="s">
-        <v>613</v>
+      <c r="M163" s="1">
+        <v>0</v>
       </c>
       <c r="N163" s="1"/>
       <c r="O163" s="37"/>
@@ -9681,7 +9671,7 @@
       </c>
       <c r="R164" s="22"/>
       <c r="S164" s="22" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="T164" s="22"/>
       <c r="U164" s="24">
@@ -9711,8 +9701,8 @@
       <c r="J165" s="15"/>
       <c r="K165" s="10"/>
       <c r="L165" s="10"/>
-      <c r="M165" s="1" t="s">
-        <v>613</v>
+      <c r="M165" s="1">
+        <v>0</v>
       </c>
       <c r="N165" s="1"/>
       <c r="O165" s="37">
@@ -9752,8 +9742,8 @@
         <v>1400</v>
       </c>
       <c r="L166" s="10"/>
-      <c r="M166" s="1" t="s">
-        <v>613</v>
+      <c r="M166" s="1">
+        <v>0</v>
       </c>
       <c r="N166" s="1"/>
       <c r="O166" s="37"/>
@@ -9793,8 +9783,8 @@
         <v>500</v>
       </c>
       <c r="L167" s="10"/>
-      <c r="M167" s="1" t="s">
-        <v>613</v>
+      <c r="M167" s="1">
+        <v>0</v>
       </c>
       <c r="N167" s="1"/>
       <c r="O167" s="37"/>
@@ -9834,8 +9824,8 @@
         <v>1599</v>
       </c>
       <c r="L168" s="10"/>
-      <c r="M168" s="1" t="s">
-        <v>613</v>
+      <c r="M168" s="1">
+        <v>0</v>
       </c>
       <c r="N168" s="1"/>
       <c r="O168" s="37">
@@ -9875,8 +9865,8 @@
         <v>60</v>
       </c>
       <c r="L169" s="10"/>
-      <c r="M169" s="1" t="s">
-        <v>613</v>
+      <c r="M169" s="1">
+        <v>0</v>
       </c>
       <c r="N169" s="1"/>
       <c r="O169" s="37"/>
@@ -9886,7 +9876,7 @@
       </c>
       <c r="R169" s="22"/>
       <c r="S169" s="22" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="T169" s="22"/>
       <c r="U169" s="24">
@@ -9916,8 +9906,8 @@
         <v>400</v>
       </c>
       <c r="L170" s="10"/>
-      <c r="M170" s="1" t="s">
-        <v>613</v>
+      <c r="M170" s="1">
+        <v>0</v>
       </c>
       <c r="N170" s="1"/>
       <c r="O170" s="37"/>
@@ -9957,8 +9947,8 @@
       <c r="J171" s="15"/>
       <c r="K171" s="10"/>
       <c r="L171" s="10"/>
-      <c r="M171" s="1" t="s">
-        <v>613</v>
+      <c r="M171" s="1">
+        <v>0</v>
       </c>
       <c r="N171" s="1"/>
       <c r="O171" s="37">
@@ -9998,8 +9988,8 @@
       <c r="J172" s="15"/>
       <c r="K172" s="10"/>
       <c r="L172" s="10"/>
-      <c r="M172" s="1" t="s">
-        <v>613</v>
+      <c r="M172" s="1">
+        <v>0</v>
       </c>
       <c r="N172" s="1"/>
       <c r="O172" s="37"/>
@@ -10024,7 +10014,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
@@ -10039,8 +10029,8 @@
         <v>600</v>
       </c>
       <c r="L173" s="10"/>
-      <c r="M173" s="1" t="s">
-        <v>613</v>
+      <c r="M173" s="1">
+        <v>0</v>
       </c>
       <c r="N173" s="1"/>
       <c r="O173" s="37">
@@ -10119,8 +10109,8 @@
         <v>100</v>
       </c>
       <c r="L175" s="10"/>
-      <c r="M175" s="3" t="s">
-        <v>613</v>
+      <c r="M175" s="1">
+        <v>0</v>
       </c>
       <c r="N175" s="1"/>
       <c r="O175" s="37"/>
@@ -10160,8 +10150,8 @@
         <v>300</v>
       </c>
       <c r="L176" s="10"/>
-      <c r="M176" s="1" t="s">
-        <v>613</v>
+      <c r="M176" s="1">
+        <v>0</v>
       </c>
       <c r="N176" s="1"/>
       <c r="O176" s="37"/>
@@ -10201,8 +10191,8 @@
       <c r="J177" s="15"/>
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
-      <c r="M177" s="1" t="s">
-        <v>613</v>
+      <c r="M177" s="1">
+        <v>0</v>
       </c>
       <c r="N177" s="1"/>
       <c r="O177" s="37"/>
@@ -10242,8 +10232,8 @@
         <v>860</v>
       </c>
       <c r="L178" s="10"/>
-      <c r="M178" s="1" t="s">
-        <v>613</v>
+      <c r="M178" s="1">
+        <v>0</v>
       </c>
       <c r="N178" s="1"/>
       <c r="O178" s="37"/>
@@ -10365,8 +10355,8 @@
         <v>161</v>
       </c>
       <c r="L181" s="10"/>
-      <c r="M181" s="1" t="s">
-        <v>613</v>
+      <c r="M181" s="1">
+        <v>0</v>
       </c>
       <c r="N181" s="1"/>
       <c r="O181" s="37"/>
@@ -10447,8 +10437,8 @@
       <c r="J183" s="15"/>
       <c r="K183" s="10"/>
       <c r="L183" s="10"/>
-      <c r="M183" s="1" t="s">
-        <v>613</v>
+      <c r="M183" s="1">
+        <v>0</v>
       </c>
       <c r="N183" s="1"/>
       <c r="O183" s="37">
@@ -10488,8 +10478,8 @@
       <c r="J184" s="15"/>
       <c r="K184" s="10"/>
       <c r="L184" s="10"/>
-      <c r="M184" s="1" t="s">
-        <v>613</v>
+      <c r="M184" s="1">
+        <v>0</v>
       </c>
       <c r="N184" s="1"/>
       <c r="O184" s="37"/>
@@ -10529,8 +10519,8 @@
       <c r="J185" s="15"/>
       <c r="K185" s="10"/>
       <c r="L185" s="10"/>
-      <c r="M185" s="1" t="s">
-        <v>613</v>
+      <c r="M185" s="1">
+        <v>0</v>
       </c>
       <c r="N185" s="1"/>
       <c r="O185" s="37"/>
@@ -10570,8 +10560,8 @@
       <c r="J186" s="15"/>
       <c r="K186" s="10"/>
       <c r="L186" s="10"/>
-      <c r="M186" s="1" t="s">
-        <v>613</v>
+      <c r="M186" s="1">
+        <v>0</v>
       </c>
       <c r="N186" s="1"/>
       <c r="O186" s="37"/>
@@ -10611,8 +10601,8 @@
       <c r="J187" s="15"/>
       <c r="K187" s="10"/>
       <c r="L187" s="10"/>
-      <c r="M187" s="1" t="s">
-        <v>613</v>
+      <c r="M187" s="1">
+        <v>0</v>
       </c>
       <c r="N187" s="1"/>
       <c r="O187" s="37"/>
@@ -10652,8 +10642,8 @@
         <v>1150</v>
       </c>
       <c r="L188" s="17"/>
-      <c r="M188" s="1" t="s">
-        <v>613</v>
+      <c r="M188" s="1">
+        <v>0</v>
       </c>
       <c r="N188" s="1"/>
       <c r="O188" s="37"/>
@@ -10693,8 +10683,8 @@
       <c r="J189" s="15"/>
       <c r="K189" s="17"/>
       <c r="L189" s="17"/>
-      <c r="M189" s="1" t="s">
-        <v>613</v>
+      <c r="M189" s="1">
+        <v>0</v>
       </c>
       <c r="N189" s="1"/>
       <c r="O189" s="37"/>
@@ -10734,8 +10724,8 @@
         <v>200</v>
       </c>
       <c r="L190" s="17"/>
-      <c r="M190" s="1" t="s">
-        <v>613</v>
+      <c r="M190" s="1">
+        <v>0</v>
       </c>
       <c r="N190" s="1"/>
       <c r="O190" s="37">
@@ -10745,7 +10735,7 @@
       <c r="Q190" s="22"/>
       <c r="R190" s="22"/>
       <c r="S190" s="22" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="T190" s="22"/>
       <c r="U190" s="24">
@@ -10775,8 +10765,8 @@
         <v>350</v>
       </c>
       <c r="L191" s="10"/>
-      <c r="M191" s="1" t="s">
-        <v>613</v>
+      <c r="M191" s="1">
+        <v>0</v>
       </c>
       <c r="N191" s="1"/>
       <c r="O191" s="37">
@@ -10816,8 +10806,8 @@
         <v>945</v>
       </c>
       <c r="L192" s="7"/>
-      <c r="M192" s="1" t="s">
-        <v>613</v>
+      <c r="M192" s="1">
+        <v>0</v>
       </c>
       <c r="N192" s="1"/>
       <c r="O192" s="37"/>
@@ -10857,8 +10847,8 @@
       <c r="J193" s="15"/>
       <c r="K193" s="10"/>
       <c r="L193" s="10"/>
-      <c r="M193" s="1" t="s">
-        <v>613</v>
+      <c r="M193" s="1">
+        <v>0</v>
       </c>
       <c r="N193" s="1"/>
       <c r="O193" s="37"/>
@@ -10898,8 +10888,8 @@
       <c r="J194" s="15"/>
       <c r="K194" s="10"/>
       <c r="L194" s="10"/>
-      <c r="M194" s="1" t="s">
-        <v>613</v>
+      <c r="M194" s="1">
+        <v>0</v>
       </c>
       <c r="N194" s="1"/>
       <c r="O194" s="37">
@@ -10939,8 +10929,8 @@
       <c r="J195" s="15"/>
       <c r="K195" s="10"/>
       <c r="L195" s="10"/>
-      <c r="M195" s="1" t="s">
-        <v>613</v>
+      <c r="M195" s="1">
+        <v>0</v>
       </c>
       <c r="N195" s="1"/>
       <c r="O195" s="37"/>
@@ -10980,8 +10970,8 @@
         <v>2330</v>
       </c>
       <c r="L196" s="10"/>
-      <c r="M196" s="1" t="s">
-        <v>613</v>
+      <c r="M196" s="1">
+        <v>0</v>
       </c>
       <c r="N196" s="1"/>
       <c r="O196" s="37">
@@ -11021,8 +11011,8 @@
       <c r="J197" s="15"/>
       <c r="K197" s="10"/>
       <c r="L197" s="10"/>
-      <c r="M197" s="1" t="s">
-        <v>613</v>
+      <c r="M197" s="1">
+        <v>0</v>
       </c>
       <c r="N197" s="1"/>
       <c r="O197" s="37">
@@ -11062,8 +11052,8 @@
       <c r="J198" s="15"/>
       <c r="K198" s="10"/>
       <c r="L198" s="10"/>
-      <c r="M198" s="1" t="s">
-        <v>613</v>
+      <c r="M198" s="1">
+        <v>0</v>
       </c>
       <c r="N198" s="1"/>
       <c r="O198" s="37"/>
@@ -11103,8 +11093,8 @@
       <c r="J199" s="15"/>
       <c r="K199" s="10"/>
       <c r="L199" s="10"/>
-      <c r="M199" s="1" t="s">
-        <v>613</v>
+      <c r="M199" s="1">
+        <v>0</v>
       </c>
       <c r="N199" s="1"/>
       <c r="O199" s="37"/>
@@ -11144,8 +11134,8 @@
       <c r="J200" s="15"/>
       <c r="K200" s="10"/>
       <c r="L200" s="10"/>
-      <c r="M200" s="1" t="s">
-        <v>613</v>
+      <c r="M200" s="1">
+        <v>0</v>
       </c>
       <c r="N200" s="1"/>
       <c r="O200" s="37"/>
@@ -11185,8 +11175,8 @@
       <c r="J201" s="15"/>
       <c r="K201" s="10"/>
       <c r="L201" s="10"/>
-      <c r="M201" s="1" t="s">
-        <v>613</v>
+      <c r="M201" s="1">
+        <v>0</v>
       </c>
       <c r="N201" s="1"/>
       <c r="O201" s="37"/>
@@ -11226,8 +11216,8 @@
       <c r="J202" s="15"/>
       <c r="K202" s="10"/>
       <c r="L202" s="10"/>
-      <c r="M202" s="1" t="s">
-        <v>613</v>
+      <c r="M202" s="1">
+        <v>0</v>
       </c>
       <c r="N202" s="1"/>
       <c r="O202" s="37">
@@ -11237,7 +11227,7 @@
       <c r="Q202" s="22"/>
       <c r="R202" s="22"/>
       <c r="S202" s="22" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="T202" s="22"/>
       <c r="U202" s="24">
@@ -11267,8 +11257,8 @@
       <c r="J203" s="15"/>
       <c r="K203" s="10"/>
       <c r="L203" s="10"/>
-      <c r="M203" s="1" t="s">
-        <v>613</v>
+      <c r="M203" s="1">
+        <v>0</v>
       </c>
       <c r="N203" s="1"/>
       <c r="O203" s="37">
@@ -11309,7 +11299,7 @@
       </c>
       <c r="L204" s="10"/>
       <c r="M204" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204" s="1"/>
       <c r="O204" s="37"/>
@@ -11319,7 +11309,7 @@
       </c>
       <c r="R204" s="22"/>
       <c r="S204" s="22" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="T204" s="22"/>
       <c r="U204" s="24">
@@ -11349,8 +11339,8 @@
       <c r="J205" s="15"/>
       <c r="K205" s="10"/>
       <c r="L205" s="10"/>
-      <c r="M205" s="1" t="s">
-        <v>613</v>
+      <c r="M205" s="1">
+        <v>0</v>
       </c>
       <c r="N205" s="1"/>
       <c r="O205" s="37">
@@ -11390,8 +11380,8 @@
       <c r="J206" s="15"/>
       <c r="K206" s="10"/>
       <c r="L206" s="10"/>
-      <c r="M206" s="1" t="s">
-        <v>613</v>
+      <c r="M206" s="1">
+        <v>0</v>
       </c>
       <c r="N206" s="1"/>
       <c r="O206" s="37"/>
@@ -11401,7 +11391,7 @@
       </c>
       <c r="R206" s="22"/>
       <c r="S206" s="22" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="T206" s="22"/>
       <c r="U206" s="24">
@@ -11431,8 +11421,8 @@
       <c r="J207" s="15"/>
       <c r="K207" s="10"/>
       <c r="L207" s="10"/>
-      <c r="M207" s="1" t="s">
-        <v>613</v>
+      <c r="M207" s="1">
+        <v>0</v>
       </c>
       <c r="N207" s="1"/>
       <c r="O207" s="37"/>
@@ -11442,7 +11432,7 @@
       </c>
       <c r="R207" s="22"/>
       <c r="S207" s="22" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="T207" s="22"/>
       <c r="U207" s="24">
@@ -11472,8 +11462,8 @@
       <c r="J208" s="15"/>
       <c r="K208" s="10"/>
       <c r="L208" s="10"/>
-      <c r="M208" s="1" t="s">
-        <v>613</v>
+      <c r="M208" s="1">
+        <v>0</v>
       </c>
       <c r="N208" s="1"/>
       <c r="O208" s="37"/>
@@ -11595,8 +11585,8 @@
         <v>2400</v>
       </c>
       <c r="L211" s="7"/>
-      <c r="M211" s="3" t="s">
-        <v>613</v>
+      <c r="M211" s="1">
+        <v>0</v>
       </c>
       <c r="N211" s="1"/>
       <c r="O211" s="37"/>
@@ -11636,8 +11626,8 @@
       <c r="J212" s="6"/>
       <c r="K212" s="7"/>
       <c r="L212" s="7"/>
-      <c r="M212" s="1" t="s">
-        <v>613</v>
+      <c r="M212" s="1">
+        <v>0</v>
       </c>
       <c r="N212" s="1"/>
       <c r="O212" s="37"/>
@@ -11677,8 +11667,8 @@
       <c r="J213" s="6"/>
       <c r="K213" s="7"/>
       <c r="L213" s="7"/>
-      <c r="M213" s="1" t="s">
-        <v>613</v>
+      <c r="M213" s="1">
+        <v>0</v>
       </c>
       <c r="N213" s="1"/>
       <c r="O213" s="37"/>
@@ -11718,8 +11708,8 @@
         <v>54</v>
       </c>
       <c r="L214" s="7"/>
-      <c r="M214" s="1" t="s">
-        <v>613</v>
+      <c r="M214" s="1">
+        <v>0</v>
       </c>
       <c r="N214" s="1"/>
       <c r="O214" s="37"/>
@@ -11759,8 +11749,8 @@
         <v>2350</v>
       </c>
       <c r="L215" s="7"/>
-      <c r="M215" s="1" t="s">
-        <v>613</v>
+      <c r="M215" s="1">
+        <v>0</v>
       </c>
       <c r="N215" s="1"/>
       <c r="O215" s="37"/>
@@ -11800,8 +11790,8 @@
       <c r="J216" s="6"/>
       <c r="K216" s="7"/>
       <c r="L216" s="7"/>
-      <c r="M216" s="1" t="s">
-        <v>613</v>
+      <c r="M216" s="1">
+        <v>0</v>
       </c>
       <c r="N216" s="1"/>
       <c r="O216" s="37"/>
@@ -11882,8 +11872,8 @@
       <c r="J218" s="6"/>
       <c r="K218" s="7"/>
       <c r="L218" s="7"/>
-      <c r="M218" s="3" t="s">
-        <v>613</v>
+      <c r="M218" s="1">
+        <v>0</v>
       </c>
       <c r="N218" s="1"/>
       <c r="O218" s="37"/>
@@ -11923,8 +11913,8 @@
       <c r="J219" s="6"/>
       <c r="K219" s="7"/>
       <c r="L219" s="7"/>
-      <c r="M219" s="1" t="s">
-        <v>613</v>
+      <c r="M219" s="1">
+        <v>0</v>
       </c>
       <c r="N219" s="1"/>
       <c r="O219" s="37">
@@ -11964,8 +11954,8 @@
       <c r="J220" s="6"/>
       <c r="K220" s="7"/>
       <c r="L220" s="7"/>
-      <c r="M220" s="1" t="s">
-        <v>613</v>
+      <c r="M220" s="1">
+        <v>0</v>
       </c>
       <c r="N220" s="1"/>
       <c r="O220" s="37"/>
@@ -11975,7 +11965,7 @@
       </c>
       <c r="R220" s="22"/>
       <c r="S220" s="22" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="T220" s="22"/>
       <c r="U220" s="24">
@@ -12005,8 +11995,8 @@
       <c r="J221" s="6"/>
       <c r="K221" s="7"/>
       <c r="L221" s="7"/>
-      <c r="M221" s="1" t="s">
-        <v>613</v>
+      <c r="M221" s="1">
+        <v>0</v>
       </c>
       <c r="N221" s="1"/>
       <c r="O221" s="37">
@@ -12046,8 +12036,8 @@
       <c r="J222" s="6"/>
       <c r="K222" s="7"/>
       <c r="L222" s="7"/>
-      <c r="M222" s="1" t="s">
-        <v>613</v>
+      <c r="M222" s="1">
+        <v>0</v>
       </c>
       <c r="N222" s="1"/>
       <c r="O222" s="37"/>
@@ -12057,7 +12047,7 @@
       </c>
       <c r="R222" s="22"/>
       <c r="S222" s="22" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="T222" s="22"/>
       <c r="U222" s="24">
@@ -12087,8 +12077,8 @@
       <c r="J223" s="6"/>
       <c r="K223" s="7"/>
       <c r="L223" s="7"/>
-      <c r="M223" s="1" t="s">
-        <v>613</v>
+      <c r="M223" s="1">
+        <v>0</v>
       </c>
       <c r="N223" s="1"/>
       <c r="O223" s="37"/>
@@ -12128,8 +12118,8 @@
         <v>188</v>
       </c>
       <c r="L224" s="7"/>
-      <c r="M224" s="1" t="s">
-        <v>613</v>
+      <c r="M224" s="1">
+        <v>0</v>
       </c>
       <c r="N224" s="1"/>
       <c r="O224" s="37"/>
@@ -12169,8 +12159,8 @@
       <c r="J225" s="6"/>
       <c r="K225" s="7"/>
       <c r="L225" s="7"/>
-      <c r="M225" s="1" t="s">
-        <v>613</v>
+      <c r="M225" s="1">
+        <v>0</v>
       </c>
       <c r="N225" s="1"/>
       <c r="O225" s="37"/>
@@ -12210,8 +12200,8 @@
       <c r="J226" s="6"/>
       <c r="K226" s="7"/>
       <c r="L226" s="7"/>
-      <c r="M226" s="1" t="s">
-        <v>613</v>
+      <c r="M226" s="1">
+        <v>0</v>
       </c>
       <c r="N226" s="1"/>
       <c r="O226" s="37"/>
@@ -12249,8 +12239,8 @@
         <v>3600</v>
       </c>
       <c r="L227" s="7"/>
-      <c r="M227" s="1" t="s">
-        <v>613</v>
+      <c r="M227" s="1">
+        <v>0</v>
       </c>
       <c r="N227" s="1"/>
       <c r="O227" s="37"/>
@@ -12290,8 +12280,8 @@
         <v>2250</v>
       </c>
       <c r="L228" s="7"/>
-      <c r="M228" s="1" t="s">
-        <v>613</v>
+      <c r="M228" s="1">
+        <v>0</v>
       </c>
       <c r="N228" s="1"/>
       <c r="O228" s="37"/>
@@ -12342,7 +12332,7 @@
       </c>
       <c r="R229" s="22"/>
       <c r="S229" s="22" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="T229" s="22"/>
       <c r="U229" s="24">
@@ -12372,8 +12362,8 @@
       <c r="J230" s="6"/>
       <c r="K230" s="7"/>
       <c r="L230" s="7"/>
-      <c r="M230" s="1" t="s">
-        <v>613</v>
+      <c r="M230" s="1">
+        <v>0</v>
       </c>
       <c r="N230" s="1"/>
       <c r="O230" s="37"/>
@@ -12383,7 +12373,7 @@
       </c>
       <c r="R230" s="22"/>
       <c r="S230" s="22" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="T230" s="22"/>
       <c r="U230" s="24">
@@ -12413,8 +12403,8 @@
       <c r="J231" s="6"/>
       <c r="K231" s="7"/>
       <c r="L231" s="7"/>
-      <c r="M231" s="1" t="s">
-        <v>613</v>
+      <c r="M231" s="1">
+        <v>0</v>
       </c>
       <c r="N231" s="1"/>
       <c r="O231" s="37"/>
@@ -12439,7 +12429,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
@@ -12465,7 +12455,7 @@
       <c r="Q232" s="22"/>
       <c r="R232" s="22"/>
       <c r="S232" s="22" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="T232" s="22"/>
       <c r="U232" s="24">
@@ -12495,8 +12485,8 @@
       <c r="J233" s="6"/>
       <c r="K233" s="7"/>
       <c r="L233" s="7"/>
-      <c r="M233" s="3" t="s">
-        <v>613</v>
+      <c r="M233" s="1">
+        <v>0</v>
       </c>
       <c r="N233" s="1"/>
       <c r="O233" s="37"/>
@@ -12536,8 +12526,8 @@
         <v>1600</v>
       </c>
       <c r="L234" s="7"/>
-      <c r="M234" s="1" t="s">
-        <v>613</v>
+      <c r="M234" s="1">
+        <v>0</v>
       </c>
       <c r="N234" s="1"/>
       <c r="O234" s="37"/>
@@ -12547,7 +12537,7 @@
       </c>
       <c r="R234" s="22"/>
       <c r="S234" s="22" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="T234" s="22"/>
       <c r="U234" s="24">
@@ -12577,8 +12567,8 @@
       <c r="J235" s="6"/>
       <c r="K235" s="7"/>
       <c r="L235" s="7"/>
-      <c r="M235" s="1" t="s">
-        <v>613</v>
+      <c r="M235" s="1">
+        <v>0</v>
       </c>
       <c r="N235" s="1"/>
       <c r="O235" s="37">
@@ -12659,8 +12649,8 @@
         <v>492</v>
       </c>
       <c r="L237" s="7"/>
-      <c r="M237" s="1" t="s">
-        <v>613</v>
+      <c r="M237" s="1">
+        <v>0</v>
       </c>
       <c r="N237" s="1"/>
       <c r="O237" s="37">
@@ -12700,8 +12690,8 @@
       <c r="J238" s="6"/>
       <c r="K238" s="7"/>
       <c r="L238" s="7"/>
-      <c r="M238" s="1" t="s">
-        <v>613</v>
+      <c r="M238" s="1">
+        <v>0</v>
       </c>
       <c r="N238" s="1"/>
       <c r="O238" s="37"/>
@@ -12741,8 +12731,8 @@
       <c r="J239" s="6"/>
       <c r="K239" s="7"/>
       <c r="L239" s="7"/>
-      <c r="M239" s="1" t="s">
-        <v>613</v>
+      <c r="M239" s="1">
+        <v>0</v>
       </c>
       <c r="N239" s="1"/>
       <c r="O239" s="37"/>
@@ -12782,8 +12772,8 @@
       <c r="J240" s="6"/>
       <c r="K240" s="7"/>
       <c r="L240" s="7"/>
-      <c r="M240" s="1" t="s">
-        <v>613</v>
+      <c r="M240" s="1">
+        <v>0</v>
       </c>
       <c r="N240" s="1"/>
       <c r="O240" s="37"/>
@@ -12793,7 +12783,7 @@
       </c>
       <c r="R240" s="22"/>
       <c r="S240" s="22" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="T240" s="22"/>
       <c r="U240" s="24">
@@ -12823,8 +12813,8 @@
       <c r="J241" s="6"/>
       <c r="K241" s="7"/>
       <c r="L241" s="7"/>
-      <c r="M241" s="1" t="s">
-        <v>613</v>
+      <c r="M241" s="1">
+        <v>0</v>
       </c>
       <c r="N241" s="1"/>
       <c r="O241" s="37"/>
@@ -12864,8 +12854,8 @@
       <c r="J242" s="6"/>
       <c r="K242" s="7"/>
       <c r="L242" s="7"/>
-      <c r="M242" s="1" t="s">
-        <v>613</v>
+      <c r="M242" s="1">
+        <v>0</v>
       </c>
       <c r="N242" s="1"/>
       <c r="O242" s="37"/>
@@ -12905,8 +12895,8 @@
       <c r="J243" s="6"/>
       <c r="K243" s="7"/>
       <c r="L243" s="7"/>
-      <c r="M243" s="1" t="s">
-        <v>613</v>
+      <c r="M243" s="1">
+        <v>0</v>
       </c>
       <c r="N243" s="1"/>
       <c r="O243" s="37"/>
@@ -12946,8 +12936,8 @@
       <c r="J244" s="6"/>
       <c r="K244" s="7"/>
       <c r="L244" s="7"/>
-      <c r="M244" s="1" t="s">
-        <v>613</v>
+      <c r="M244" s="1">
+        <v>0</v>
       </c>
       <c r="N244" s="1"/>
       <c r="O244" s="37"/>
@@ -12957,7 +12947,7 @@
       </c>
       <c r="R244" s="22"/>
       <c r="S244" s="22" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="T244" s="22"/>
       <c r="U244" s="24">
@@ -12987,8 +12977,8 @@
       <c r="J245" s="6"/>
       <c r="K245" s="7"/>
       <c r="L245" s="7"/>
-      <c r="M245" s="1" t="s">
-        <v>613</v>
+      <c r="M245" s="1">
+        <v>0</v>
       </c>
       <c r="N245" s="1"/>
       <c r="O245" s="37">
@@ -12998,7 +12988,7 @@
       <c r="Q245" s="22"/>
       <c r="R245" s="22"/>
       <c r="S245" s="22" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="T245" s="22"/>
       <c r="U245" s="24">
@@ -13028,8 +13018,8 @@
       <c r="J246" s="6"/>
       <c r="K246" s="7"/>
       <c r="L246" s="7"/>
-      <c r="M246" s="1" t="s">
-        <v>613</v>
+      <c r="M246" s="1">
+        <v>0</v>
       </c>
       <c r="N246" s="1"/>
       <c r="O246" s="37"/>
@@ -13069,8 +13059,8 @@
       <c r="J247" s="6"/>
       <c r="K247" s="7"/>
       <c r="L247" s="7"/>
-      <c r="M247" s="1" t="s">
-        <v>613</v>
+      <c r="M247" s="1">
+        <v>0</v>
       </c>
       <c r="N247" s="1"/>
       <c r="O247" s="37"/>
@@ -13110,8 +13100,8 @@
       <c r="J248" s="6"/>
       <c r="K248" s="7"/>
       <c r="L248" s="7"/>
-      <c r="M248" s="1" t="s">
-        <v>613</v>
+      <c r="M248" s="1">
+        <v>0</v>
       </c>
       <c r="N248" s="1"/>
       <c r="O248" s="37"/>
@@ -13151,8 +13141,8 @@
       <c r="J249" s="6"/>
       <c r="K249" s="7"/>
       <c r="L249" s="7"/>
-      <c r="M249" s="1" t="s">
-        <v>613</v>
+      <c r="M249" s="1">
+        <v>0</v>
       </c>
       <c r="N249" s="1"/>
       <c r="O249" s="37"/>
@@ -13162,7 +13152,7 @@
       </c>
       <c r="R249" s="22"/>
       <c r="S249" s="22" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="T249" s="22"/>
       <c r="U249" s="24">
@@ -13192,8 +13182,8 @@
       <c r="J250" s="6"/>
       <c r="K250" s="7"/>
       <c r="L250" s="7"/>
-      <c r="M250" s="1" t="s">
-        <v>613</v>
+      <c r="M250" s="1">
+        <v>0</v>
       </c>
       <c r="N250" s="1"/>
       <c r="O250" s="37"/>
@@ -13218,7 +13208,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -13246,7 +13236,7 @@
       </c>
       <c r="R251" s="22"/>
       <c r="S251" s="22" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="T251" s="22"/>
       <c r="U251" s="24">
@@ -13276,8 +13266,8 @@
         <v>520</v>
       </c>
       <c r="L252" s="7"/>
-      <c r="M252" s="3" t="s">
-        <v>613</v>
+      <c r="M252" s="1">
+        <v>0</v>
       </c>
       <c r="N252" s="1"/>
       <c r="O252" s="37"/>
@@ -13317,8 +13307,8 @@
         <v>650</v>
       </c>
       <c r="L253" s="7"/>
-      <c r="M253" s="1" t="s">
-        <v>613</v>
+      <c r="M253" s="1">
+        <v>0</v>
       </c>
       <c r="N253" s="1"/>
       <c r="O253" s="37"/>
@@ -13328,7 +13318,7 @@
       </c>
       <c r="R253" s="22"/>
       <c r="S253" s="22" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="T253" s="22"/>
       <c r="U253" s="24">
@@ -13358,8 +13348,8 @@
       <c r="J254" s="6"/>
       <c r="K254" s="7"/>
       <c r="L254" s="7"/>
-      <c r="M254" s="1" t="s">
-        <v>613</v>
+      <c r="M254" s="1">
+        <v>0</v>
       </c>
       <c r="N254" s="1"/>
       <c r="O254" s="37"/>
@@ -13440,8 +13430,8 @@
         <v>220</v>
       </c>
       <c r="L256" s="7"/>
-      <c r="M256" s="1" t="s">
-        <v>613</v>
+      <c r="M256" s="1">
+        <v>0</v>
       </c>
       <c r="N256" s="1"/>
       <c r="O256" s="37"/>
@@ -13481,8 +13471,8 @@
       <c r="J257" s="6"/>
       <c r="K257" s="7"/>
       <c r="L257" s="7"/>
-      <c r="M257" s="1" t="s">
-        <v>613</v>
+      <c r="M257" s="1">
+        <v>0</v>
       </c>
       <c r="N257" s="1"/>
     </row>
@@ -13511,8 +13501,8 @@
         <v>0</v>
       </c>
       <c r="L258" s="7"/>
-      <c r="M258" s="1" t="s">
-        <v>613</v>
+      <c r="M258" s="1">
+        <v>0</v>
       </c>
       <c r="N258" s="1"/>
     </row>
@@ -13595,8 +13585,8 @@
       <c r="J261" s="6"/>
       <c r="K261" s="7"/>
       <c r="L261" s="7"/>
-      <c r="M261" s="1" t="s">
-        <v>613</v>
+      <c r="M261" s="1">
+        <v>0</v>
       </c>
       <c r="N261" s="1"/>
     </row>
@@ -13623,8 +13613,8 @@
       <c r="J262" s="6"/>
       <c r="K262" s="7"/>
       <c r="L262" s="7"/>
-      <c r="M262" s="1" t="s">
-        <v>613</v>
+      <c r="M262" s="1">
+        <v>0</v>
       </c>
       <c r="N262" s="1"/>
     </row>
@@ -13651,8 +13641,8 @@
       <c r="J263" s="6"/>
       <c r="K263" s="7"/>
       <c r="L263" s="7"/>
-      <c r="M263" s="1" t="s">
-        <v>613</v>
+      <c r="M263" s="1">
+        <v>0</v>
       </c>
       <c r="N263" s="1"/>
     </row>
@@ -13679,8 +13669,8 @@
       <c r="J264" s="6"/>
       <c r="K264" s="7"/>
       <c r="L264" s="7"/>
-      <c r="M264" s="1" t="s">
-        <v>613</v>
+      <c r="M264" s="1">
+        <v>0</v>
       </c>
       <c r="N264" s="1"/>
     </row>
@@ -13707,8 +13697,8 @@
       <c r="J265" s="6"/>
       <c r="K265" s="7"/>
       <c r="L265" s="7"/>
-      <c r="M265" s="1" t="s">
-        <v>613</v>
+      <c r="M265" s="1">
+        <v>0</v>
       </c>
       <c r="N265" s="1"/>
     </row>
@@ -13763,8 +13753,8 @@
       <c r="J267" s="6"/>
       <c r="K267" s="7"/>
       <c r="L267" s="7"/>
-      <c r="M267" s="1" t="s">
-        <v>613</v>
+      <c r="M267" s="1">
+        <v>0</v>
       </c>
       <c r="N267" s="1"/>
     </row>
@@ -13791,8 +13781,8 @@
       <c r="J268" s="6"/>
       <c r="K268" s="7"/>
       <c r="L268" s="7"/>
-      <c r="M268" s="1" t="s">
-        <v>613</v>
+      <c r="M268" s="1">
+        <v>0</v>
       </c>
       <c r="N268" s="1"/>
     </row>
@@ -13819,8 +13809,8 @@
         <v>200</v>
       </c>
       <c r="L269" s="7"/>
-      <c r="M269" s="1" t="s">
-        <v>613</v>
+      <c r="M269" s="1">
+        <v>0</v>
       </c>
       <c r="N269" s="1"/>
     </row>
@@ -13847,8 +13837,8 @@
       <c r="J270" s="6"/>
       <c r="K270" s="7"/>
       <c r="L270" s="7"/>
-      <c r="M270" s="1" t="s">
-        <v>613</v>
+      <c r="M270" s="1">
+        <v>0</v>
       </c>
       <c r="N270" s="1"/>
     </row>
@@ -13875,8 +13865,8 @@
       <c r="J271" s="6"/>
       <c r="K271" s="7"/>
       <c r="L271" s="7"/>
-      <c r="M271" s="1" t="s">
-        <v>613</v>
+      <c r="M271" s="1">
+        <v>0</v>
       </c>
       <c r="N271" s="1"/>
     </row>
@@ -13903,8 +13893,8 @@
       <c r="J272" s="6"/>
       <c r="K272" s="7"/>
       <c r="L272" s="7"/>
-      <c r="M272" s="1" t="s">
-        <v>613</v>
+      <c r="M272" s="1">
+        <v>0</v>
       </c>
       <c r="N272" s="1"/>
     </row>
@@ -13959,8 +13949,8 @@
       <c r="J274" s="6"/>
       <c r="K274" s="7"/>
       <c r="L274" s="7"/>
-      <c r="M274" s="3" t="s">
-        <v>613</v>
+      <c r="M274" s="1">
+        <v>0</v>
       </c>
       <c r="N274" s="1"/>
     </row>
@@ -13987,8 +13977,8 @@
       <c r="J275" s="6"/>
       <c r="K275" s="7"/>
       <c r="L275" s="7"/>
-      <c r="M275" s="1" t="s">
-        <v>613</v>
+      <c r="M275" s="1">
+        <v>0</v>
       </c>
       <c r="N275" s="1"/>
     </row>
@@ -14015,8 +14005,8 @@
       <c r="J276" s="6"/>
       <c r="K276" s="7"/>
       <c r="L276" s="7"/>
-      <c r="M276" s="1" t="s">
-        <v>613</v>
+      <c r="M276" s="1">
+        <v>0</v>
       </c>
       <c r="N276" s="1"/>
     </row>
@@ -14043,8 +14033,8 @@
       <c r="J277" s="6"/>
       <c r="K277" s="7"/>
       <c r="L277" s="7"/>
-      <c r="M277" s="1" t="s">
-        <v>613</v>
+      <c r="M277" s="1">
+        <v>0</v>
       </c>
       <c r="N277" s="1"/>
     </row>
@@ -14071,8 +14061,8 @@
       <c r="J278" s="6"/>
       <c r="K278" s="7"/>
       <c r="L278" s="7"/>
-      <c r="M278" s="1" t="s">
-        <v>613</v>
+      <c r="M278" s="1">
+        <v>0</v>
       </c>
       <c r="N278" s="1"/>
     </row>
@@ -14099,8 +14089,8 @@
       <c r="J279" s="6"/>
       <c r="K279" s="7"/>
       <c r="L279" s="7"/>
-      <c r="M279" s="1" t="s">
-        <v>613</v>
+      <c r="M279" s="1">
+        <v>0</v>
       </c>
       <c r="N279" s="1"/>
     </row>
@@ -14121,7 +14111,9 @@
       <c r="J280" s="6"/>
       <c r="K280" s="7"/>
       <c r="L280" s="7"/>
-      <c r="M280" s="1"/>
+      <c r="M280" s="1">
+        <v>0</v>
+      </c>
       <c r="N280" s="1"/>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
@@ -14147,8 +14139,8 @@
       <c r="J281" s="6"/>
       <c r="K281" s="7"/>
       <c r="L281" s="7"/>
-      <c r="M281" s="1" t="s">
-        <v>613</v>
+      <c r="M281" s="1">
+        <v>0</v>
       </c>
       <c r="N281" s="1"/>
     </row>
@@ -14175,8 +14167,8 @@
         <v>4270</v>
       </c>
       <c r="L282" s="7"/>
-      <c r="M282" s="1" t="s">
-        <v>613</v>
+      <c r="M282" s="1">
+        <v>0</v>
       </c>
       <c r="N282" s="1"/>
     </row>
@@ -14203,8 +14195,8 @@
         <v>1600</v>
       </c>
       <c r="L283" s="7"/>
-      <c r="M283" s="1" t="s">
-        <v>613</v>
+      <c r="M283" s="1">
+        <v>0</v>
       </c>
       <c r="N283" s="1"/>
     </row>
@@ -14231,8 +14223,8 @@
       <c r="J284" s="6"/>
       <c r="K284" s="7"/>
       <c r="L284" s="7"/>
-      <c r="M284" s="1" t="s">
-        <v>613</v>
+      <c r="M284" s="1">
+        <v>0</v>
       </c>
       <c r="N284" s="1"/>
     </row>
@@ -14259,8 +14251,8 @@
       <c r="J285" s="6"/>
       <c r="K285" s="7"/>
       <c r="L285" s="7"/>
-      <c r="M285" s="1" t="s">
-        <v>613</v>
+      <c r="M285" s="1">
+        <v>0</v>
       </c>
       <c r="N285" s="1"/>
     </row>
@@ -14287,8 +14279,8 @@
       <c r="J286" s="6"/>
       <c r="K286" s="7"/>
       <c r="L286" s="7"/>
-      <c r="M286" s="1" t="s">
-        <v>613</v>
+      <c r="M286" s="1">
+        <v>0</v>
       </c>
       <c r="N286" s="1"/>
     </row>
@@ -14315,8 +14307,8 @@
         <v>300</v>
       </c>
       <c r="L287" s="7"/>
-      <c r="M287" s="1" t="s">
-        <v>613</v>
+      <c r="M287" s="1">
+        <v>0</v>
       </c>
       <c r="N287" s="1"/>
     </row>
@@ -14371,8 +14363,8 @@
       <c r="J289" s="6"/>
       <c r="K289" s="7"/>
       <c r="L289" s="7"/>
-      <c r="M289" s="1" t="s">
-        <v>613</v>
+      <c r="M289" s="1">
+        <v>0</v>
       </c>
       <c r="N289" s="1"/>
     </row>
@@ -14399,8 +14391,8 @@
       <c r="J290" s="6"/>
       <c r="K290" s="7"/>
       <c r="L290" s="7"/>
-      <c r="M290" s="1" t="s">
-        <v>613</v>
+      <c r="M290" s="1">
+        <v>0</v>
       </c>
       <c r="N290" s="1"/>
     </row>
@@ -14427,8 +14419,8 @@
       <c r="J291" s="6"/>
       <c r="K291" s="7"/>
       <c r="L291" s="7"/>
-      <c r="M291" s="1" t="s">
-        <v>613</v>
+      <c r="M291" s="1">
+        <v>0</v>
       </c>
       <c r="N291" s="1"/>
     </row>
@@ -14455,8 +14447,8 @@
       <c r="J292" s="6"/>
       <c r="K292" s="7"/>
       <c r="L292" s="7"/>
-      <c r="M292" s="1" t="s">
-        <v>613</v>
+      <c r="M292" s="1">
+        <v>0</v>
       </c>
       <c r="N292" s="1"/>
     </row>
@@ -14483,8 +14475,8 @@
       <c r="J293" s="6"/>
       <c r="K293" s="7"/>
       <c r="L293" s="7"/>
-      <c r="M293" s="1" t="s">
-        <v>613</v>
+      <c r="M293" s="1">
+        <v>0</v>
       </c>
       <c r="N293" s="1"/>
     </row>
@@ -14511,8 +14503,8 @@
       <c r="J294" s="6"/>
       <c r="K294" s="7"/>
       <c r="L294" s="7"/>
-      <c r="M294" s="1" t="s">
-        <v>613</v>
+      <c r="M294" s="1">
+        <v>0</v>
       </c>
       <c r="N294" s="1"/>
     </row>
@@ -14539,8 +14531,8 @@
       <c r="J295" s="6"/>
       <c r="K295" s="7"/>
       <c r="L295" s="7"/>
-      <c r="M295" s="1" t="s">
-        <v>613</v>
+      <c r="M295" s="1">
+        <v>0</v>
       </c>
       <c r="N295" s="1"/>
     </row>
@@ -14595,8 +14587,8 @@
       <c r="J297" s="6"/>
       <c r="K297" s="7"/>
       <c r="L297" s="7"/>
-      <c r="M297" s="3" t="s">
-        <v>613</v>
+      <c r="M297" s="1">
+        <v>0</v>
       </c>
       <c r="N297" s="1"/>
     </row>
@@ -14623,8 +14615,8 @@
       <c r="J298" s="6"/>
       <c r="K298" s="7"/>
       <c r="L298" s="7"/>
-      <c r="M298" s="1" t="s">
-        <v>613</v>
+      <c r="M298" s="1">
+        <v>0</v>
       </c>
       <c r="N298" s="1"/>
     </row>
@@ -14649,8 +14641,8 @@
       <c r="J299" s="6"/>
       <c r="K299" s="7"/>
       <c r="L299" s="7"/>
-      <c r="M299" s="1" t="s">
-        <v>613</v>
+      <c r="M299" s="1">
+        <v>0</v>
       </c>
       <c r="N299" s="1"/>
     </row>
@@ -14677,8 +14669,8 @@
       <c r="J300" s="6"/>
       <c r="K300" s="7"/>
       <c r="L300" s="7"/>
-      <c r="M300" s="1" t="s">
-        <v>613</v>
+      <c r="M300" s="1">
+        <v>0</v>
       </c>
       <c r="N300" s="1"/>
     </row>
@@ -14705,8 +14697,8 @@
         <v>1150</v>
       </c>
       <c r="L301" s="7"/>
-      <c r="M301" s="1" t="s">
-        <v>613</v>
+      <c r="M301" s="1">
+        <v>0</v>
       </c>
       <c r="N301" s="1"/>
     </row>
@@ -14733,8 +14725,8 @@
         <v>177</v>
       </c>
       <c r="L302" s="7"/>
-      <c r="M302" s="1" t="s">
-        <v>613</v>
+      <c r="M302" s="1">
+        <v>0</v>
       </c>
       <c r="N302" s="1"/>
     </row>
@@ -14761,8 +14753,8 @@
       <c r="J303" s="6"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
-      <c r="M303" s="1" t="s">
-        <v>613</v>
+      <c r="M303" s="1">
+        <v>0</v>
       </c>
       <c r="N303" s="1"/>
     </row>
@@ -14789,8 +14781,8 @@
       <c r="J304" s="6"/>
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
-      <c r="M304" s="1" t="s">
-        <v>613</v>
+      <c r="M304" s="1">
+        <v>0</v>
       </c>
       <c r="N304" s="1"/>
     </row>
@@ -14817,8 +14809,8 @@
       <c r="J305" s="6"/>
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
-      <c r="M305" s="1" t="s">
-        <v>613</v>
+      <c r="M305" s="1">
+        <v>0</v>
       </c>
       <c r="N305" s="1"/>
     </row>
@@ -14845,8 +14837,8 @@
       <c r="J306" s="6"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
-      <c r="M306" s="1" t="s">
-        <v>613</v>
+      <c r="M306" s="1">
+        <v>0</v>
       </c>
       <c r="N306" s="1"/>
     </row>
@@ -14901,8 +14893,8 @@
       <c r="J308" s="6"/>
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
-      <c r="M308" s="3" t="s">
-        <v>613</v>
+      <c r="M308" s="1">
+        <v>0</v>
       </c>
       <c r="N308" s="1"/>
     </row>
@@ -14929,8 +14921,8 @@
       <c r="J309" s="6"/>
       <c r="K309" s="7"/>
       <c r="L309" s="7"/>
-      <c r="M309" s="1" t="s">
-        <v>613</v>
+      <c r="M309" s="1">
+        <v>0</v>
       </c>
       <c r="N309" s="1"/>
     </row>
@@ -14957,8 +14949,8 @@
       <c r="J310" s="6"/>
       <c r="K310" s="7"/>
       <c r="L310" s="7"/>
-      <c r="M310" s="1" t="s">
-        <v>613</v>
+      <c r="M310" s="1">
+        <v>0</v>
       </c>
       <c r="N310" s="1"/>
     </row>
@@ -14985,8 +14977,8 @@
       <c r="J311" s="6"/>
       <c r="K311" s="7"/>
       <c r="L311" s="7"/>
-      <c r="M311" s="1" t="s">
-        <v>613</v>
+      <c r="M311" s="1">
+        <v>0</v>
       </c>
       <c r="N311" s="1"/>
     </row>
@@ -15013,8 +15005,8 @@
       <c r="J312" s="6"/>
       <c r="K312" s="7"/>
       <c r="L312" s="7"/>
-      <c r="M312" s="1" t="s">
-        <v>613</v>
+      <c r="M312" s="1">
+        <v>0</v>
       </c>
       <c r="N312" s="1"/>
     </row>
@@ -15041,8 +15033,8 @@
         <v>1224</v>
       </c>
       <c r="L313" s="7"/>
-      <c r="M313" s="1" t="s">
-        <v>613</v>
+      <c r="M313" s="1">
+        <v>0</v>
       </c>
       <c r="N313" s="1"/>
     </row>
@@ -15067,8 +15059,8 @@
       <c r="J314" s="6"/>
       <c r="K314" s="7"/>
       <c r="L314" s="7"/>
-      <c r="M314" s="1" t="s">
-        <v>613</v>
+      <c r="M314" s="1">
+        <v>0</v>
       </c>
       <c r="N314" s="1"/>
     </row>
@@ -15095,8 +15087,8 @@
       <c r="J315" s="6"/>
       <c r="K315" s="7"/>
       <c r="L315" s="7"/>
-      <c r="M315" s="1" t="s">
-        <v>613</v>
+      <c r="M315" s="1">
+        <v>0</v>
       </c>
       <c r="N315" s="1"/>
     </row>
@@ -15151,8 +15143,8 @@
       <c r="J317" s="6"/>
       <c r="K317" s="7"/>
       <c r="L317" s="7"/>
-      <c r="M317" s="1" t="s">
-        <v>613</v>
+      <c r="M317" s="1">
+        <v>0</v>
       </c>
       <c r="N317" s="1"/>
     </row>
@@ -15179,8 +15171,8 @@
       <c r="J318" s="6"/>
       <c r="K318" s="7"/>
       <c r="L318" s="7"/>
-      <c r="M318" s="1" t="s">
-        <v>613</v>
+      <c r="M318" s="1">
+        <v>0</v>
       </c>
       <c r="N318" s="1"/>
     </row>
@@ -15207,8 +15199,8 @@
       <c r="J319" s="6"/>
       <c r="K319" s="7"/>
       <c r="L319" s="7"/>
-      <c r="M319" s="1" t="s">
-        <v>613</v>
+      <c r="M319" s="1">
+        <v>0</v>
       </c>
       <c r="N319" s="1"/>
     </row>
@@ -15263,8 +15255,8 @@
         <v>450</v>
       </c>
       <c r="L321" s="7"/>
-      <c r="M321" s="3" t="s">
-        <v>613</v>
+      <c r="M321" s="3">
+        <v>0</v>
       </c>
       <c r="N321" s="1"/>
     </row>
@@ -15291,8 +15283,8 @@
       <c r="J322" s="6"/>
       <c r="K322" s="7"/>
       <c r="L322" s="7"/>
-      <c r="M322" s="1" t="s">
-        <v>613</v>
+      <c r="M322" s="1">
+        <v>0</v>
       </c>
       <c r="N322" s="1"/>
     </row>
@@ -15347,8 +15339,8 @@
         <v>1300</v>
       </c>
       <c r="L324" s="7"/>
-      <c r="M324" s="1" t="s">
-        <v>613</v>
+      <c r="M324" s="1">
+        <v>0</v>
       </c>
       <c r="N324" s="1"/>
     </row>
@@ -15375,8 +15367,8 @@
       <c r="J325" s="6"/>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
-      <c r="M325" s="1" t="s">
-        <v>613</v>
+      <c r="M325" s="1">
+        <v>0</v>
       </c>
       <c r="N325" s="1"/>
     </row>
@@ -15403,8 +15395,8 @@
       <c r="J326" s="6"/>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
-      <c r="M326" s="1" t="s">
-        <v>613</v>
+      <c r="M326" s="1">
+        <v>0</v>
       </c>
       <c r="N326" s="1"/>
     </row>
@@ -15431,8 +15423,8 @@
         <v>100</v>
       </c>
       <c r="L327" s="7"/>
-      <c r="M327" s="1" t="s">
-        <v>613</v>
+      <c r="M327" s="1">
+        <v>0</v>
       </c>
       <c r="N327" s="1"/>
     </row>
@@ -15461,8 +15453,8 @@
         <v>300</v>
       </c>
       <c r="L328" s="7"/>
-      <c r="M328" s="1" t="s">
-        <v>613</v>
+      <c r="M328" s="1">
+        <v>0</v>
       </c>
       <c r="N328" s="1"/>
     </row>
@@ -15489,8 +15481,8 @@
         <v>1300</v>
       </c>
       <c r="L329" s="7"/>
-      <c r="M329" s="1" t="s">
-        <v>613</v>
+      <c r="M329" s="1">
+        <v>0</v>
       </c>
       <c r="N329" s="1"/>
     </row>
@@ -15517,8 +15509,8 @@
         <v>2000</v>
       </c>
       <c r="L330" s="7"/>
-      <c r="M330" s="1" t="s">
-        <v>613</v>
+      <c r="M330" s="1">
+        <v>0</v>
       </c>
       <c r="N330" s="1"/>
     </row>
@@ -15545,8 +15537,8 @@
       <c r="J331" s="6"/>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
-      <c r="M331" s="1" t="s">
-        <v>613</v>
+      <c r="M331" s="1">
+        <v>0</v>
       </c>
       <c r="N331" s="1"/>
     </row>
@@ -15573,8 +15565,8 @@
       <c r="J332" s="6"/>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
-      <c r="M332" s="1" t="s">
-        <v>613</v>
+      <c r="M332" s="1">
+        <v>0</v>
       </c>
       <c r="N332" s="1"/>
     </row>
@@ -15601,8 +15593,8 @@
       <c r="J333" s="6"/>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
-      <c r="M333" s="1" t="s">
-        <v>613</v>
+      <c r="M333" s="1">
+        <v>0</v>
       </c>
       <c r="N333" s="1"/>
     </row>
@@ -15629,8 +15621,8 @@
       <c r="J334" s="6"/>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
-      <c r="M334" s="1" t="s">
-        <v>613</v>
+      <c r="M334" s="1">
+        <v>0</v>
       </c>
       <c r="N334" s="1"/>
     </row>
@@ -15657,8 +15649,8 @@
       <c r="J335" s="6"/>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
-      <c r="M335" s="1" t="s">
-        <v>613</v>
+      <c r="M335" s="1">
+        <v>0</v>
       </c>
       <c r="N335" s="1"/>
     </row>
@@ -15685,8 +15677,8 @@
         <v>1500</v>
       </c>
       <c r="L336" s="7"/>
-      <c r="M336" s="1" t="s">
-        <v>613</v>
+      <c r="M336" s="1">
+        <v>0</v>
       </c>
       <c r="N336" s="1"/>
     </row>
@@ -15713,8 +15705,8 @@
       <c r="J337" s="6"/>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
-      <c r="M337" s="1" t="s">
-        <v>613</v>
+      <c r="M337" s="1">
+        <v>0</v>
       </c>
       <c r="N337" s="1"/>
     </row>
@@ -15741,8 +15733,8 @@
       <c r="J338" s="6"/>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
-      <c r="M338" s="1" t="s">
-        <v>613</v>
+      <c r="M338" s="1">
+        <v>0</v>
       </c>
       <c r="N338" s="1"/>
     </row>
@@ -15769,8 +15761,8 @@
       <c r="J339" s="6"/>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
-      <c r="M339" s="1" t="s">
-        <v>613</v>
+      <c r="M339" s="1">
+        <v>0</v>
       </c>
       <c r="N339" s="1"/>
     </row>
@@ -15797,8 +15789,8 @@
       <c r="J340" s="6"/>
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
-      <c r="M340" s="1" t="s">
-        <v>613</v>
+      <c r="M340" s="1">
+        <v>0</v>
       </c>
       <c r="N340" s="1"/>
     </row>
@@ -15825,8 +15817,8 @@
       <c r="J341" s="6"/>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
-      <c r="M341" s="1" t="s">
-        <v>613</v>
+      <c r="M341" s="1">
+        <v>0</v>
       </c>
       <c r="N341" s="1"/>
     </row>
@@ -15853,8 +15845,8 @@
       <c r="J342" s="6"/>
       <c r="K342" s="7"/>
       <c r="L342" s="7"/>
-      <c r="M342" s="1" t="s">
-        <v>613</v>
+      <c r="M342" s="1">
+        <v>0</v>
       </c>
       <c r="N342" s="1"/>
     </row>
@@ -15881,8 +15873,8 @@
       <c r="J343" s="6"/>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
-      <c r="M343" s="1" t="s">
-        <v>613</v>
+      <c r="M343" s="1">
+        <v>0</v>
       </c>
       <c r="N343" s="1"/>
     </row>
@@ -15937,8 +15929,8 @@
       <c r="J345" s="6"/>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
-      <c r="M345" s="3" t="s">
-        <v>613</v>
+      <c r="M345" s="1">
+        <v>0</v>
       </c>
       <c r="N345" s="1"/>
     </row>
@@ -15965,8 +15957,8 @@
       <c r="J346" s="6"/>
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
-      <c r="M346" s="1" t="s">
-        <v>613</v>
+      <c r="M346" s="1">
+        <v>0</v>
       </c>
       <c r="N346" s="1"/>
     </row>
@@ -15993,8 +15985,8 @@
       <c r="J347" s="6"/>
       <c r="K347" s="7"/>
       <c r="L347" s="7"/>
-      <c r="M347" s="1" t="s">
-        <v>613</v>
+      <c r="M347" s="1">
+        <v>0</v>
       </c>
       <c r="N347" s="1"/>
     </row>
@@ -16021,8 +16013,8 @@
       <c r="J348" s="6"/>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
-      <c r="M348" s="1" t="s">
-        <v>613</v>
+      <c r="M348" s="1">
+        <v>0</v>
       </c>
       <c r="N348" s="1"/>
     </row>
@@ -16049,8 +16041,8 @@
         <v>1700</v>
       </c>
       <c r="L349" s="7"/>
-      <c r="M349" s="1" t="s">
-        <v>613</v>
+      <c r="M349" s="1">
+        <v>0</v>
       </c>
       <c r="N349" s="1"/>
     </row>
@@ -16105,8 +16097,8 @@
       <c r="J351" s="6"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
-      <c r="M351" s="3" t="s">
-        <v>613</v>
+      <c r="M351" s="1">
+        <v>0</v>
       </c>
       <c r="N351" s="1"/>
     </row>
@@ -16161,8 +16153,8 @@
       <c r="J353" s="6"/>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
-      <c r="M353" s="3" t="s">
-        <v>613</v>
+      <c r="M353" s="1">
+        <v>0</v>
       </c>
       <c r="N353" s="1"/>
     </row>
@@ -16189,8 +16181,8 @@
       <c r="J354" s="6"/>
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
-      <c r="M354" s="1" t="s">
-        <v>613</v>
+      <c r="M354" s="1">
+        <v>0</v>
       </c>
       <c r="N354" s="1"/>
     </row>
@@ -16217,8 +16209,8 @@
         <v>2800</v>
       </c>
       <c r="L355" s="7"/>
-      <c r="M355" s="1" t="s">
-        <v>613</v>
+      <c r="M355" s="1">
+        <v>0</v>
       </c>
       <c r="N355" s="1"/>
     </row>
@@ -16245,8 +16237,8 @@
       <c r="J356" s="6"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
-      <c r="M356" s="1" t="s">
-        <v>613</v>
+      <c r="M356" s="1">
+        <v>0</v>
       </c>
       <c r="N356" s="1"/>
     </row>
@@ -16273,8 +16265,8 @@
       <c r="J357" s="6"/>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
-      <c r="M357" s="1" t="s">
-        <v>613</v>
+      <c r="M357" s="1">
+        <v>0</v>
       </c>
       <c r="N357" s="1"/>
     </row>
@@ -16301,8 +16293,8 @@
       <c r="J358" s="6"/>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
-      <c r="M358" s="1" t="s">
-        <v>613</v>
+      <c r="M358" s="1">
+        <v>0</v>
       </c>
       <c r="N358" s="1"/>
     </row>
@@ -16329,8 +16321,8 @@
       <c r="J359" s="6"/>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
-      <c r="M359" s="1" t="s">
-        <v>613</v>
+      <c r="M359" s="1">
+        <v>0</v>
       </c>
       <c r="N359" s="1"/>
     </row>
@@ -16357,8 +16349,8 @@
       <c r="J360" s="6"/>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
-      <c r="M360" s="1" t="s">
-        <v>613</v>
+      <c r="M360" s="1">
+        <v>0</v>
       </c>
       <c r="N360" s="1"/>
     </row>
@@ -16385,8 +16377,8 @@
         <v>150</v>
       </c>
       <c r="L361" s="7"/>
-      <c r="M361" s="1" t="s">
-        <v>613</v>
+      <c r="M361" s="1">
+        <v>0</v>
       </c>
       <c r="N361" s="1"/>
     </row>
@@ -16413,8 +16405,8 @@
         <v>2055</v>
       </c>
       <c r="L362" s="7"/>
-      <c r="M362" s="1" t="s">
-        <v>613</v>
+      <c r="M362" s="1">
+        <v>0</v>
       </c>
       <c r="N362" s="1"/>
     </row>
@@ -16441,8 +16433,8 @@
       <c r="J363" s="6"/>
       <c r="K363" s="7"/>
       <c r="L363" s="7"/>
-      <c r="M363" s="1" t="s">
-        <v>613</v>
+      <c r="M363" s="1">
+        <v>0</v>
       </c>
       <c r="N363" s="1"/>
     </row>
@@ -16469,8 +16461,8 @@
       <c r="J364" s="6"/>
       <c r="K364" s="7"/>
       <c r="L364" s="7"/>
-      <c r="M364" s="1" t="s">
-        <v>613</v>
+      <c r="M364" s="1">
+        <v>0</v>
       </c>
       <c r="N364" s="1"/>
     </row>
@@ -16497,8 +16489,8 @@
         <v>270</v>
       </c>
       <c r="L365" s="7"/>
-      <c r="M365" s="1" t="s">
-        <v>613</v>
+      <c r="M365" s="1">
+        <v>0</v>
       </c>
       <c r="N365" s="1"/>
     </row>
@@ -16553,8 +16545,8 @@
       <c r="J367" s="6"/>
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
-      <c r="M367" s="1" t="s">
-        <v>613</v>
+      <c r="M367" s="1">
+        <v>0</v>
       </c>
       <c r="N367" s="1"/>
     </row>
@@ -16609,8 +16601,8 @@
       <c r="J369" s="6"/>
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
-      <c r="M369" s="3" t="s">
-        <v>613</v>
+      <c r="M369" s="1">
+        <v>0</v>
       </c>
       <c r="N369" s="1"/>
     </row>
@@ -16637,8 +16629,8 @@
       <c r="J370" s="6"/>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
-      <c r="M370" s="1" t="s">
-        <v>613</v>
+      <c r="M370" s="1">
+        <v>0</v>
       </c>
       <c r="N370" s="1"/>
     </row>
@@ -16665,8 +16657,8 @@
       <c r="J371" s="6"/>
       <c r="K371" s="7"/>
       <c r="L371" s="7"/>
-      <c r="M371" s="1" t="s">
-        <v>613</v>
+      <c r="M371" s="1">
+        <v>0</v>
       </c>
       <c r="N371" s="1"/>
     </row>
@@ -16721,8 +16713,8 @@
       <c r="J373" s="6"/>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
-      <c r="M373" s="3" t="s">
-        <v>613</v>
+      <c r="M373" s="1">
+        <v>0</v>
       </c>
       <c r="N373" s="1"/>
     </row>
@@ -16777,8 +16769,8 @@
         <v>1600</v>
       </c>
       <c r="L375" s="7"/>
-      <c r="M375" s="3" t="s">
-        <v>613</v>
+      <c r="M375" s="1">
+        <v>0</v>
       </c>
       <c r="N375" s="1"/>
     </row>
@@ -16805,8 +16797,8 @@
       <c r="J376" s="6"/>
       <c r="K376" s="7"/>
       <c r="L376" s="7"/>
-      <c r="M376" s="1" t="s">
-        <v>613</v>
+      <c r="M376" s="1">
+        <v>0</v>
       </c>
       <c r="N376" s="1"/>
     </row>
@@ -16861,8 +16853,8 @@
       <c r="J378" s="6"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
-      <c r="M378" s="3" t="s">
-        <v>613</v>
+      <c r="M378" s="1">
+        <v>0</v>
       </c>
       <c r="N378" s="1"/>
     </row>
@@ -16889,8 +16881,8 @@
       <c r="J379" s="6"/>
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
-      <c r="M379" s="1" t="s">
-        <v>613</v>
+      <c r="M379" s="1">
+        <v>0</v>
       </c>
       <c r="N379" s="1"/>
     </row>
@@ -16918,7 +16910,7 @@
       </c>
       <c r="L380" s="7"/>
       <c r="M380" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N380" s="1"/>
     </row>
@@ -16945,8 +16937,8 @@
       <c r="J381" s="6"/>
       <c r="K381" s="7"/>
       <c r="L381" s="7"/>
-      <c r="M381" s="1" t="s">
-        <v>613</v>
+      <c r="M381" s="1">
+        <v>0</v>
       </c>
       <c r="N381" s="1"/>
     </row>
@@ -16973,8 +16965,8 @@
       <c r="J382" s="6"/>
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
-      <c r="M382" s="1" t="s">
-        <v>613</v>
+      <c r="M382" s="1">
+        <v>0</v>
       </c>
       <c r="N382" s="1"/>
     </row>
@@ -17001,8 +16993,8 @@
       <c r="J383" s="6"/>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
-      <c r="M383" s="1" t="s">
-        <v>613</v>
+      <c r="M383" s="1">
+        <v>0</v>
       </c>
       <c r="N383" s="1"/>
     </row>
@@ -17029,8 +17021,8 @@
       <c r="J384" s="6"/>
       <c r="K384" s="7"/>
       <c r="L384" s="7"/>
-      <c r="M384" s="1" t="s">
-        <v>613</v>
+      <c r="M384" s="1">
+        <v>0</v>
       </c>
       <c r="N384" s="1"/>
     </row>
@@ -17057,8 +17049,8 @@
       <c r="J385" s="6"/>
       <c r="K385" s="7"/>
       <c r="L385" s="7"/>
-      <c r="M385" s="1" t="s">
-        <v>613</v>
+      <c r="M385" s="1">
+        <v>0</v>
       </c>
       <c r="N385" s="1"/>
     </row>
@@ -17085,8 +17077,8 @@
         <v>2300</v>
       </c>
       <c r="L386" s="7"/>
-      <c r="M386" s="1" t="s">
-        <v>613</v>
+      <c r="M386" s="1">
+        <v>0</v>
       </c>
       <c r="N386" s="1"/>
     </row>
@@ -17169,8 +17161,8 @@
         <v>550</v>
       </c>
       <c r="L389" s="7"/>
-      <c r="M389" s="3" t="s">
-        <v>613</v>
+      <c r="M389" s="1">
+        <v>0</v>
       </c>
       <c r="N389" s="1"/>
     </row>
@@ -17197,8 +17189,8 @@
       <c r="J390" s="6"/>
       <c r="K390" s="7"/>
       <c r="L390" s="7"/>
-      <c r="M390" s="1" t="s">
-        <v>613</v>
+      <c r="M390" s="1">
+        <v>0</v>
       </c>
       <c r="N390" s="1"/>
     </row>
@@ -17225,8 +17217,8 @@
         <v>200</v>
       </c>
       <c r="L391" s="7"/>
-      <c r="M391" s="1" t="s">
-        <v>613</v>
+      <c r="M391" s="1">
+        <v>0</v>
       </c>
       <c r="N391" s="1"/>
     </row>
@@ -17253,8 +17245,8 @@
       <c r="J392" s="6"/>
       <c r="K392" s="7"/>
       <c r="L392" s="7"/>
-      <c r="M392" s="1" t="s">
-        <v>613</v>
+      <c r="M392" s="1">
+        <v>0</v>
       </c>
       <c r="N392" s="1"/>
     </row>
@@ -17281,8 +17273,8 @@
       <c r="J393" s="6"/>
       <c r="K393" s="7"/>
       <c r="L393" s="7"/>
-      <c r="M393" s="1" t="s">
-        <v>613</v>
+      <c r="M393" s="1">
+        <v>0</v>
       </c>
       <c r="N393" s="1"/>
     </row>
@@ -17309,8 +17301,8 @@
         <v>250</v>
       </c>
       <c r="L394" s="7"/>
-      <c r="M394" s="1" t="s">
-        <v>613</v>
+      <c r="M394" s="1">
+        <v>0</v>
       </c>
       <c r="N394" s="1"/>
     </row>
@@ -17337,8 +17329,8 @@
       <c r="J395" s="6"/>
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
-      <c r="M395" s="1" t="s">
-        <v>613</v>
+      <c r="M395" s="1">
+        <v>0</v>
       </c>
       <c r="N395" s="1"/>
     </row>
@@ -17365,8 +17357,8 @@
       <c r="J396" s="6"/>
       <c r="K396" s="7"/>
       <c r="L396" s="7"/>
-      <c r="M396" s="1" t="s">
-        <v>613</v>
+      <c r="M396" s="1">
+        <v>0</v>
       </c>
       <c r="N396" s="1"/>
     </row>
@@ -17393,8 +17385,8 @@
       <c r="J397" s="6"/>
       <c r="K397" s="7"/>
       <c r="L397" s="7"/>
-      <c r="M397" s="1" t="s">
-        <v>613</v>
+      <c r="M397" s="1">
+        <v>0</v>
       </c>
       <c r="N397" s="1"/>
     </row>
@@ -17421,8 +17413,8 @@
         <v>4700</v>
       </c>
       <c r="L398" s="7"/>
-      <c r="M398" s="1" t="s">
-        <v>613</v>
+      <c r="M398" s="1">
+        <v>0</v>
       </c>
       <c r="N398" s="1"/>
     </row>
@@ -17449,8 +17441,8 @@
         <v>500</v>
       </c>
       <c r="L399" s="7"/>
-      <c r="M399" s="1" t="s">
-        <v>613</v>
+      <c r="M399" s="1">
+        <v>0</v>
       </c>
       <c r="N399" s="1"/>
     </row>
@@ -17477,8 +17469,8 @@
         <v>100</v>
       </c>
       <c r="L400" s="7"/>
-      <c r="M400" s="1" t="s">
-        <v>613</v>
+      <c r="M400" s="1">
+        <v>0</v>
       </c>
       <c r="N400" s="1"/>
     </row>
@@ -17505,8 +17497,8 @@
         <v>300</v>
       </c>
       <c r="L401" s="7"/>
-      <c r="M401" s="1" t="s">
-        <v>613</v>
+      <c r="M401" s="1">
+        <v>0</v>
       </c>
       <c r="N401" s="1"/>
     </row>
@@ -17518,7 +17510,7 @@
         <v>401</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -17533,8 +17525,8 @@
         <v>650</v>
       </c>
       <c r="L402" s="7"/>
-      <c r="M402" s="1" t="s">
-        <v>613</v>
+      <c r="M402" s="1">
+        <v>0</v>
       </c>
       <c r="N402" s="1"/>
     </row>
@@ -17559,8 +17551,8 @@
         <v>188</v>
       </c>
       <c r="L403" s="7"/>
-      <c r="M403" s="1" t="s">
-        <v>613</v>
+      <c r="M403" s="1">
+        <v>0</v>
       </c>
       <c r="N403" s="1"/>
     </row>
@@ -17587,8 +17579,8 @@
       <c r="J404" s="6"/>
       <c r="K404" s="7"/>
       <c r="L404" s="7"/>
-      <c r="M404" s="1" t="s">
-        <v>613</v>
+      <c r="M404" s="1">
+        <v>0</v>
       </c>
       <c r="N404" s="1"/>
     </row>
@@ -17615,8 +17607,8 @@
         <v>276</v>
       </c>
       <c r="L405" s="7"/>
-      <c r="M405" s="1" t="s">
-        <v>613</v>
+      <c r="M405" s="1">
+        <v>0</v>
       </c>
       <c r="N405" s="1"/>
     </row>
@@ -17643,8 +17635,8 @@
         <v>5200</v>
       </c>
       <c r="L406" s="7"/>
-      <c r="M406" s="1" t="s">
-        <v>613</v>
+      <c r="M406" s="1">
+        <v>0</v>
       </c>
       <c r="N406" s="1"/>
     </row>
@@ -17671,8 +17663,8 @@
       <c r="J407" s="6"/>
       <c r="K407" s="7"/>
       <c r="L407" s="7"/>
-      <c r="M407" s="1" t="s">
-        <v>613</v>
+      <c r="M407" s="1">
+        <v>0</v>
       </c>
       <c r="N407" s="1"/>
     </row>
@@ -17727,8 +17719,8 @@
       <c r="J409" s="6"/>
       <c r="K409" s="7"/>
       <c r="L409" s="7"/>
-      <c r="M409" s="1" t="s">
-        <v>613</v>
+      <c r="M409" s="1">
+        <v>0</v>
       </c>
       <c r="N409" s="1"/>
     </row>
@@ -17755,8 +17747,8 @@
         <v>200</v>
       </c>
       <c r="L410" s="7"/>
-      <c r="M410" s="1" t="s">
-        <v>613</v>
+      <c r="M410" s="1">
+        <v>0</v>
       </c>
       <c r="N410" s="1"/>
     </row>
@@ -17783,8 +17775,8 @@
       <c r="J411" s="6"/>
       <c r="K411" s="7"/>
       <c r="L411" s="7"/>
-      <c r="M411" s="1" t="s">
-        <v>613</v>
+      <c r="M411" s="1">
+        <v>0</v>
       </c>
       <c r="N411" s="1"/>
     </row>
@@ -17839,8 +17831,8 @@
       <c r="J413" s="6"/>
       <c r="K413" s="7"/>
       <c r="L413" s="7"/>
-      <c r="M413" s="1" t="s">
-        <v>613</v>
+      <c r="M413" s="1">
+        <v>0</v>
       </c>
       <c r="N413" s="1"/>
     </row>
@@ -17867,8 +17859,8 @@
         <v>600</v>
       </c>
       <c r="L414" s="7"/>
-      <c r="M414" s="1" t="s">
-        <v>613</v>
+      <c r="M414" s="1">
+        <v>0</v>
       </c>
       <c r="N414" s="1"/>
     </row>
@@ -17923,8 +17915,8 @@
         <v>120</v>
       </c>
       <c r="L416" s="7"/>
-      <c r="M416" s="3" t="s">
-        <v>613</v>
+      <c r="M416" s="1">
+        <v>0</v>
       </c>
       <c r="N416" s="1"/>
     </row>
@@ -17949,8 +17941,8 @@
       <c r="J417" s="6"/>
       <c r="K417" s="7"/>
       <c r="L417" s="7"/>
-      <c r="M417" s="1" t="s">
-        <v>613</v>
+      <c r="M417" s="1">
+        <v>0</v>
       </c>
       <c r="N417" s="1"/>
     </row>
@@ -17975,8 +17967,8 @@
       <c r="J418" s="6"/>
       <c r="K418" s="7"/>
       <c r="L418" s="7"/>
-      <c r="M418" s="1" t="s">
-        <v>613</v>
+      <c r="M418" s="1">
+        <v>0</v>
       </c>
       <c r="N418" s="1"/>
     </row>
@@ -18003,8 +17995,8 @@
       <c r="J419" s="6"/>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
-      <c r="M419" s="1" t="s">
-        <v>613</v>
+      <c r="M419" s="1">
+        <v>0</v>
       </c>
       <c r="N419" s="1"/>
     </row>
@@ -18031,8 +18023,8 @@
       <c r="J420" s="6"/>
       <c r="K420" s="7"/>
       <c r="L420" s="7"/>
-      <c r="M420" s="1" t="s">
-        <v>613</v>
+      <c r="M420" s="1">
+        <v>0</v>
       </c>
       <c r="N420" s="1"/>
     </row>
@@ -18059,8 +18051,8 @@
         <v>100</v>
       </c>
       <c r="L421" s="7"/>
-      <c r="M421" s="1" t="s">
-        <v>613</v>
+      <c r="M421" s="1">
+        <v>0</v>
       </c>
       <c r="N421" s="1"/>
     </row>
@@ -18087,8 +18079,8 @@
       <c r="J422" s="6"/>
       <c r="K422" s="7"/>
       <c r="L422" s="7"/>
-      <c r="M422" s="1" t="s">
-        <v>613</v>
+      <c r="M422" s="1">
+        <v>0</v>
       </c>
       <c r="N422" s="1"/>
     </row>
@@ -18100,7 +18092,7 @@
         <v>422</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -18199,8 +18191,8 @@
       <c r="J426" s="6"/>
       <c r="K426" s="7"/>
       <c r="L426" s="7"/>
-      <c r="M426" s="3" t="s">
-        <v>613</v>
+      <c r="M426" s="1">
+        <v>0</v>
       </c>
       <c r="N426" s="1"/>
     </row>
@@ -18227,8 +18219,8 @@
       <c r="J427" s="6"/>
       <c r="K427" s="7"/>
       <c r="L427" s="7"/>
-      <c r="M427" s="1" t="s">
-        <v>613</v>
+      <c r="M427" s="1">
+        <v>0</v>
       </c>
       <c r="N427" s="1"/>
     </row>
@@ -18255,8 +18247,8 @@
       <c r="J428" s="6"/>
       <c r="K428" s="7"/>
       <c r="L428" s="7"/>
-      <c r="M428" s="1" t="s">
-        <v>613</v>
+      <c r="M428" s="1">
+        <v>0</v>
       </c>
       <c r="N428" s="1"/>
     </row>
@@ -18283,8 +18275,8 @@
       <c r="J429" s="6"/>
       <c r="K429" s="7"/>
       <c r="L429" s="7"/>
-      <c r="M429" s="1" t="s">
-        <v>613</v>
+      <c r="M429" s="1">
+        <v>0</v>
       </c>
       <c r="N429" s="1"/>
     </row>
@@ -18311,8 +18303,8 @@
         <v>2550</v>
       </c>
       <c r="L430" s="7"/>
-      <c r="M430" s="1" t="s">
-        <v>613</v>
+      <c r="M430" s="1">
+        <v>0</v>
       </c>
       <c r="N430" s="1"/>
     </row>
@@ -18367,8 +18359,8 @@
       <c r="J432" s="6"/>
       <c r="K432" s="7"/>
       <c r="L432" s="7"/>
-      <c r="M432" s="3" t="s">
-        <v>613</v>
+      <c r="M432" s="1">
+        <v>0</v>
       </c>
       <c r="N432" s="1"/>
     </row>
@@ -18395,8 +18387,8 @@
       <c r="J433" s="6"/>
       <c r="K433" s="7"/>
       <c r="L433" s="7"/>
-      <c r="M433" s="1" t="s">
-        <v>613</v>
+      <c r="M433" s="1">
+        <v>0</v>
       </c>
       <c r="N433" s="1"/>
     </row>
@@ -18423,8 +18415,8 @@
       <c r="J434" s="6"/>
       <c r="K434" s="7"/>
       <c r="L434" s="7"/>
-      <c r="M434" s="1" t="s">
-        <v>613</v>
+      <c r="M434" s="1">
+        <v>0</v>
       </c>
       <c r="N434" s="1"/>
     </row>
@@ -18451,8 +18443,8 @@
       <c r="J435" s="6"/>
       <c r="K435" s="7"/>
       <c r="L435" s="7"/>
-      <c r="M435" s="1" t="s">
-        <v>613</v>
+      <c r="M435" s="1">
+        <v>0</v>
       </c>
       <c r="N435" s="1"/>
     </row>
@@ -18479,8 +18471,8 @@
       <c r="J436" s="6"/>
       <c r="K436" s="7"/>
       <c r="L436" s="7"/>
-      <c r="M436" s="1" t="s">
-        <v>613</v>
+      <c r="M436" s="1">
+        <v>0</v>
       </c>
       <c r="N436" s="1"/>
     </row>
@@ -18507,8 +18499,8 @@
       <c r="J437" s="6"/>
       <c r="K437" s="7"/>
       <c r="L437" s="7"/>
-      <c r="M437" s="1" t="s">
-        <v>613</v>
+      <c r="M437" s="1">
+        <v>0</v>
       </c>
       <c r="N437" s="1"/>
     </row>
@@ -18535,8 +18527,8 @@
       <c r="J438" s="6"/>
       <c r="K438" s="7"/>
       <c r="L438" s="7"/>
-      <c r="M438" s="1" t="s">
-        <v>613</v>
+      <c r="M438" s="1">
+        <v>0</v>
       </c>
       <c r="N438" s="1"/>
     </row>
@@ -18563,8 +18555,8 @@
       <c r="J439" s="6"/>
       <c r="K439" s="7"/>
       <c r="L439" s="7"/>
-      <c r="M439" s="3" t="s">
-        <v>613</v>
+      <c r="M439" s="1">
+        <v>0</v>
       </c>
       <c r="N439" s="1"/>
     </row>
@@ -18647,8 +18639,8 @@
       <c r="J442" s="6"/>
       <c r="K442" s="7"/>
       <c r="L442" s="7"/>
-      <c r="M442" s="3" t="s">
-        <v>613</v>
+      <c r="M442" s="1">
+        <v>0</v>
       </c>
       <c r="N442" s="1"/>
     </row>
@@ -18704,7 +18696,7 @@
       <c r="K444" s="7"/>
       <c r="L444" s="7"/>
       <c r="M444" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="N444" s="1"/>
     </row>
@@ -18759,8 +18751,8 @@
       <c r="J446" s="6"/>
       <c r="K446" s="7"/>
       <c r="L446" s="7"/>
-      <c r="M446" s="3" t="s">
-        <v>613</v>
+      <c r="M446" s="1">
+        <v>0</v>
       </c>
       <c r="N446" s="1"/>
     </row>
@@ -18787,8 +18779,8 @@
       <c r="J447" s="6"/>
       <c r="K447" s="7"/>
       <c r="L447" s="7"/>
-      <c r="M447" s="1" t="s">
-        <v>613</v>
+      <c r="M447" s="1">
+        <v>0</v>
       </c>
       <c r="N447" s="1"/>
     </row>
@@ -18899,8 +18891,8 @@
       <c r="J451" s="6"/>
       <c r="K451" s="7"/>
       <c r="L451" s="7"/>
-      <c r="M451" s="3" t="s">
-        <v>613</v>
+      <c r="M451" s="1">
+        <v>0</v>
       </c>
       <c r="N451" s="1"/>
     </row>
@@ -19095,8 +19087,8 @@
       <c r="J458" s="6"/>
       <c r="K458" s="7"/>
       <c r="L458" s="7"/>
-      <c r="M458" s="3" t="s">
-        <v>613</v>
+      <c r="M458" s="1">
+        <v>0</v>
       </c>
       <c r="N458" s="1"/>
     </row>
@@ -19205,8 +19197,8 @@
       <c r="J462" s="6"/>
       <c r="K462" s="7"/>
       <c r="L462" s="7"/>
-      <c r="M462" s="3" t="s">
-        <v>613</v>
+      <c r="M462" s="1">
+        <v>0</v>
       </c>
       <c r="N462" s="1"/>
     </row>
@@ -19257,8 +19249,8 @@
       <c r="J464" s="6"/>
       <c r="K464" s="7"/>
       <c r="L464" s="7"/>
-      <c r="M464" s="3" t="s">
-        <v>613</v>
+      <c r="M464" s="1">
+        <v>0</v>
       </c>
       <c r="N464" s="1"/>
     </row>
@@ -19397,8 +19389,8 @@
       <c r="J469" s="6"/>
       <c r="K469" s="7"/>
       <c r="L469" s="7"/>
-      <c r="M469" s="3" t="s">
-        <v>613</v>
+      <c r="M469" s="1">
+        <v>0</v>
       </c>
       <c r="N469" s="1"/>
     </row>
@@ -19789,8 +19781,8 @@
         <v>1200</v>
       </c>
       <c r="L483" s="10"/>
-      <c r="M483" s="1" t="s">
-        <v>613</v>
+      <c r="M483" s="1">
+        <v>0</v>
       </c>
       <c r="N483" s="1"/>
     </row>
@@ -19957,8 +19949,8 @@
         <v>330</v>
       </c>
       <c r="L489" s="10"/>
-      <c r="M489" s="1" t="s">
-        <v>613</v>
+      <c r="M489" s="1">
+        <v>0</v>
       </c>
       <c r="N489" s="1"/>
     </row>
@@ -19985,8 +19977,8 @@
       <c r="J490" s="15"/>
       <c r="K490" s="10"/>
       <c r="L490" s="10"/>
-      <c r="M490" s="1" t="s">
-        <v>613</v>
+      <c r="M490" s="1">
+        <v>0</v>
       </c>
       <c r="N490" s="1"/>
     </row>
@@ -20125,8 +20117,8 @@
         <v>1350</v>
       </c>
       <c r="L495" s="10"/>
-      <c r="M495" s="1" t="s">
-        <v>613</v>
+      <c r="M495" s="1">
+        <v>0</v>
       </c>
       <c r="N495" s="1"/>
     </row>
@@ -20153,8 +20145,8 @@
         <v>171</v>
       </c>
       <c r="L496" s="10"/>
-      <c r="M496" s="1" t="s">
-        <v>625</v>
+      <c r="M496" s="1">
+        <v>0</v>
       </c>
       <c r="N496" s="1"/>
     </row>
@@ -20237,8 +20229,8 @@
         <v>300</v>
       </c>
       <c r="L499" s="10"/>
-      <c r="M499" s="1" t="s">
-        <v>613</v>
+      <c r="M499" s="1">
+        <v>0</v>
       </c>
       <c r="N499" s="1"/>
     </row>
@@ -20265,8 +20257,8 @@
         <v>250</v>
       </c>
       <c r="L500" s="10"/>
-      <c r="M500" s="1" t="s">
-        <v>613</v>
+      <c r="M500" s="1">
+        <v>0</v>
       </c>
       <c r="N500" s="1"/>
     </row>
@@ -20545,8 +20537,8 @@
         <v>153</v>
       </c>
       <c r="L510" s="10"/>
-      <c r="M510" s="1" t="s">
-        <v>613</v>
+      <c r="M510" s="1">
+        <v>0</v>
       </c>
       <c r="N510" s="1"/>
     </row>
@@ -20657,8 +20649,8 @@
         <v>489</v>
       </c>
       <c r="L514" s="10"/>
-      <c r="M514" s="1" t="s">
-        <v>613</v>
+      <c r="M514" s="1">
+        <v>0</v>
       </c>
       <c r="N514" s="1"/>
     </row>
@@ -21245,8 +21237,8 @@
         <v>3984</v>
       </c>
       <c r="L535" s="10"/>
-      <c r="M535" s="1" t="s">
-        <v>613</v>
+      <c r="M535" s="1">
+        <v>0</v>
       </c>
       <c r="N535" s="1"/>
     </row>
@@ -21439,8 +21431,8 @@
         <v>50</v>
       </c>
       <c r="L542" s="10"/>
-      <c r="M542" s="1" t="s">
-        <v>613</v>
+      <c r="M542" s="1">
+        <v>0</v>
       </c>
       <c r="N542" s="1"/>
     </row>
@@ -21579,8 +21571,8 @@
         <v>827</v>
       </c>
       <c r="L547" s="10"/>
-      <c r="M547" s="1" t="s">
-        <v>613</v>
+      <c r="M547" s="1">
+        <v>0</v>
       </c>
       <c r="N547" s="1"/>
     </row>
@@ -21641,18 +21633,12 @@
       <c r="N549" s="1"/>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A550" s="1" t="s">
-        <v>577</v>
-      </c>
+      <c r="A550" s="1"/>
       <c r="B550" s="1"/>
-      <c r="C550" s="8" t="s">
-        <v>578</v>
-      </c>
+      <c r="C550" s="8"/>
       <c r="D550" s="8"/>
       <c r="E550" s="8"/>
-      <c r="F550" s="8" t="s">
-        <v>576</v>
-      </c>
+      <c r="F550" s="8"/>
       <c r="G550" s="8"/>
       <c r="H550" s="9"/>
       <c r="I550" s="9"/>
@@ -21692,18 +21678,18 @@
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B552" s="1">
         <v>480</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G552" s="4"/>
       <c r="H552" s="4"/>
@@ -21720,13 +21706,13 @@
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B553" s="1">
         <v>481</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
@@ -21748,18 +21734,18 @@
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B554" s="1">
         <v>482</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G554" s="4"/>
       <c r="H554" s="4"/>
@@ -21776,46 +21762,46 @@
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B555" s="1">
         <v>483</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G555" s="4"/>
       <c r="H555" s="4"/>
       <c r="I555" s="4"/>
       <c r="J555" s="4"/>
       <c r="K555" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L555" s="4"/>
-      <c r="M555" s="1" t="s">
-        <v>611</v>
+      <c r="M555" s="1">
+        <v>0</v>
       </c>
       <c r="N555" s="1"/>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B556" s="1">
         <v>484</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G556" s="4"/>
       <c r="H556" s="4"/>
@@ -21832,18 +21818,18 @@
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B557" s="1">
         <v>485</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G557" s="4"/>
       <c r="H557" s="4"/>
@@ -21860,13 +21846,13 @@
     </row>
     <row r="558" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B558" s="1">
         <v>486</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -21888,13 +21874,13 @@
     </row>
     <row r="559" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B559" s="1">
         <v>487</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
@@ -21916,13 +21902,13 @@
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B560" s="1">
         <v>488</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
@@ -21944,7 +21930,7 @@
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B561" s="1">
         <v>489</v>
@@ -21972,13 +21958,13 @@
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B562" s="1">
         <v>490</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
@@ -22000,7 +21986,7 @@
     </row>
     <row r="563" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B563" s="1">
         <v>491</v>
@@ -22028,13 +22014,13 @@
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B564" s="1">
         <v>492</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
@@ -22056,13 +22042,13 @@
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B565" s="1">
         <v>493</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
@@ -22084,13 +22070,13 @@
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B566" s="1">
         <v>494</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
@@ -22112,13 +22098,13 @@
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B567" s="1">
         <v>495</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
@@ -22140,13 +22126,13 @@
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B568" s="1">
         <v>496</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
@@ -22168,13 +22154,13 @@
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B569" s="1">
         <v>497</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -22196,13 +22182,13 @@
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B570" s="1">
         <v>498</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
@@ -22224,13 +22210,13 @@
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B571" s="1">
         <v>499</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
@@ -22252,13 +22238,13 @@
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B572" s="1">
         <v>500</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
@@ -22280,13 +22266,13 @@
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B573" s="1">
         <v>501</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
@@ -22308,18 +22294,18 @@
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B574" s="1">
         <v>502</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G574" s="4"/>
       <c r="H574" s="4"/>
@@ -22327,18 +22313,20 @@
       <c r="J574" s="4"/>
       <c r="K574" s="4"/>
       <c r="L574" s="4"/>
-      <c r="M574" s="1"/>
+      <c r="M574" s="1">
+        <v>0</v>
+      </c>
       <c r="N574" s="1"/>
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B575" s="1">
         <v>503</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
@@ -22360,13 +22348,13 @@
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B576" s="1">
         <v>504</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
@@ -22388,13 +22376,13 @@
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B577" s="1">
         <v>505</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -22414,13 +22402,13 @@
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B578" s="1">
         <v>506</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
@@ -22442,13 +22430,13 @@
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B579" s="1">
         <v>507</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -22470,13 +22458,13 @@
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B580" s="1">
         <v>508</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2941,7 +2941,7 @@
   <dimension ref="A1:U580"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2980,11 +2980,11 @@
       </c>
       <c r="N1" s="33"/>
       <c r="O1" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="R1" s="6"/>
       <c r="S1" s="6" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -2420,7 +2420,7 @@
     <t>تجريبي</t>
   </si>
   <si>
-    <t>logo.jpg</t>
+    <t>img/logo.jpg</t>
   </si>
 </sst>
 </file>
@@ -2953,7 +2953,7 @@
   <dimension ref="A1:Z580"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
